--- a/Shocks/ShockMaster.xlsx
+++ b/Shocks/ShockMaster.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicog\Desktop\Nicolò\GitHub\GreenTechs\Shocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Shocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC74F41-6CAF-42CE-B237-35D1413C0DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C3A865-FC96-4867-B55B-FDEABAD06022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AC5AC57-1F64-4F2D-BB65-F878D395C517}"/>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{FDEE0995-F68A-4ED9-9CCF-85B3630CFFD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FDEE0995-F68A-4ED9-9CCF-85B3630CFFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="ShockMaster" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="IEA_Electricity prices" sheetId="4" r:id="rId7"/>
     <sheet name="EXIOHSUT_Electricity prices" sheetId="5" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShockMaster!$A$1:$M$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -312,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,6 +343,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,15 +665,15 @@
   </sheetPr>
   <dimension ref="A1:M406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.88671875" customWidth="1"/>
@@ -726,7 +732,7 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="13">
         <v>2011</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -760,7 +766,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="13">
         <v>2011</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -794,7 +800,7 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="13">
         <v>2011</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -828,7 +834,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="13">
         <v>2012</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -862,7 +868,7 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="13">
         <v>2012</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -896,7 +902,7 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="13">
         <v>2012</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -930,7 +936,7 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="13">
         <v>2013</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -964,7 +970,7 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="13">
         <v>2013</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -998,7 +1004,7 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="13">
         <v>2013</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1032,7 +1038,7 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="13">
         <v>2014</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1066,7 +1072,7 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="13">
         <v>2014</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1100,7 +1106,7 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="13">
         <v>2014</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1134,7 +1140,7 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="13">
         <v>2015</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1168,7 +1174,7 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="13">
         <v>2015</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1202,7 +1208,7 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="13">
         <v>2015</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1236,7 +1242,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="13">
         <v>2016</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1270,7 +1276,7 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="13">
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1304,7 +1310,7 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="13">
         <v>2016</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1338,7 +1344,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="13">
         <v>2017</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1372,7 +1378,7 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="13">
         <v>2017</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1406,7 +1412,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="13">
         <v>2017</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1440,7 +1446,7 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="13">
         <v>2018</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1474,7 +1480,7 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="13">
         <v>2018</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1508,7 +1514,7 @@
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="13">
         <v>2018</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1542,7 +1548,7 @@
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="13">
         <v>2019</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1576,7 +1582,7 @@
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="13">
         <v>2019</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1610,7 +1616,7 @@
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="13">
         <v>2019</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1644,7 +1650,7 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="13">
         <v>2011</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1678,7 +1684,7 @@
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="13">
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1712,7 +1718,7 @@
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="13">
         <v>2011</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1746,7 +1752,7 @@
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="13">
         <v>2012</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1780,7 +1786,7 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="13">
         <v>2012</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -1814,7 +1820,7 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="13">
         <v>2012</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1848,7 +1854,7 @@
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="13">
         <v>2013</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1882,7 +1888,7 @@
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="13">
         <v>2013</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1916,7 +1922,7 @@
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="13">
         <v>2013</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1950,7 +1956,7 @@
       <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="13">
         <v>2014</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1984,7 +1990,7 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="13">
         <v>2014</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2018,7 +2024,7 @@
       <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="13">
         <v>2014</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2052,7 +2058,7 @@
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="13">
         <v>2015</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2086,7 +2092,7 @@
       <c r="A42" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="13">
         <v>2015</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2120,7 +2126,7 @@
       <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="13">
         <v>2015</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -2154,7 +2160,7 @@
       <c r="A44" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="13">
         <v>2016</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2188,7 +2194,7 @@
       <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="13">
         <v>2016</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2222,7 +2228,7 @@
       <c r="A46" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="13">
         <v>2016</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2256,7 +2262,7 @@
       <c r="A47" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="13">
         <v>2017</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2290,7 +2296,7 @@
       <c r="A48" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="13">
         <v>2017</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2324,7 +2330,7 @@
       <c r="A49" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="13">
         <v>2017</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2358,7 +2364,7 @@
       <c r="A50" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="13">
         <v>2018</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -2392,7 +2398,7 @@
       <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="13">
         <v>2018</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -2426,7 +2432,7 @@
       <c r="A52" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="13">
         <v>2018</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2460,7 +2466,7 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="13">
         <v>2019</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2494,7 +2500,7 @@
       <c r="A54" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="13">
         <v>2019</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2528,7 +2534,7 @@
       <c r="A55" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="13">
         <v>2019</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2562,7 +2568,7 @@
       <c r="A56" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="13">
         <v>2011</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2596,7 +2602,7 @@
       <c r="A57" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="13">
         <v>2011</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2630,7 +2636,7 @@
       <c r="A58" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="13">
         <v>2011</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -2664,7 +2670,7 @@
       <c r="A59" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="13">
         <v>2012</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2698,7 +2704,7 @@
       <c r="A60" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="13">
         <v>2012</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -2732,7 +2738,7 @@
       <c r="A61" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="13">
         <v>2012</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2766,7 +2772,7 @@
       <c r="A62" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="13">
         <v>2013</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -2800,7 +2806,7 @@
       <c r="A63" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="13">
         <v>2013</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2834,7 +2840,7 @@
       <c r="A64" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="13">
         <v>2013</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -2868,7 +2874,7 @@
       <c r="A65" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="13">
         <v>2014</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2902,7 +2908,7 @@
       <c r="A66" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="13">
         <v>2014</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -2936,7 +2942,7 @@
       <c r="A67" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="13">
         <v>2014</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -2970,7 +2976,7 @@
       <c r="A68" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="13">
         <v>2015</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3004,7 +3010,7 @@
       <c r="A69" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="13">
         <v>2015</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3038,7 +3044,7 @@
       <c r="A70" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="13">
         <v>2015</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3072,7 +3078,7 @@
       <c r="A71" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="13">
         <v>2016</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3106,7 +3112,7 @@
       <c r="A72" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="13">
         <v>2016</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3140,7 +3146,7 @@
       <c r="A73" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="13">
         <v>2016</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3174,7 +3180,7 @@
       <c r="A74" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="13">
         <v>2017</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3208,7 +3214,7 @@
       <c r="A75" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="13">
         <v>2017</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3242,7 +3248,7 @@
       <c r="A76" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="13">
         <v>2017</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3276,7 +3282,7 @@
       <c r="A77" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="13">
         <v>2018</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3310,7 +3316,7 @@
       <c r="A78" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -3344,7 +3350,7 @@
       <c r="A79" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -3378,7 +3384,7 @@
       <c r="A80" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="13">
         <v>2019</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3412,7 +3418,7 @@
       <c r="A81" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="13">
         <v>2019</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -3446,7 +3452,7 @@
       <c r="A82" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="13">
         <v>2019</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -3480,7 +3486,7 @@
       <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="13">
         <v>2011</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -3514,7 +3520,7 @@
       <c r="A84" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="13">
         <v>2011</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3548,7 +3554,7 @@
       <c r="A85" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="13">
         <v>2011</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3582,7 +3588,7 @@
       <c r="A86" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="13">
         <v>2012</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -3616,7 +3622,7 @@
       <c r="A87" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="13">
         <v>2012</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -3650,7 +3656,7 @@
       <c r="A88" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="13">
         <v>2012</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -3684,7 +3690,7 @@
       <c r="A89" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="13">
         <v>2013</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3718,7 +3724,7 @@
       <c r="A90" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="13">
         <v>2013</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3752,7 +3758,7 @@
       <c r="A91" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="13">
         <v>2013</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -3786,7 +3792,7 @@
       <c r="A92" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="13">
         <v>2014</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -3820,7 +3826,7 @@
       <c r="A93" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="13">
         <v>2014</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -3854,7 +3860,7 @@
       <c r="A94" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="13">
         <v>2014</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -3888,7 +3894,7 @@
       <c r="A95" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="13">
         <v>2015</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -3922,7 +3928,7 @@
       <c r="A96" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="13">
         <v>2015</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -3956,7 +3962,7 @@
       <c r="A97" t="s">
         <v>20</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="13">
         <v>2015</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -3990,7 +3996,7 @@
       <c r="A98" t="s">
         <v>20</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="13">
         <v>2016</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -4024,7 +4030,7 @@
       <c r="A99" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="13">
         <v>2016</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -4058,7 +4064,7 @@
       <c r="A100" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="13">
         <v>2016</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4092,7 +4098,7 @@
       <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="13">
         <v>2017</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -4126,7 +4132,7 @@
       <c r="A102" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="13">
         <v>2017</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -4160,7 +4166,7 @@
       <c r="A103" t="s">
         <v>20</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="13">
         <v>2017</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -4194,7 +4200,7 @@
       <c r="A104" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="13">
         <v>2018</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -4228,7 +4234,7 @@
       <c r="A105" t="s">
         <v>20</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="13">
         <v>2018</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -4262,7 +4268,7 @@
       <c r="A106" t="s">
         <v>20</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="13">
         <v>2018</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4296,7 +4302,7 @@
       <c r="A107" t="s">
         <v>20</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="13">
         <v>2019</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -4330,7 +4336,7 @@
       <c r="A108" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="13">
         <v>2019</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4364,7 +4370,7 @@
       <c r="A109" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="13">
         <v>2019</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -4398,7 +4404,7 @@
       <c r="A110" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="13">
         <v>2011</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -4432,7 +4438,7 @@
       <c r="A111" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="13">
         <v>2011</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -4466,7 +4472,7 @@
       <c r="A112" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="13">
         <v>2011</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -4500,7 +4506,7 @@
       <c r="A113" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="13">
         <v>2012</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -4534,7 +4540,7 @@
       <c r="A114" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="13">
         <v>2012</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -4568,7 +4574,7 @@
       <c r="A115" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="13">
         <v>2012</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -4602,7 +4608,7 @@
       <c r="A116" t="s">
         <v>33</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="13">
         <v>2013</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -4636,7 +4642,7 @@
       <c r="A117" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="13">
         <v>2013</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -4670,7 +4676,7 @@
       <c r="A118" t="s">
         <v>33</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="13">
         <v>2013</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4704,7 +4710,7 @@
       <c r="A119" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="13">
         <v>2014</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -4738,7 +4744,7 @@
       <c r="A120" t="s">
         <v>33</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="13">
         <v>2014</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4772,7 +4778,7 @@
       <c r="A121" t="s">
         <v>33</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="13">
         <v>2014</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -4806,7 +4812,7 @@
       <c r="A122" t="s">
         <v>33</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="13">
         <v>2015</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -4840,7 +4846,7 @@
       <c r="A123" t="s">
         <v>33</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="13">
         <v>2015</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -4874,7 +4880,7 @@
       <c r="A124" t="s">
         <v>33</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="13">
         <v>2015</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -4908,7 +4914,7 @@
       <c r="A125" t="s">
         <v>33</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="13">
         <v>2016</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -4942,7 +4948,7 @@
       <c r="A126" t="s">
         <v>33</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="13">
         <v>2016</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -4976,7 +4982,7 @@
       <c r="A127" t="s">
         <v>33</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="13">
         <v>2016</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -5010,7 +5016,7 @@
       <c r="A128" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="13">
         <v>2017</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -5044,7 +5050,7 @@
       <c r="A129" t="s">
         <v>33</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="13">
         <v>2017</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -5078,7 +5084,7 @@
       <c r="A130" t="s">
         <v>33</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="13">
         <v>2017</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -5112,7 +5118,7 @@
       <c r="A131" t="s">
         <v>33</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="13">
         <v>2018</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -5146,7 +5152,7 @@
       <c r="A132" t="s">
         <v>33</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="13">
         <v>2018</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -5180,7 +5186,7 @@
       <c r="A133" t="s">
         <v>33</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="13">
         <v>2018</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -5214,7 +5220,7 @@
       <c r="A134" t="s">
         <v>33</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="13">
         <v>2019</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -5248,7 +5254,7 @@
       <c r="A135" t="s">
         <v>33</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="13">
         <v>2019</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -5282,7 +5288,7 @@
       <c r="A136" t="s">
         <v>33</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="13">
         <v>2019</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -5316,7 +5322,7 @@
       <c r="A137" t="s">
         <v>34</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="13">
         <v>2011</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -5350,7 +5356,7 @@
       <c r="A138" t="s">
         <v>34</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="13">
         <v>2011</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -5384,7 +5390,7 @@
       <c r="A139" t="s">
         <v>34</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="13">
         <v>2011</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -5418,7 +5424,7 @@
       <c r="A140" t="s">
         <v>34</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="13">
         <v>2012</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5452,7 +5458,7 @@
       <c r="A141" t="s">
         <v>34</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="13">
         <v>2012</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -5486,7 +5492,7 @@
       <c r="A142" t="s">
         <v>34</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="13">
         <v>2012</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -5520,7 +5526,7 @@
       <c r="A143" t="s">
         <v>34</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="13">
         <v>2013</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -5554,7 +5560,7 @@
       <c r="A144" t="s">
         <v>34</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="13">
         <v>2013</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -5588,7 +5594,7 @@
       <c r="A145" t="s">
         <v>34</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="13">
         <v>2013</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -5622,7 +5628,7 @@
       <c r="A146" t="s">
         <v>34</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="13">
         <v>2014</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -5656,7 +5662,7 @@
       <c r="A147" t="s">
         <v>34</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="13">
         <v>2014</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -5690,7 +5696,7 @@
       <c r="A148" t="s">
         <v>34</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="13">
         <v>2014</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -5724,7 +5730,7 @@
       <c r="A149" t="s">
         <v>34</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="13">
         <v>2015</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -5758,7 +5764,7 @@
       <c r="A150" t="s">
         <v>34</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="13">
         <v>2015</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -5792,7 +5798,7 @@
       <c r="A151" t="s">
         <v>34</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="13">
         <v>2015</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -5826,7 +5832,7 @@
       <c r="A152" t="s">
         <v>34</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="13">
         <v>2016</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -5860,7 +5866,7 @@
       <c r="A153" t="s">
         <v>34</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="13">
         <v>2016</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -5894,7 +5900,7 @@
       <c r="A154" t="s">
         <v>34</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="13">
         <v>2016</v>
       </c>
       <c r="C154" s="4" t="s">
@@ -5928,7 +5934,7 @@
       <c r="A155" t="s">
         <v>34</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="13">
         <v>2017</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -5962,7 +5968,7 @@
       <c r="A156" t="s">
         <v>34</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="13">
         <v>2017</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -5996,7 +6002,7 @@
       <c r="A157" t="s">
         <v>34</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="13">
         <v>2017</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -6030,7 +6036,7 @@
       <c r="A158" t="s">
         <v>34</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="13">
         <v>2018</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -6064,7 +6070,7 @@
       <c r="A159" t="s">
         <v>34</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="13">
         <v>2018</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -6098,7 +6104,7 @@
       <c r="A160" t="s">
         <v>34</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="13">
         <v>2018</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -6132,7 +6138,7 @@
       <c r="A161" t="s">
         <v>34</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="13">
         <v>2019</v>
       </c>
       <c r="C161" s="4" t="s">
@@ -6166,7 +6172,7 @@
       <c r="A162" t="s">
         <v>34</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="13">
         <v>2019</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -6200,7 +6206,7 @@
       <c r="A163" t="s">
         <v>34</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="13">
         <v>2019</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -6234,7 +6240,7 @@
       <c r="A164" t="s">
         <v>20</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="13">
         <v>2011</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -6268,7 +6274,7 @@
       <c r="A165" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="13">
         <v>2011</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -6302,7 +6308,7 @@
       <c r="A166" t="s">
         <v>20</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="13">
         <v>2011</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -6336,7 +6342,7 @@
       <c r="A167" t="s">
         <v>20</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="13">
         <v>2012</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -6370,7 +6376,7 @@
       <c r="A168" t="s">
         <v>20</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="13">
         <v>2012</v>
       </c>
       <c r="C168" s="4" t="s">
@@ -6404,7 +6410,7 @@
       <c r="A169" t="s">
         <v>20</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="13">
         <v>2012</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -6438,7 +6444,7 @@
       <c r="A170" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="13">
         <v>2013</v>
       </c>
       <c r="C170" s="4" t="s">
@@ -6472,7 +6478,7 @@
       <c r="A171" t="s">
         <v>20</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="13">
         <v>2013</v>
       </c>
       <c r="C171" s="4" t="s">
@@ -6506,7 +6512,7 @@
       <c r="A172" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="13">
         <v>2013</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -6540,7 +6546,7 @@
       <c r="A173" t="s">
         <v>20</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="13">
         <v>2014</v>
       </c>
       <c r="C173" s="4" t="s">
@@ -6574,7 +6580,7 @@
       <c r="A174" t="s">
         <v>20</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="13">
         <v>2014</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -6608,7 +6614,7 @@
       <c r="A175" t="s">
         <v>20</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="13">
         <v>2014</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -6642,7 +6648,7 @@
       <c r="A176" t="s">
         <v>20</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="13">
         <v>2015</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -6676,7 +6682,7 @@
       <c r="A177" t="s">
         <v>20</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="13">
         <v>2015</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -6710,7 +6716,7 @@
       <c r="A178" t="s">
         <v>20</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="13">
         <v>2015</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -6744,7 +6750,7 @@
       <c r="A179" t="s">
         <v>20</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="13">
         <v>2016</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -6778,7 +6784,7 @@
       <c r="A180" t="s">
         <v>20</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="13">
         <v>2016</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -6812,7 +6818,7 @@
       <c r="A181" t="s">
         <v>20</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="13">
         <v>2016</v>
       </c>
       <c r="C181" s="4" t="s">
@@ -6846,7 +6852,7 @@
       <c r="A182" t="s">
         <v>20</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="13">
         <v>2017</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -6880,7 +6886,7 @@
       <c r="A183" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="13">
         <v>2017</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -6914,7 +6920,7 @@
       <c r="A184" t="s">
         <v>20</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="13">
         <v>2017</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -6948,7 +6954,7 @@
       <c r="A185" t="s">
         <v>20</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="13">
         <v>2018</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -6982,7 +6988,7 @@
       <c r="A186" t="s">
         <v>20</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="13">
         <v>2018</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -7016,7 +7022,7 @@
       <c r="A187" t="s">
         <v>20</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="13">
         <v>2018</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -7050,7 +7056,7 @@
       <c r="A188" t="s">
         <v>20</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="13">
         <v>2019</v>
       </c>
       <c r="C188" s="4" t="s">
@@ -7084,7 +7090,7 @@
       <c r="A189" t="s">
         <v>20</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="13">
         <v>2019</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -7118,7 +7124,7 @@
       <c r="A190" t="s">
         <v>20</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="13">
         <v>2019</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -7152,7 +7158,7 @@
       <c r="A191" t="s">
         <v>33</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="13">
         <v>2011</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -7186,7 +7192,7 @@
       <c r="A192" t="s">
         <v>33</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="13">
         <v>2011</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -7220,7 +7226,7 @@
       <c r="A193" t="s">
         <v>33</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="13">
         <v>2011</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -7254,7 +7260,7 @@
       <c r="A194" t="s">
         <v>33</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="13">
         <v>2012</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -7288,7 +7294,7 @@
       <c r="A195" t="s">
         <v>33</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="13">
         <v>2012</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -7322,7 +7328,7 @@
       <c r="A196" t="s">
         <v>33</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="13">
         <v>2012</v>
       </c>
       <c r="C196" s="4" t="s">
@@ -7356,7 +7362,7 @@
       <c r="A197" t="s">
         <v>33</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="13">
         <v>2013</v>
       </c>
       <c r="C197" s="4" t="s">
@@ -7390,7 +7396,7 @@
       <c r="A198" t="s">
         <v>33</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="13">
         <v>2013</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -7424,7 +7430,7 @@
       <c r="A199" t="s">
         <v>33</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="13">
         <v>2013</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -7458,7 +7464,7 @@
       <c r="A200" t="s">
         <v>33</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="13">
         <v>2014</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -7492,7 +7498,7 @@
       <c r="A201" t="s">
         <v>33</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="13">
         <v>2014</v>
       </c>
       <c r="C201" s="4" t="s">
@@ -7526,7 +7532,7 @@
       <c r="A202" t="s">
         <v>33</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="13">
         <v>2014</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -7560,7 +7566,7 @@
       <c r="A203" t="s">
         <v>33</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="13">
         <v>2015</v>
       </c>
       <c r="C203" s="4" t="s">
@@ -7594,7 +7600,7 @@
       <c r="A204" t="s">
         <v>33</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="13">
         <v>2015</v>
       </c>
       <c r="C204" s="4" t="s">
@@ -7628,7 +7634,7 @@
       <c r="A205" t="s">
         <v>33</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="13">
         <v>2015</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -7662,7 +7668,7 @@
       <c r="A206" t="s">
         <v>33</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="13">
         <v>2016</v>
       </c>
       <c r="C206" s="4" t="s">
@@ -7696,7 +7702,7 @@
       <c r="A207" t="s">
         <v>33</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="13">
         <v>2016</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -7730,7 +7736,7 @@
       <c r="A208" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="13">
         <v>2016</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -7764,7 +7770,7 @@
       <c r="A209" t="s">
         <v>33</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="13">
         <v>2017</v>
       </c>
       <c r="C209" s="4" t="s">
@@ -7798,7 +7804,7 @@
       <c r="A210" t="s">
         <v>33</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="13">
         <v>2017</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -7832,7 +7838,7 @@
       <c r="A211" t="s">
         <v>33</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="13">
         <v>2017</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -7866,7 +7872,7 @@
       <c r="A212" t="s">
         <v>33</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="13">
         <v>2018</v>
       </c>
       <c r="C212" s="4" t="s">
@@ -7900,7 +7906,7 @@
       <c r="A213" t="s">
         <v>33</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="13">
         <v>2018</v>
       </c>
       <c r="C213" s="4" t="s">
@@ -7934,7 +7940,7 @@
       <c r="A214" t="s">
         <v>33</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="13">
         <v>2018</v>
       </c>
       <c r="C214" s="4" t="s">
@@ -7968,7 +7974,7 @@
       <c r="A215" t="s">
         <v>33</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="13">
         <v>2019</v>
       </c>
       <c r="C215" s="4" t="s">
@@ -8002,7 +8008,7 @@
       <c r="A216" t="s">
         <v>33</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="13">
         <v>2019</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -8036,7 +8042,7 @@
       <c r="A217" t="s">
         <v>33</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="13">
         <v>2019</v>
       </c>
       <c r="C217" s="4" t="s">
@@ -8070,7 +8076,7 @@
       <c r="A218" t="s">
         <v>34</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="13">
         <v>2011</v>
       </c>
       <c r="C218" s="4" t="s">
@@ -8104,7 +8110,7 @@
       <c r="A219" t="s">
         <v>34</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="13">
         <v>2011</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -8138,7 +8144,7 @@
       <c r="A220" t="s">
         <v>34</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="13">
         <v>2011</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -8172,7 +8178,7 @@
       <c r="A221" t="s">
         <v>34</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="13">
         <v>2012</v>
       </c>
       <c r="C221" s="4" t="s">
@@ -8206,7 +8212,7 @@
       <c r="A222" t="s">
         <v>34</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="13">
         <v>2012</v>
       </c>
       <c r="C222" s="4" t="s">
@@ -8240,7 +8246,7 @@
       <c r="A223" t="s">
         <v>34</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="13">
         <v>2012</v>
       </c>
       <c r="C223" s="4" t="s">
@@ -8274,7 +8280,7 @@
       <c r="A224" t="s">
         <v>34</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="13">
         <v>2013</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -8308,7 +8314,7 @@
       <c r="A225" t="s">
         <v>34</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="13">
         <v>2013</v>
       </c>
       <c r="C225" s="4" t="s">
@@ -8342,7 +8348,7 @@
       <c r="A226" t="s">
         <v>34</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="13">
         <v>2013</v>
       </c>
       <c r="C226" s="4" t="s">
@@ -8376,7 +8382,7 @@
       <c r="A227" t="s">
         <v>34</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="13">
         <v>2014</v>
       </c>
       <c r="C227" s="4" t="s">
@@ -8410,7 +8416,7 @@
       <c r="A228" t="s">
         <v>34</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="13">
         <v>2014</v>
       </c>
       <c r="C228" s="4" t="s">
@@ -8444,7 +8450,7 @@
       <c r="A229" t="s">
         <v>34</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="13">
         <v>2014</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -8478,7 +8484,7 @@
       <c r="A230" t="s">
         <v>34</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="13">
         <v>2015</v>
       </c>
       <c r="C230" s="4" t="s">
@@ -8512,7 +8518,7 @@
       <c r="A231" t="s">
         <v>34</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="13">
         <v>2015</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -8546,7 +8552,7 @@
       <c r="A232" t="s">
         <v>34</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="13">
         <v>2015</v>
       </c>
       <c r="C232" s="4" t="s">
@@ -8580,7 +8586,7 @@
       <c r="A233" t="s">
         <v>34</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="13">
         <v>2016</v>
       </c>
       <c r="C233" s="4" t="s">
@@ -8614,7 +8620,7 @@
       <c r="A234" t="s">
         <v>34</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="13">
         <v>2016</v>
       </c>
       <c r="C234" s="4" t="s">
@@ -8648,7 +8654,7 @@
       <c r="A235" t="s">
         <v>34</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="13">
         <v>2016</v>
       </c>
       <c r="C235" s="4" t="s">
@@ -8682,7 +8688,7 @@
       <c r="A236" t="s">
         <v>34</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="13">
         <v>2017</v>
       </c>
       <c r="C236" s="4" t="s">
@@ -8716,7 +8722,7 @@
       <c r="A237" t="s">
         <v>34</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="13">
         <v>2017</v>
       </c>
       <c r="C237" s="4" t="s">
@@ -8750,7 +8756,7 @@
       <c r="A238" t="s">
         <v>34</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="13">
         <v>2017</v>
       </c>
       <c r="C238" s="4" t="s">
@@ -8784,7 +8790,7 @@
       <c r="A239" t="s">
         <v>34</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="13">
         <v>2018</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -8818,7 +8824,7 @@
       <c r="A240" t="s">
         <v>34</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="13">
         <v>2018</v>
       </c>
       <c r="C240" s="4" t="s">
@@ -8852,7 +8858,7 @@
       <c r="A241" t="s">
         <v>34</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="13">
         <v>2018</v>
       </c>
       <c r="C241" s="4" t="s">
@@ -8886,7 +8892,7 @@
       <c r="A242" t="s">
         <v>34</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="13">
         <v>2019</v>
       </c>
       <c r="C242" s="4" t="s">
@@ -8920,7 +8926,7 @@
       <c r="A243" t="s">
         <v>34</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="13">
         <v>2019</v>
       </c>
       <c r="C243" s="4" t="s">
@@ -8954,7 +8960,7 @@
       <c r="A244" t="s">
         <v>34</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="13">
         <v>2019</v>
       </c>
       <c r="C244" s="4" t="s">
@@ -8988,7 +8994,7 @@
       <c r="A245" t="s">
         <v>20</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="13">
         <v>2011</v>
       </c>
       <c r="C245" s="4" t="s">
@@ -9019,7 +9025,7 @@
       <c r="A246" t="s">
         <v>20</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="13">
         <v>2011</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -9050,7 +9056,7 @@
       <c r="A247" t="s">
         <v>20</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="13">
         <v>2012</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -9081,7 +9087,7 @@
       <c r="A248" t="s">
         <v>20</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="13">
         <v>2012</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -9112,7 +9118,7 @@
       <c r="A249" t="s">
         <v>20</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="13">
         <v>2013</v>
       </c>
       <c r="C249" s="4" t="s">
@@ -9143,7 +9149,7 @@
       <c r="A250" t="s">
         <v>20</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="13">
         <v>2013</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -9174,7 +9180,7 @@
       <c r="A251" t="s">
         <v>20</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="13">
         <v>2014</v>
       </c>
       <c r="C251" s="4" t="s">
@@ -9205,7 +9211,7 @@
       <c r="A252" t="s">
         <v>20</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="13">
         <v>2014</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -9236,7 +9242,7 @@
       <c r="A253" t="s">
         <v>20</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253" s="13">
         <v>2015</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -9267,7 +9273,7 @@
       <c r="A254" t="s">
         <v>20</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="13">
         <v>2015</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -9298,7 +9304,7 @@
       <c r="A255" t="s">
         <v>20</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255" s="13">
         <v>2016</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -9329,7 +9335,7 @@
       <c r="A256" t="s">
         <v>20</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="13">
         <v>2016</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -9360,7 +9366,7 @@
       <c r="A257" t="s">
         <v>20</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="13">
         <v>2017</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -9391,7 +9397,7 @@
       <c r="A258" t="s">
         <v>20</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="13">
         <v>2017</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -9422,7 +9428,7 @@
       <c r="A259" t="s">
         <v>20</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="13">
         <v>2018</v>
       </c>
       <c r="C259" s="4" t="s">
@@ -9453,7 +9459,7 @@
       <c r="A260" t="s">
         <v>20</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="13">
         <v>2018</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -9484,7 +9490,7 @@
       <c r="A261" t="s">
         <v>20</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261" s="13">
         <v>2019</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -9515,7 +9521,7 @@
       <c r="A262" t="s">
         <v>20</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262" s="13">
         <v>2019</v>
       </c>
       <c r="C262" s="4" t="s">
@@ -9546,7 +9552,7 @@
       <c r="A263" t="s">
         <v>33</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263" s="13">
         <v>2011</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -9577,7 +9583,7 @@
       <c r="A264" t="s">
         <v>33</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="13">
         <v>2011</v>
       </c>
       <c r="C264" s="4" t="s">
@@ -9608,7 +9614,7 @@
       <c r="A265" t="s">
         <v>33</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="13">
         <v>2012</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -9639,7 +9645,7 @@
       <c r="A266" t="s">
         <v>33</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="13">
         <v>2012</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -9670,7 +9676,7 @@
       <c r="A267" t="s">
         <v>33</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="13">
         <v>2013</v>
       </c>
       <c r="C267" s="4" t="s">
@@ -9701,7 +9707,7 @@
       <c r="A268" t="s">
         <v>33</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="13">
         <v>2013</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -9732,7 +9738,7 @@
       <c r="A269" t="s">
         <v>33</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="13">
         <v>2014</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -9763,7 +9769,7 @@
       <c r="A270" t="s">
         <v>33</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="13">
         <v>2014</v>
       </c>
       <c r="C270" s="4" t="s">
@@ -9794,7 +9800,7 @@
       <c r="A271" t="s">
         <v>33</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="13">
         <v>2015</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -9825,7 +9831,7 @@
       <c r="A272" t="s">
         <v>33</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="13">
         <v>2015</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -9856,7 +9862,7 @@
       <c r="A273" t="s">
         <v>33</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="13">
         <v>2016</v>
       </c>
       <c r="C273" s="4" t="s">
@@ -9887,7 +9893,7 @@
       <c r="A274" t="s">
         <v>33</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="13">
         <v>2016</v>
       </c>
       <c r="C274" s="4" t="s">
@@ -9918,7 +9924,7 @@
       <c r="A275" t="s">
         <v>33</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="13">
         <v>2017</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -9949,7 +9955,7 @@
       <c r="A276" t="s">
         <v>33</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="13">
         <v>2017</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -9980,7 +9986,7 @@
       <c r="A277" t="s">
         <v>33</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="13">
         <v>2018</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -10011,7 +10017,7 @@
       <c r="A278" t="s">
         <v>33</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278" s="13">
         <v>2018</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -10042,7 +10048,7 @@
       <c r="A279" t="s">
         <v>33</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279" s="13">
         <v>2019</v>
       </c>
       <c r="C279" s="4" t="s">
@@ -10073,7 +10079,7 @@
       <c r="A280" t="s">
         <v>33</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="13">
         <v>2019</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -10104,7 +10110,7 @@
       <c r="A281" t="s">
         <v>34</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="13">
         <v>2011</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -10135,7 +10141,7 @@
       <c r="A282" t="s">
         <v>34</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="13">
         <v>2011</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -10166,7 +10172,7 @@
       <c r="A283" t="s">
         <v>34</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="13">
         <v>2012</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -10197,7 +10203,7 @@
       <c r="A284" t="s">
         <v>34</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="13">
         <v>2012</v>
       </c>
       <c r="C284" s="4" t="s">
@@ -10228,7 +10234,7 @@
       <c r="A285" t="s">
         <v>34</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285" s="13">
         <v>2013</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -10259,7 +10265,7 @@
       <c r="A286" t="s">
         <v>34</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="13">
         <v>2013</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -10290,7 +10296,7 @@
       <c r="A287" t="s">
         <v>34</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="13">
         <v>2014</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -10321,7 +10327,7 @@
       <c r="A288" t="s">
         <v>34</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="13">
         <v>2014</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -10352,7 +10358,7 @@
       <c r="A289" t="s">
         <v>34</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="13">
         <v>2015</v>
       </c>
       <c r="C289" s="4" t="s">
@@ -10383,7 +10389,7 @@
       <c r="A290" t="s">
         <v>34</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290" s="13">
         <v>2015</v>
       </c>
       <c r="C290" s="4" t="s">
@@ -10414,7 +10420,7 @@
       <c r="A291" t="s">
         <v>34</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291" s="13">
         <v>2016</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -10445,7 +10451,7 @@
       <c r="A292" t="s">
         <v>34</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="13">
         <v>2016</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -10476,7 +10482,7 @@
       <c r="A293" t="s">
         <v>34</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="13">
         <v>2017</v>
       </c>
       <c r="C293" s="4" t="s">
@@ -10507,7 +10513,7 @@
       <c r="A294" t="s">
         <v>34</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294" s="13">
         <v>2017</v>
       </c>
       <c r="C294" s="4" t="s">
@@ -10538,7 +10544,7 @@
       <c r="A295" t="s">
         <v>34</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B295" s="13">
         <v>2018</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -10569,7 +10575,7 @@
       <c r="A296" t="s">
         <v>34</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="13">
         <v>2018</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -10600,7 +10606,7 @@
       <c r="A297" t="s">
         <v>34</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="13">
         <v>2019</v>
       </c>
       <c r="C297" s="4" t="s">
@@ -10631,7 +10637,7 @@
       <c r="A298" t="s">
         <v>34</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="13">
         <v>2019</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -10662,7 +10668,7 @@
       <c r="A299" t="s">
         <v>20</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="13">
         <v>2011</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -10693,7 +10699,7 @@
       <c r="A300" t="s">
         <v>20</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="13">
         <v>2011</v>
       </c>
       <c r="C300" s="4" t="s">
@@ -10724,7 +10730,7 @@
       <c r="A301" t="s">
         <v>20</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="13">
         <v>2012</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -10755,7 +10761,7 @@
       <c r="A302" t="s">
         <v>20</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="13">
         <v>2012</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -10786,7 +10792,7 @@
       <c r="A303" t="s">
         <v>20</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="13">
         <v>2013</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -10817,7 +10823,7 @@
       <c r="A304" t="s">
         <v>20</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="13">
         <v>2013</v>
       </c>
       <c r="C304" s="4" t="s">
@@ -10848,7 +10854,7 @@
       <c r="A305" t="s">
         <v>20</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="13">
         <v>2014</v>
       </c>
       <c r="C305" s="4" t="s">
@@ -10879,7 +10885,7 @@
       <c r="A306" t="s">
         <v>20</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306" s="13">
         <v>2014</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -10910,7 +10916,7 @@
       <c r="A307" t="s">
         <v>20</v>
       </c>
-      <c r="B307" s="4">
+      <c r="B307" s="13">
         <v>2015</v>
       </c>
       <c r="C307" s="4" t="s">
@@ -10941,7 +10947,7 @@
       <c r="A308" t="s">
         <v>20</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308" s="13">
         <v>2015</v>
       </c>
       <c r="C308" s="4" t="s">
@@ -10972,7 +10978,7 @@
       <c r="A309" t="s">
         <v>20</v>
       </c>
-      <c r="B309" s="4">
+      <c r="B309" s="13">
         <v>2016</v>
       </c>
       <c r="C309" s="4" t="s">
@@ -11003,7 +11009,7 @@
       <c r="A310" t="s">
         <v>20</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310" s="13">
         <v>2016</v>
       </c>
       <c r="C310" s="4" t="s">
@@ -11034,7 +11040,7 @@
       <c r="A311" t="s">
         <v>20</v>
       </c>
-      <c r="B311" s="4">
+      <c r="B311" s="13">
         <v>2017</v>
       </c>
       <c r="C311" s="4" t="s">
@@ -11065,7 +11071,7 @@
       <c r="A312" t="s">
         <v>20</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312" s="13">
         <v>2017</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -11096,7 +11102,7 @@
       <c r="A313" t="s">
         <v>20</v>
       </c>
-      <c r="B313" s="4">
+      <c r="B313" s="13">
         <v>2018</v>
       </c>
       <c r="C313" s="4" t="s">
@@ -11127,7 +11133,7 @@
       <c r="A314" t="s">
         <v>20</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="13">
         <v>2018</v>
       </c>
       <c r="C314" s="4" t="s">
@@ -11158,7 +11164,7 @@
       <c r="A315" t="s">
         <v>20</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="13">
         <v>2019</v>
       </c>
       <c r="C315" s="4" t="s">
@@ -11189,7 +11195,7 @@
       <c r="A316" t="s">
         <v>20</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="13">
         <v>2019</v>
       </c>
       <c r="C316" s="4" t="s">
@@ -11220,7 +11226,7 @@
       <c r="A317" t="s">
         <v>33</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="13">
         <v>2011</v>
       </c>
       <c r="C317" s="4" t="s">
@@ -11251,7 +11257,7 @@
       <c r="A318" t="s">
         <v>33</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="13">
         <v>2011</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -11282,7 +11288,7 @@
       <c r="A319" t="s">
         <v>33</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="13">
         <v>2012</v>
       </c>
       <c r="C319" s="4" t="s">
@@ -11313,7 +11319,7 @@
       <c r="A320" t="s">
         <v>33</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="13">
         <v>2012</v>
       </c>
       <c r="C320" s="4" t="s">
@@ -11344,7 +11350,7 @@
       <c r="A321" t="s">
         <v>33</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="13">
         <v>2013</v>
       </c>
       <c r="C321" s="4" t="s">
@@ -11375,7 +11381,7 @@
       <c r="A322" t="s">
         <v>33</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="13">
         <v>2013</v>
       </c>
       <c r="C322" s="4" t="s">
@@ -11406,7 +11412,7 @@
       <c r="A323" t="s">
         <v>33</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="13">
         <v>2014</v>
       </c>
       <c r="C323" s="4" t="s">
@@ -11437,7 +11443,7 @@
       <c r="A324" t="s">
         <v>33</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="13">
         <v>2014</v>
       </c>
       <c r="C324" s="4" t="s">
@@ -11468,7 +11474,7 @@
       <c r="A325" t="s">
         <v>33</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="13">
         <v>2015</v>
       </c>
       <c r="C325" s="4" t="s">
@@ -11499,7 +11505,7 @@
       <c r="A326" t="s">
         <v>33</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326" s="13">
         <v>2015</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -11530,7 +11536,7 @@
       <c r="A327" t="s">
         <v>33</v>
       </c>
-      <c r="B327" s="4">
+      <c r="B327" s="13">
         <v>2016</v>
       </c>
       <c r="C327" s="4" t="s">
@@ -11561,7 +11567,7 @@
       <c r="A328" t="s">
         <v>33</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328" s="13">
         <v>2016</v>
       </c>
       <c r="C328" s="4" t="s">
@@ -11592,7 +11598,7 @@
       <c r="A329" t="s">
         <v>33</v>
       </c>
-      <c r="B329" s="4">
+      <c r="B329" s="13">
         <v>2017</v>
       </c>
       <c r="C329" s="4" t="s">
@@ -11623,7 +11629,7 @@
       <c r="A330" t="s">
         <v>33</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330" s="13">
         <v>2017</v>
       </c>
       <c r="C330" s="4" t="s">
@@ -11654,7 +11660,7 @@
       <c r="A331" t="s">
         <v>33</v>
       </c>
-      <c r="B331" s="4">
+      <c r="B331" s="13">
         <v>2018</v>
       </c>
       <c r="C331" s="4" t="s">
@@ -11685,7 +11691,7 @@
       <c r="A332" t="s">
         <v>33</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332" s="13">
         <v>2018</v>
       </c>
       <c r="C332" s="4" t="s">
@@ -11716,7 +11722,7 @@
       <c r="A333" t="s">
         <v>33</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B333" s="13">
         <v>2019</v>
       </c>
       <c r="C333" s="4" t="s">
@@ -11747,7 +11753,7 @@
       <c r="A334" t="s">
         <v>33</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334" s="13">
         <v>2019</v>
       </c>
       <c r="C334" s="4" t="s">
@@ -11778,7 +11784,7 @@
       <c r="A335" t="s">
         <v>34</v>
       </c>
-      <c r="B335" s="4">
+      <c r="B335" s="13">
         <v>2011</v>
       </c>
       <c r="C335" s="4" t="s">
@@ -11809,7 +11815,7 @@
       <c r="A336" t="s">
         <v>34</v>
       </c>
-      <c r="B336" s="4">
+      <c r="B336" s="13">
         <v>2011</v>
       </c>
       <c r="C336" s="4" t="s">
@@ -11840,7 +11846,7 @@
       <c r="A337" t="s">
         <v>34</v>
       </c>
-      <c r="B337" s="4">
+      <c r="B337" s="13">
         <v>2012</v>
       </c>
       <c r="C337" s="4" t="s">
@@ -11871,7 +11877,7 @@
       <c r="A338" t="s">
         <v>34</v>
       </c>
-      <c r="B338" s="4">
+      <c r="B338" s="13">
         <v>2012</v>
       </c>
       <c r="C338" s="4" t="s">
@@ -11902,7 +11908,7 @@
       <c r="A339" t="s">
         <v>34</v>
       </c>
-      <c r="B339" s="4">
+      <c r="B339" s="13">
         <v>2013</v>
       </c>
       <c r="C339" s="4" t="s">
@@ -11933,7 +11939,7 @@
       <c r="A340" t="s">
         <v>34</v>
       </c>
-      <c r="B340" s="4">
+      <c r="B340" s="13">
         <v>2013</v>
       </c>
       <c r="C340" s="4" t="s">
@@ -11964,7 +11970,7 @@
       <c r="A341" t="s">
         <v>34</v>
       </c>
-      <c r="B341" s="4">
+      <c r="B341" s="13">
         <v>2014</v>
       </c>
       <c r="C341" s="4" t="s">
@@ -11995,7 +12001,7 @@
       <c r="A342" t="s">
         <v>34</v>
       </c>
-      <c r="B342" s="4">
+      <c r="B342" s="13">
         <v>2014</v>
       </c>
       <c r="C342" s="4" t="s">
@@ -12026,7 +12032,7 @@
       <c r="A343" t="s">
         <v>34</v>
       </c>
-      <c r="B343" s="4">
+      <c r="B343" s="13">
         <v>2015</v>
       </c>
       <c r="C343" s="4" t="s">
@@ -12057,7 +12063,7 @@
       <c r="A344" t="s">
         <v>34</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344" s="13">
         <v>2015</v>
       </c>
       <c r="C344" s="4" t="s">
@@ -12088,7 +12094,7 @@
       <c r="A345" t="s">
         <v>34</v>
       </c>
-      <c r="B345" s="4">
+      <c r="B345" s="13">
         <v>2016</v>
       </c>
       <c r="C345" s="4" t="s">
@@ -12119,7 +12125,7 @@
       <c r="A346" t="s">
         <v>34</v>
       </c>
-      <c r="B346" s="4">
+      <c r="B346" s="13">
         <v>2016</v>
       </c>
       <c r="C346" s="4" t="s">
@@ -12150,7 +12156,7 @@
       <c r="A347" t="s">
         <v>34</v>
       </c>
-      <c r="B347" s="4">
+      <c r="B347" s="13">
         <v>2017</v>
       </c>
       <c r="C347" s="4" t="s">
@@ -12181,7 +12187,7 @@
       <c r="A348" t="s">
         <v>34</v>
       </c>
-      <c r="B348" s="4">
+      <c r="B348" s="13">
         <v>2017</v>
       </c>
       <c r="C348" s="4" t="s">
@@ -12212,7 +12218,7 @@
       <c r="A349" t="s">
         <v>34</v>
       </c>
-      <c r="B349" s="4">
+      <c r="B349" s="13">
         <v>2018</v>
       </c>
       <c r="C349" s="4" t="s">
@@ -12243,7 +12249,7 @@
       <c r="A350" t="s">
         <v>34</v>
       </c>
-      <c r="B350" s="4">
+      <c r="B350" s="13">
         <v>2018</v>
       </c>
       <c r="C350" s="4" t="s">
@@ -12274,7 +12280,7 @@
       <c r="A351" t="s">
         <v>34</v>
       </c>
-      <c r="B351" s="4">
+      <c r="B351" s="13">
         <v>2019</v>
       </c>
       <c r="C351" s="4" t="s">
@@ -12305,7 +12311,7 @@
       <c r="A352" t="s">
         <v>34</v>
       </c>
-      <c r="B352" s="4">
+      <c r="B352" s="13">
         <v>2019</v>
       </c>
       <c r="C352" s="4" t="s">
@@ -12336,7 +12342,7 @@
       <c r="A353" t="s">
         <v>20</v>
       </c>
-      <c r="B353" s="4">
+      <c r="B353" s="13">
         <v>2011</v>
       </c>
       <c r="C353" s="4" t="s">
@@ -12367,7 +12373,7 @@
       <c r="A354" t="s">
         <v>20</v>
       </c>
-      <c r="B354" s="4">
+      <c r="B354" s="13">
         <v>2011</v>
       </c>
       <c r="C354" s="4" t="s">
@@ -12398,7 +12404,7 @@
       <c r="A355" t="s">
         <v>20</v>
       </c>
-      <c r="B355" s="4">
+      <c r="B355" s="13">
         <v>2012</v>
       </c>
       <c r="C355" s="4" t="s">
@@ -12429,7 +12435,7 @@
       <c r="A356" t="s">
         <v>20</v>
       </c>
-      <c r="B356" s="4">
+      <c r="B356" s="13">
         <v>2012</v>
       </c>
       <c r="C356" s="4" t="s">
@@ -12460,7 +12466,7 @@
       <c r="A357" t="s">
         <v>20</v>
       </c>
-      <c r="B357" s="4">
+      <c r="B357" s="13">
         <v>2013</v>
       </c>
       <c r="C357" s="4" t="s">
@@ -12491,7 +12497,7 @@
       <c r="A358" t="s">
         <v>20</v>
       </c>
-      <c r="B358" s="4">
+      <c r="B358" s="13">
         <v>2013</v>
       </c>
       <c r="C358" s="4" t="s">
@@ -12522,7 +12528,7 @@
       <c r="A359" t="s">
         <v>20</v>
       </c>
-      <c r="B359" s="4">
+      <c r="B359" s="13">
         <v>2014</v>
       </c>
       <c r="C359" s="4" t="s">
@@ -12553,7 +12559,7 @@
       <c r="A360" t="s">
         <v>20</v>
       </c>
-      <c r="B360" s="4">
+      <c r="B360" s="13">
         <v>2014</v>
       </c>
       <c r="C360" s="4" t="s">
@@ -12584,7 +12590,7 @@
       <c r="A361" t="s">
         <v>20</v>
       </c>
-      <c r="B361" s="4">
+      <c r="B361" s="13">
         <v>2015</v>
       </c>
       <c r="C361" s="4" t="s">
@@ -12615,7 +12621,7 @@
       <c r="A362" t="s">
         <v>20</v>
       </c>
-      <c r="B362" s="4">
+      <c r="B362" s="13">
         <v>2015</v>
       </c>
       <c r="C362" s="4" t="s">
@@ -12646,7 +12652,7 @@
       <c r="A363" t="s">
         <v>20</v>
       </c>
-      <c r="B363" s="4">
+      <c r="B363" s="13">
         <v>2016</v>
       </c>
       <c r="C363" s="4" t="s">
@@ -12677,7 +12683,7 @@
       <c r="A364" t="s">
         <v>20</v>
       </c>
-      <c r="B364" s="4">
+      <c r="B364" s="13">
         <v>2016</v>
       </c>
       <c r="C364" s="4" t="s">
@@ -12708,7 +12714,7 @@
       <c r="A365" t="s">
         <v>20</v>
       </c>
-      <c r="B365" s="4">
+      <c r="B365" s="13">
         <v>2017</v>
       </c>
       <c r="C365" s="4" t="s">
@@ -12739,7 +12745,7 @@
       <c r="A366" t="s">
         <v>20</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B366" s="13">
         <v>2017</v>
       </c>
       <c r="C366" s="4" t="s">
@@ -12770,7 +12776,7 @@
       <c r="A367" t="s">
         <v>20</v>
       </c>
-      <c r="B367" s="4">
+      <c r="B367" s="13">
         <v>2018</v>
       </c>
       <c r="C367" s="4" t="s">
@@ -12801,7 +12807,7 @@
       <c r="A368" t="s">
         <v>20</v>
       </c>
-      <c r="B368" s="4">
+      <c r="B368" s="13">
         <v>2018</v>
       </c>
       <c r="C368" s="4" t="s">
@@ -12832,7 +12838,7 @@
       <c r="A369" t="s">
         <v>20</v>
       </c>
-      <c r="B369" s="4">
+      <c r="B369" s="13">
         <v>2019</v>
       </c>
       <c r="C369" s="4" t="s">
@@ -12863,7 +12869,7 @@
       <c r="A370" t="s">
         <v>20</v>
       </c>
-      <c r="B370" s="4">
+      <c r="B370" s="13">
         <v>2019</v>
       </c>
       <c r="C370" s="4" t="s">
@@ -12894,7 +12900,7 @@
       <c r="A371" t="s">
         <v>33</v>
       </c>
-      <c r="B371" s="4">
+      <c r="B371" s="13">
         <v>2011</v>
       </c>
       <c r="C371" s="4" t="s">
@@ -12925,7 +12931,7 @@
       <c r="A372" t="s">
         <v>33</v>
       </c>
-      <c r="B372" s="4">
+      <c r="B372" s="13">
         <v>2011</v>
       </c>
       <c r="C372" s="4" t="s">
@@ -12956,7 +12962,7 @@
       <c r="A373" t="s">
         <v>33</v>
       </c>
-      <c r="B373" s="4">
+      <c r="B373" s="13">
         <v>2012</v>
       </c>
       <c r="C373" s="4" t="s">
@@ -12987,7 +12993,7 @@
       <c r="A374" t="s">
         <v>33</v>
       </c>
-      <c r="B374" s="4">
+      <c r="B374" s="13">
         <v>2012</v>
       </c>
       <c r="C374" s="4" t="s">
@@ -13018,7 +13024,7 @@
       <c r="A375" t="s">
         <v>33</v>
       </c>
-      <c r="B375" s="4">
+      <c r="B375" s="13">
         <v>2013</v>
       </c>
       <c r="C375" s="4" t="s">
@@ -13049,7 +13055,7 @@
       <c r="A376" t="s">
         <v>33</v>
       </c>
-      <c r="B376" s="4">
+      <c r="B376" s="13">
         <v>2013</v>
       </c>
       <c r="C376" s="4" t="s">
@@ -13080,7 +13086,7 @@
       <c r="A377" t="s">
         <v>33</v>
       </c>
-      <c r="B377" s="4">
+      <c r="B377" s="13">
         <v>2014</v>
       </c>
       <c r="C377" s="4" t="s">
@@ -13111,7 +13117,7 @@
       <c r="A378" t="s">
         <v>33</v>
       </c>
-      <c r="B378" s="4">
+      <c r="B378" s="13">
         <v>2014</v>
       </c>
       <c r="C378" s="4" t="s">
@@ -13142,7 +13148,7 @@
       <c r="A379" t="s">
         <v>33</v>
       </c>
-      <c r="B379" s="4">
+      <c r="B379" s="13">
         <v>2015</v>
       </c>
       <c r="C379" s="4" t="s">
@@ -13173,7 +13179,7 @@
       <c r="A380" t="s">
         <v>33</v>
       </c>
-      <c r="B380" s="4">
+      <c r="B380" s="13">
         <v>2015</v>
       </c>
       <c r="C380" s="4" t="s">
@@ -13204,7 +13210,7 @@
       <c r="A381" t="s">
         <v>33</v>
       </c>
-      <c r="B381" s="4">
+      <c r="B381" s="13">
         <v>2016</v>
       </c>
       <c r="C381" s="4" t="s">
@@ -13235,7 +13241,7 @@
       <c r="A382" t="s">
         <v>33</v>
       </c>
-      <c r="B382" s="4">
+      <c r="B382" s="13">
         <v>2016</v>
       </c>
       <c r="C382" s="4" t="s">
@@ -13266,7 +13272,7 @@
       <c r="A383" t="s">
         <v>33</v>
       </c>
-      <c r="B383" s="4">
+      <c r="B383" s="13">
         <v>2017</v>
       </c>
       <c r="C383" s="4" t="s">
@@ -13297,7 +13303,7 @@
       <c r="A384" t="s">
         <v>33</v>
       </c>
-      <c r="B384" s="4">
+      <c r="B384" s="13">
         <v>2017</v>
       </c>
       <c r="C384" s="4" t="s">
@@ -13328,7 +13334,7 @@
       <c r="A385" t="s">
         <v>33</v>
       </c>
-      <c r="B385" s="4">
+      <c r="B385" s="13">
         <v>2018</v>
       </c>
       <c r="C385" s="4" t="s">
@@ -13359,7 +13365,7 @@
       <c r="A386" t="s">
         <v>33</v>
       </c>
-      <c r="B386" s="4">
+      <c r="B386" s="13">
         <v>2018</v>
       </c>
       <c r="C386" s="4" t="s">
@@ -13390,7 +13396,7 @@
       <c r="A387" t="s">
         <v>33</v>
       </c>
-      <c r="B387" s="4">
+      <c r="B387" s="13">
         <v>2019</v>
       </c>
       <c r="C387" s="4" t="s">
@@ -13421,7 +13427,7 @@
       <c r="A388" t="s">
         <v>33</v>
       </c>
-      <c r="B388" s="4">
+      <c r="B388" s="13">
         <v>2019</v>
       </c>
       <c r="C388" s="4" t="s">
@@ -13452,7 +13458,7 @@
       <c r="A389" t="s">
         <v>34</v>
       </c>
-      <c r="B389" s="4">
+      <c r="B389" s="13">
         <v>2011</v>
       </c>
       <c r="C389" s="4" t="s">
@@ -13483,7 +13489,7 @@
       <c r="A390" t="s">
         <v>34</v>
       </c>
-      <c r="B390" s="4">
+      <c r="B390" s="13">
         <v>2011</v>
       </c>
       <c r="C390" s="4" t="s">
@@ -13514,7 +13520,7 @@
       <c r="A391" t="s">
         <v>34</v>
       </c>
-      <c r="B391" s="4">
+      <c r="B391" s="13">
         <v>2012</v>
       </c>
       <c r="C391" s="4" t="s">
@@ -13545,7 +13551,7 @@
       <c r="A392" t="s">
         <v>34</v>
       </c>
-      <c r="B392" s="4">
+      <c r="B392" s="13">
         <v>2012</v>
       </c>
       <c r="C392" s="4" t="s">
@@ -13576,7 +13582,7 @@
       <c r="A393" t="s">
         <v>34</v>
       </c>
-      <c r="B393" s="4">
+      <c r="B393" s="13">
         <v>2013</v>
       </c>
       <c r="C393" s="4" t="s">
@@ -13607,7 +13613,7 @@
       <c r="A394" t="s">
         <v>34</v>
       </c>
-      <c r="B394" s="4">
+      <c r="B394" s="13">
         <v>2013</v>
       </c>
       <c r="C394" s="4" t="s">
@@ -13638,7 +13644,7 @@
       <c r="A395" t="s">
         <v>34</v>
       </c>
-      <c r="B395" s="4">
+      <c r="B395" s="13">
         <v>2014</v>
       </c>
       <c r="C395" s="4" t="s">
@@ -13669,7 +13675,7 @@
       <c r="A396" t="s">
         <v>34</v>
       </c>
-      <c r="B396" s="4">
+      <c r="B396" s="13">
         <v>2014</v>
       </c>
       <c r="C396" s="4" t="s">
@@ -13700,7 +13706,7 @@
       <c r="A397" t="s">
         <v>34</v>
       </c>
-      <c r="B397" s="4">
+      <c r="B397" s="13">
         <v>2015</v>
       </c>
       <c r="C397" s="4" t="s">
@@ -13731,7 +13737,7 @@
       <c r="A398" t="s">
         <v>34</v>
       </c>
-      <c r="B398" s="4">
+      <c r="B398" s="13">
         <v>2015</v>
       </c>
       <c r="C398" s="4" t="s">
@@ -13762,7 +13768,7 @@
       <c r="A399" t="s">
         <v>34</v>
       </c>
-      <c r="B399" s="4">
+      <c r="B399" s="13">
         <v>2016</v>
       </c>
       <c r="C399" s="4" t="s">
@@ -13793,7 +13799,7 @@
       <c r="A400" t="s">
         <v>34</v>
       </c>
-      <c r="B400" s="4">
+      <c r="B400" s="13">
         <v>2016</v>
       </c>
       <c r="C400" s="4" t="s">
@@ -13824,7 +13830,7 @@
       <c r="A401" t="s">
         <v>34</v>
       </c>
-      <c r="B401" s="4">
+      <c r="B401" s="13">
         <v>2017</v>
       </c>
       <c r="C401" s="4" t="s">
@@ -13855,7 +13861,7 @@
       <c r="A402" t="s">
         <v>34</v>
       </c>
-      <c r="B402" s="4">
+      <c r="B402" s="13">
         <v>2017</v>
       </c>
       <c r="C402" s="4" t="s">
@@ -13886,7 +13892,7 @@
       <c r="A403" t="s">
         <v>34</v>
       </c>
-      <c r="B403" s="4">
+      <c r="B403" s="13">
         <v>2018</v>
       </c>
       <c r="C403" s="4" t="s">
@@ -13917,7 +13923,7 @@
       <c r="A404" t="s">
         <v>34</v>
       </c>
-      <c r="B404" s="4">
+      <c r="B404" s="13">
         <v>2018</v>
       </c>
       <c r="C404" s="4" t="s">
@@ -13948,7 +13954,7 @@
       <c r="A405" t="s">
         <v>34</v>
       </c>
-      <c r="B405" s="4">
+      <c r="B405" s="13">
         <v>2019</v>
       </c>
       <c r="C405" s="4" t="s">
@@ -13979,7 +13985,7 @@
       <c r="A406" t="s">
         <v>34</v>
       </c>
-      <c r="B406" s="4">
+      <c r="B406" s="13">
         <v>2019</v>
       </c>
       <c r="C406" s="4" t="s">
@@ -14007,6 +14013,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M1" xr:uid="{97D578EE-3C05-4D0C-AE17-43AAD0A9E4AC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Shocks/ShockMaster.xlsx
+++ b/Shocks/ShockMaster.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Shocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C3A865-FC96-4867-B55B-FDEABAD06022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A1B49-A313-469F-9931-DF662E88467E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AC5AC57-1F64-4F2D-BB65-F878D395C517}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FDEE0995-F68A-4ED9-9CCF-85B3630CFFD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AC5AC57-1F64-4F2D-BB65-F878D395C517}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{FDEE0995-F68A-4ED9-9CCF-85B3630CFFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="ShockMaster" sheetId="6" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="51">
   <si>
     <t>TJ</t>
   </si>
@@ -204,6 +204,21 @@
   </si>
   <si>
     <t>Performance</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Production of photovoltaic plants</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Production of onshore wind plants</t>
+  </si>
+  <si>
+    <t>Production of offshore wind plants</t>
   </si>
 </sst>
 </file>
@@ -663,31 +678,31 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:M406"/>
+  <dimension ref="A1:M409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H407" sqref="H407"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
@@ -728,7 +743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -762,7 +777,7 @@
         <v>0.31791623705013017</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -796,7 +811,7 @@
         <v>8.4052867968024844E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -830,7 +845,7 @@
         <v>0.15997266486503273</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -864,7 +879,7 @@
         <v>0.31216209701302372</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -898,7 +913,7 @@
         <v>8.2531549090775522E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -932,7 +947,7 @@
         <v>0.15707723201679688</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -966,7 +981,7 @@
         <v>0.31216209701302372</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1015,7 @@
         <v>8.2531549090775522E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1034,7 +1049,7 @@
         <v>0.15707723201679688</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>0.31075596144089296</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>8.2159785356132387E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1151,7 @@
         <v>0.1563696769176221</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1185,7 @@
         <v>0.31216209701302372</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>8.2531549090775522E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>0.15707723201679688</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1272,7 +1287,7 @@
         <v>0.3135810156358102</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1306,7 +1321,7 @@
         <v>8.2906692495733597E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1355,7 @@
         <v>0.15779121943505503</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1374,7 +1389,7 @@
         <v>0.31216209701302372</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1423,7 @@
         <v>8.2531549090775522E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1442,7 +1457,7 @@
         <v>0.15707723201679688</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1491,7 @@
         <v>0.30936243695012666</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1525,7 @@
         <v>8.1791355825387407E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1559,7 @@
         <v>0.15566846760409017</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>0.30661254862168102</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1627,7 @@
         <v>8.1064321551383961E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1646,7 +1661,7 @@
         <v>0.15428474789205379</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1680,7 +1695,7 @@
         <v>0.81472674795357813</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>0.21540302694562333</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1748,7 +1763,7 @@
         <v>0.40996336084087537</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1782,7 +1797,7 @@
         <v>0.81312420338824976</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +1831,7 @@
         <v>0.21497933525874297</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1850,7 +1865,7 @@
         <v>0.40915697445728166</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1884,7 +1899,7 @@
         <v>0.80074082768436972</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1918,7 +1933,7 @@
         <v>0.21170533373968076</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1952,7 +1967,7 @@
         <v>0.40292576830764987</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +2001,7 @@
         <v>0.8120724534316448</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2020,7 +2035,7 @@
         <v>0.21470126641564719</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2054,7 +2069,7 @@
         <v>0.40862774309467198</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2088,7 +2103,7 @@
         <v>0.82478248388439546</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2122,7 +2137,7 @@
         <v>0.21806163115016741</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2156,7 +2171,7 @@
         <v>0.41502331905174916</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>0.85616637136841112</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2224,7 +2239,7 @@
         <v>0.22635911785765309</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2258,7 +2273,7 @@
         <v>0.43081541624447817</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>0.85044556295581764</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>0.22484661142314133</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2360,7 +2375,7 @@
         <v>0.42793675557764166</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2394,7 +2409,7 @@
         <v>0.79603060270441095</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2428,7 +2443,7 @@
         <v>0.21046001226125075</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2462,7 +2477,7 @@
         <v>0.40055562436926695</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2496,7 +2511,7 @@
         <v>0.77302799559110935</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -2530,7 +2545,7 @@
         <v>0.20437842575105997</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2564,7 +2579,7 @@
         <v>0.38898091402133972</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2598,7 +2613,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2632,7 +2647,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2666,7 +2681,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2700,7 +2715,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2734,7 +2749,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2768,7 +2783,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2802,7 +2817,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -2836,7 +2851,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -2870,7 +2885,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -2904,7 +2919,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -2938,7 +2953,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2972,7 +2987,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -3006,7 +3021,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -3074,7 +3089,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3108,7 +3123,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -3142,7 +3157,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3176,7 +3191,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3210,7 +3225,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -3244,7 +3259,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -3278,7 +3293,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -3312,7 +3327,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3346,7 +3361,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3380,7 +3395,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -3414,7 +3429,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -3448,7 +3463,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -3482,7 +3497,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3516,7 +3531,7 @@
         <v>0.2384371777875976</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3550,7 +3565,7 @@
         <v>5.4033986550873103E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3584,7 +3599,7 @@
         <v>0.10498206131767777</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3618,7 +3633,7 @@
         <v>0.23412157275976775</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -3652,7 +3667,7 @@
         <v>5.3055995844069968E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -3686,7 +3701,7 @@
         <v>0.10308193351102297</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>0.23412157275976775</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -3754,7 +3769,7 @@
         <v>5.3055995844069968E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -3788,7 +3803,7 @@
         <v>0.10308193351102297</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -3822,7 +3837,7 @@
         <v>0.2330669710806697</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -3856,7 +3871,7 @@
         <v>5.281700487179939E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -3890,7 +3905,7 @@
         <v>0.10261760047718953</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -3924,7 +3939,7 @@
         <v>0.23412157275976775</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -3958,7 +3973,7 @@
         <v>5.3055995844069968E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -3992,7 +4007,7 @@
         <v>0.10308193351102297</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4026,7 +4041,7 @@
         <v>0.23518576172685762</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4060,7 +4075,7 @@
         <v>5.3297159461543016E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4094,7 +4109,7 @@
         <v>0.10355048775425489</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4128,7 +4143,7 @@
         <v>0.23412157275976775</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4162,7 +4177,7 @@
         <v>5.3055995844069968E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4196,7 +4211,7 @@
         <v>0.10308193351102297</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -4230,7 +4245,7 @@
         <v>0.23202182771259494</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -4264,7 +4279,7 @@
         <v>5.2580157316320465E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -4298,7 +4313,7 @@
         <v>0.1021574318651842</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -4332,7 +4347,7 @@
         <v>0.22995941146626075</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4366,7 +4381,7 @@
         <v>5.2112778140175398E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -4400,7 +4415,7 @@
         <v>0.10124936580416033</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -4434,7 +4449,7 @@
         <v>0.61104506096518352</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -4468,7 +4483,7 @@
         <v>0.13847337446504354</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -4502,7 +4517,7 @@
         <v>0.26903845555182448</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -4536,7 +4551,7 @@
         <v>0.60984315254118726</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -4570,7 +4585,7 @@
         <v>0.13820100123776333</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -4604,7 +4619,7 @@
         <v>0.26850926448759116</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -4638,7 +4653,7 @@
         <v>0.60055562076327729</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -4672,7 +4687,7 @@
         <v>0.13609628597550902</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -4706,7 +4721,7 @@
         <v>0.26442003545189524</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4740,7 +4755,7 @@
         <v>0.60905434007373349</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -4774,7 +4789,7 @@
         <v>0.13802224269577318</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -4808,7 +4823,7 @@
         <v>0.26816195640587859</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -4842,7 +4857,7 @@
         <v>0.61858686291329656</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -4876,7 +4891,7 @@
         <v>0.14018247716796478</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -4910,7 +4925,7 @@
         <v>0.27235905312771042</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -4944,7 +4959,7 @@
         <v>0.64212477852630823</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -4978,7 +4993,7 @@
         <v>0.14551657576563409</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5012,7 +5027,7 @@
         <v>0.28272261691043887</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5046,7 +5061,7 @@
         <v>0.63783417221686312</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -5080,7 +5095,7 @@
         <v>0.14454425020059083</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -5114,7 +5129,7 @@
         <v>0.28083349584782741</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -5148,7 +5163,7 @@
         <v>0.59702295202830813</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -5182,7 +5197,7 @@
         <v>0.13529572216794691</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -5216,7 +5231,7 @@
         <v>0.2628646284923315</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -5250,7 +5265,7 @@
         <v>0.57977099669333187</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -5284,7 +5299,7 @@
         <v>0.13138613083996711</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -5318,7 +5333,7 @@
         <v>0.25526872482650426</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>34</v>
       </c>
@@ -5352,7 +5367,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -5386,7 +5401,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -5420,7 +5435,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -5454,7 +5469,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>34</v>
       </c>
@@ -5488,7 +5503,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>34</v>
       </c>
@@ -5522,7 +5537,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -5556,7 +5571,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>34</v>
       </c>
@@ -5590,7 +5605,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>34</v>
       </c>
@@ -5624,7 +5639,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -5658,7 +5673,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -5692,7 +5707,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -5726,7 +5741,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -5760,7 +5775,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -5794,7 +5809,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -5828,7 +5843,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -5862,7 +5877,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -5896,7 +5911,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -5930,7 +5945,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -5964,7 +5979,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -5998,7 +6013,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -6032,7 +6047,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -6066,7 +6081,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>34</v>
       </c>
@@ -6100,7 +6115,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>34</v>
       </c>
@@ -6134,7 +6149,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -6168,7 +6183,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>34</v>
       </c>
@@ -6202,7 +6217,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>34</v>
       </c>
@@ -6236,7 +6251,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -6270,7 +6285,7 @@
         <v>0.18700955120595888</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -6304,7 +6319,7 @@
         <v>3.7823790585611174E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -6338,7 +6353,7 @@
         <v>7.4653910270348622E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -6372,7 +6387,7 @@
         <v>0.18362476294883745</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -6406,7 +6421,7 @@
         <v>3.713919709084898E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -6440,7 +6455,7 @@
         <v>7.3302708274505204E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -6474,7 +6489,7 @@
         <v>0.18362476294883745</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -6508,7 +6523,7 @@
         <v>3.713919709084898E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -6542,7 +6557,7 @@
         <v>7.3302708274505204E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -6576,7 +6591,7 @@
         <v>0.18279762437699584</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -6610,7 +6625,7 @@
         <v>3.697190341025957E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -6644,7 +6659,7 @@
         <v>7.297251589489033E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -6678,7 +6693,7 @@
         <v>0.18362476294883745</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -6712,7 +6727,7 @@
         <v>3.713919709084898E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -6746,7 +6761,7 @@
         <v>7.3302708274505204E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -6780,7 +6795,7 @@
         <v>0.18445942096224124</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -6814,7 +6829,7 @@
         <v>3.7308011623080117E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -6848,7 +6863,7 @@
         <v>7.3635902403025685E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -6882,7 +6897,7 @@
         <v>0.18362476294883745</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -6916,7 +6931,7 @@
         <v>3.713919709084898E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -6950,7 +6965,7 @@
         <v>7.3302708274505204E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -6984,7 +6999,7 @@
         <v>0.18197790408830977</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -7018,7 +7033,7 @@
         <v>3.6806110121424325E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -7052,7 +7067,7 @@
         <v>7.2645284881908745E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -7086,7 +7101,7 @@
         <v>0.18036032271863589</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -7120,7 +7135,7 @@
         <v>3.6478944698122774E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -7154,7 +7169,7 @@
         <v>7.1999549016291783E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -7188,7 +7203,7 @@
         <v>0.47925102820798704</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -7222,7 +7237,7 @@
         <v>9.6931362125530482E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -7256,7 +7271,7 @@
         <v>0.19131623505907516</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -7290,7 +7305,7 @@
         <v>0.47830835493426449</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -7324,7 +7339,7 @@
         <v>9.6740700866434326E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -7358,7 +7373,7 @@
         <v>0.19093992141339813</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>33</v>
       </c>
@@ -7392,7 +7407,7 @@
         <v>0.4710240162849233</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>33</v>
       </c>
@@ -7426,7 +7441,7 @@
         <v>9.5267400182856316E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>33</v>
       </c>
@@ -7460,7 +7475,7 @@
         <v>0.1880320252102366</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -7494,7 +7509,7 @@
         <v>0.47768967848920274</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>33</v>
       </c>
@@ -7528,7 +7543,7 @@
         <v>9.6615569887041217E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>33</v>
       </c>
@@ -7562,7 +7577,7 @@
         <v>0.19069294677751361</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>33</v>
       </c>
@@ -7596,7 +7611,7 @@
         <v>0.48516616699082082</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>33</v>
       </c>
@@ -7630,7 +7645,7 @@
         <v>9.8127734017575324E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>33</v>
       </c>
@@ -7664,7 +7679,7 @@
         <v>0.19367754889081629</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>33</v>
       </c>
@@ -7698,7 +7713,7 @@
         <v>0.50362727727553591</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>33</v>
       </c>
@@ -7732,7 +7747,7 @@
         <v>0.10186160303594387</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>33</v>
       </c>
@@ -7766,7 +7781,7 @@
         <v>0.20104719424742315</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -7800,7 +7815,7 @@
         <v>0.50026209585636328</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>33</v>
       </c>
@@ -7834,7 +7849,7 @@
         <v>0.10118097514041359</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>33</v>
       </c>
@@ -7868,7 +7883,7 @@
         <v>0.19970381926956612</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>33</v>
       </c>
@@ -7902,7 +7917,7 @@
         <v>0.46825329570847696</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -7936,7 +7951,7 @@
         <v>9.4707005517562823E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>33</v>
       </c>
@@ -7970,7 +7985,7 @@
         <v>0.18692595803899129</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -8004,7 +8019,7 @@
         <v>0.4547223503477113</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -8038,7 +8053,7 @@
         <v>9.1970291587976968E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>33</v>
       </c>
@@ -8072,7 +8087,7 @@
         <v>0.1815244265432919</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>34</v>
       </c>
@@ -8106,7 +8121,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -8140,7 +8155,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -8174,7 +8189,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -8208,7 +8223,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -8242,7 +8257,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>34</v>
       </c>
@@ -8276,7 +8291,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -8310,7 +8325,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>34</v>
       </c>
@@ -8344,7 +8359,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -8378,7 +8393,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>34</v>
       </c>
@@ -8412,7 +8427,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>34</v>
       </c>
@@ -8446,7 +8461,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -8480,7 +8495,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>34</v>
       </c>
@@ -8514,7 +8529,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>34</v>
       </c>
@@ -8548,7 +8563,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>34</v>
       </c>
@@ -8582,7 +8597,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>34</v>
       </c>
@@ -8616,7 +8631,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -8650,7 +8665,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>34</v>
       </c>
@@ -8684,7 +8699,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>34</v>
       </c>
@@ -8718,7 +8733,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>34</v>
       </c>
@@ -8752,7 +8767,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>34</v>
       </c>
@@ -8786,7 +8801,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>34</v>
       </c>
@@ -8820,7 +8835,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>34</v>
       </c>
@@ -8854,7 +8869,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>34</v>
       </c>
@@ -8888,7 +8903,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -8922,7 +8937,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>34</v>
       </c>
@@ -8956,7 +8971,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>34</v>
       </c>
@@ -8990,7 +9005,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -9021,7 +9036,7 @@
         <v>0.15264576294986981</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -9052,7 +9067,7 @@
         <v>0.20886346716694243</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -9083,7 +9098,7 @@
         <v>0.15839990298697626</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -9114,7 +9129,7 @@
         <v>0.2132802188924276</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -9145,7 +9160,7 @@
         <v>0.15839990298697626</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -9176,7 +9191,7 @@
         <v>0.2132802188924276</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -9207,7 +9222,7 @@
         <v>0.15980603855910702</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -9238,7 +9253,7 @@
         <v>0.2143595377262455</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -9269,7 +9284,7 @@
         <v>0.15839990298697626</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -9300,7 +9315,7 @@
         <v>0.2132802188924276</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -9331,7 +9346,7 @@
         <v>0.15698098436418978</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -9362,7 +9377,7 @@
         <v>0.21219108806921136</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -9393,7 +9408,7 @@
         <v>0.15839990298697626</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -9424,7 +9439,7 @@
         <v>0.2132802188924276</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -9455,7 +9470,7 @@
         <v>0.16119956304987332</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -9486,7 +9501,7 @@
         <v>0.21542917657052241</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -9517,7 +9532,7 @@
         <v>0.16394945137831896</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -9548,7 +9563,7 @@
         <v>0.21753993055656223</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>33</v>
       </c>
@@ -9579,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>33</v>
       </c>
@@ -9610,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -9641,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>33</v>
       </c>
@@ -9672,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -9703,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>33</v>
       </c>
@@ -9734,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>33</v>
       </c>
@@ -9765,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>33</v>
       </c>
@@ -9796,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>33</v>
       </c>
@@ -9827,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>33</v>
       </c>
@@ -9858,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>33</v>
       </c>
@@ -9889,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>33</v>
       </c>
@@ -9920,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>33</v>
       </c>
@@ -9951,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>33</v>
       </c>
@@ -9982,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -10013,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>33</v>
       </c>
@@ -10044,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>33</v>
       </c>
@@ -10075,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>33</v>
       </c>
@@ -10106,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>34</v>
       </c>
@@ -10137,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>34</v>
       </c>
@@ -10168,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>34</v>
       </c>
@@ -10199,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>34</v>
       </c>
@@ -10230,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>34</v>
       </c>
@@ -10261,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>34</v>
       </c>
@@ -10292,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>34</v>
       </c>
@@ -10323,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>34</v>
       </c>
@@ -10354,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>34</v>
       </c>
@@ -10385,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>34</v>
       </c>
@@ -10416,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>34</v>
       </c>
@@ -10447,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -10478,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>34</v>
       </c>
@@ -10509,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>34</v>
       </c>
@@ -10540,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>34</v>
       </c>
@@ -10571,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>34</v>
       </c>
@@ -10602,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>34</v>
       </c>
@@ -10633,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>34</v>
       </c>
@@ -10664,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -10695,7 +10710,7 @@
         <v>0.23212482221240238</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -10726,7 +10741,7 @@
         <v>0.29387295213144909</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -10757,7 +10772,7 @@
         <v>0.23644042724023223</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -10788,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -10819,7 +10834,7 @@
         <v>0.23644042724023223</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -10850,7 +10865,7 @@
         <v>0.29675107064490702</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -10881,7 +10896,7 @@
         <v>0.23749502891933028</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -10912,7 +10927,7 @@
         <v>0.29745439465101109</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -10943,7 +10958,7 @@
         <v>0.23644042724023223</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -10974,7 +10989,7 @@
         <v>0.29675107064490702</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -11005,7 +11020,7 @@
         <v>0.23537623827314236</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -11036,7 +11051,7 @@
         <v>0.29604135278420207</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -11067,7 +11082,7 @@
         <v>0.23644042724023223</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -11098,7 +11113,7 @@
         <v>0.29675107064490702</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -11129,7 +11144,7 @@
         <v>0.23854017228740504</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -11160,7 +11175,7 @@
         <v>0.29815141081849533</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -11191,7 +11206,7 @@
         <v>0.24060258853373923</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -11222,7 +11237,7 @@
         <v>0.29952685605566426</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>33</v>
       </c>
@@ -11253,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>33</v>
       </c>
@@ -11284,7 +11299,7 @@
         <v>4.537716998313196E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>33</v>
       </c>
@@ -11315,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>33</v>
       </c>
@@ -11346,7 +11361,7 @@
         <v>4.6178734274645472E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>33</v>
       </c>
@@ -11377,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>33</v>
       </c>
@@ -11408,7 +11423,7 @@
         <v>5.2372678572595754E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>33</v>
       </c>
@@ -11439,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>33</v>
       </c>
@@ -11470,7 +11485,7 @@
         <v>4.670480089834822E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>33</v>
       </c>
@@ -11501,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>33</v>
       </c>
@@ -11532,7 +11547,7 @@
         <v>4.034746970432479E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -11563,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -11594,7 +11609,7 @@
         <v>2.464980732392702E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -11625,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -11656,7 +11671,7 @@
         <v>2.7511253951581716E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -11687,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -11718,7 +11733,7 @@
         <v>5.4728649339721547E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>33</v>
       </c>
@@ -11749,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>33</v>
       </c>
@@ -11780,7 +11795,7 @@
         <v>6.6234144333528588E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -11811,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>34</v>
       </c>
@@ -11842,7 +11857,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>34</v>
       </c>
@@ -11873,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>34</v>
       </c>
@@ -11904,7 +11919,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>34</v>
       </c>
@@ -11935,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>34</v>
       </c>
@@ -11966,7 +11981,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>34</v>
       </c>
@@ -11997,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>34</v>
       </c>
@@ -12028,7 +12043,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -12059,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>34</v>
       </c>
@@ -12090,7 +12105,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -12121,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>34</v>
       </c>
@@ -12152,7 +12167,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>34</v>
       </c>
@@ -12183,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>34</v>
       </c>
@@ -12214,7 +12229,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>34</v>
       </c>
@@ -12245,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>34</v>
       </c>
@@ -12276,7 +12291,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>34</v>
       </c>
@@ -12307,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -12338,7 +12353,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>20</v>
       </c>
@@ -12369,7 +12384,7 @@
         <v>0.28355244879404107</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>20</v>
       </c>
@@ -12400,7 +12415,7 @@
         <v>0.34041129914404022</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>20</v>
       </c>
@@ -12431,7 +12446,7 @@
         <v>0.28693723705116253</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>20</v>
       </c>
@@ -12462,7 +12477,7 @@
         <v>0.34244709463464579</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>20</v>
       </c>
@@ -12493,7 +12508,7 @@
         <v>0.28693723705116253</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>20</v>
       </c>
@@ -12524,7 +12539,7 @@
         <v>0.34244709463464579</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -12555,7 +12570,7 @@
         <v>0.28776437562300416</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -12586,7 +12601,7 @@
         <v>0.34294458069485012</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>20</v>
       </c>
@@ -12617,7 +12632,7 @@
         <v>0.28693723705116253</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -12648,7 +12663,7 @@
         <v>0.34244709463464579</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -12679,7 +12694,7 @@
         <v>0.28610257903775871</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>20</v>
       </c>
@@ -12710,7 +12725,7 @@
         <v>0.34194508597389417</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>20</v>
       </c>
@@ -12741,7 +12756,7 @@
         <v>0.28693723705116253</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>20</v>
       </c>
@@ -12772,7 +12787,7 @@
         <v>0.34244709463464579</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>20</v>
       </c>
@@ -12803,7 +12818,7 @@
         <v>0.28858409591169021</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>20</v>
       </c>
@@ -12834,7 +12849,7 @@
         <v>0.34343760499666692</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>20</v>
       </c>
@@ -12865,7 +12880,7 @@
         <v>0.29020167728136409</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>20</v>
       </c>
@@ -12896,7 +12911,7 @@
         <v>0.34441050628558545</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>33</v>
       </c>
@@ -12927,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>33</v>
       </c>
@@ -12958,7 +12973,7 @@
         <v>0.16464140281539436</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>33</v>
       </c>
@@ -12989,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>33</v>
       </c>
@@ -13020,7 +13035,7 @@
         <v>0.1652083777201675</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>33</v>
       </c>
@@ -13051,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>33</v>
       </c>
@@ -13082,7 +13097,7 @@
         <v>0.16958957460690705</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>33</v>
       </c>
@@ -13113,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>33</v>
       </c>
@@ -13144,7 +13159,7 @@
         <v>0.16558048333544517</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>33</v>
       </c>
@@ -13175,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>33</v>
       </c>
@@ -13206,7 +13221,7 @@
         <v>0.1610837170916084</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>33</v>
       </c>
@@ -13237,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>33</v>
       </c>
@@ -13268,7 +13283,7 @@
         <v>0.14998020271663298</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>33</v>
       </c>
@@ -13299,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>33</v>
       </c>
@@ -13330,7 +13345,7 @@
         <v>0.15200420559002026</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>33</v>
       </c>
@@ -13361,7 +13376,7 @@
         <v>2.3087042915230227E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>33</v>
       </c>
@@ -13392,7 +13407,7 @@
         <v>0.17125603644344589</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>33</v>
       </c>
@@ -13403,7 +13418,7 @@
         <v>44</v>
       </c>
       <c r="D387" t="str">
-        <f t="shared" ref="D387:D406" si="6">_xlfn.CONCAT(A387," - ",B387," - ",C387)</f>
+        <f t="shared" ref="D387:D407" si="6">_xlfn.CONCAT(A387," - ",B387," - ",C387)</f>
         <v>IEA - 2019 - Best</v>
       </c>
       <c r="F387" t="s">
@@ -13423,7 +13438,7 @@
         <v>1.5839649652288679E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>33</v>
       </c>
@@ -13454,7 +13469,7 @@
         <v>0.17939428186873113</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>34</v>
       </c>
@@ -13485,7 +13500,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>34</v>
       </c>
@@ -13516,7 +13531,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>34</v>
       </c>
@@ -13547,7 +13562,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>34</v>
       </c>
@@ -13578,7 +13593,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>34</v>
       </c>
@@ -13609,7 +13624,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>34</v>
       </c>
@@ -13640,7 +13655,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>34</v>
       </c>
@@ -13671,7 +13686,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>34</v>
       </c>
@@ -13702,7 +13717,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>34</v>
       </c>
@@ -13733,7 +13748,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>34</v>
       </c>
@@ -13764,7 +13779,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>34</v>
       </c>
@@ -13795,7 +13810,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>34</v>
       </c>
@@ -13826,7 +13841,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>34</v>
       </c>
@@ -13857,7 +13872,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>34</v>
       </c>
@@ -13888,7 +13903,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>34</v>
       </c>
@@ -13919,7 +13934,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>34</v>
       </c>
@@ -13950,7 +13965,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>34</v>
       </c>
@@ -13981,7 +13996,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>34</v>
       </c>
@@ -14010,6 +14025,105 @@
       <c r="M406" s="9" cm="1">
         <f t="array" ref="M406">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G406,'Support data'!$C$1:$D$1,0))-IF($G406="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A406)*($B$164:$B$244=$B406)*($F$164:$F$244=$F406)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A406)*($B$164:$B$244=$B406)*($F$164:$F$244=$F406)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A406)*($B$164:$B$244=$B406)*($F$164:$F$244=$F406)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G406,'Support data'!$C$1:$D$1,0))-IF($G406="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A406)*($B$164:$B$244=$B406)*($F$164:$F$244=$F406)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A406)*($B$164:$B$244=$B406)*($F$164:$F$244=$F406)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A406)*($B$164:$B$244=$B406)*($F$164:$F$244=$F406)*($H$164:$H$244="Offshore wind plants"))))</f>
         <v>0.17250239909762566</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>46</v>
+      </c>
+      <c r="B407" t="s">
+        <v>46</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D407" t="str">
+        <f t="shared" si="6"/>
+        <v>All - All - All</v>
+      </c>
+      <c r="E407" t="s">
+        <v>2</v>
+      </c>
+      <c r="F407" t="s">
+        <v>2</v>
+      </c>
+      <c r="G407" t="s">
+        <v>47</v>
+      </c>
+      <c r="H407" t="s">
+        <v>17</v>
+      </c>
+      <c r="J407" t="s">
+        <v>48</v>
+      </c>
+      <c r="M407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>46</v>
+      </c>
+      <c r="B408" t="s">
+        <v>46</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D408" t="str">
+        <f t="shared" ref="D408:D409" si="7">_xlfn.CONCAT(A408," - ",B408," - ",C408)</f>
+        <v>All - All - All</v>
+      </c>
+      <c r="E408" t="s">
+        <v>2</v>
+      </c>
+      <c r="F408" t="s">
+        <v>2</v>
+      </c>
+      <c r="G408" t="s">
+        <v>49</v>
+      </c>
+      <c r="H408" t="s">
+        <v>18</v>
+      </c>
+      <c r="J408" t="s">
+        <v>48</v>
+      </c>
+      <c r="M408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>46</v>
+      </c>
+      <c r="B409" t="s">
+        <v>46</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D409" t="str">
+        <f t="shared" si="7"/>
+        <v>All - All - All</v>
+      </c>
+      <c r="E409" t="s">
+        <v>2</v>
+      </c>
+      <c r="F409" t="s">
+        <v>2</v>
+      </c>
+      <c r="G409" t="s">
+        <v>50</v>
+      </c>
+      <c r="H409" t="s">
+        <v>19</v>
+      </c>
+      <c r="J409" t="s">
+        <v>48</v>
+      </c>
+      <c r="M409">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14032,14 +14146,14 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
@@ -14047,7 +14161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -14061,7 +14175,7 @@
         <v>0.45288899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -14072,7 +14186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -14089,7 +14203,7 @@
         <v>3.1930000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -14106,12 +14220,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -14128,7 +14242,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -14145,7 +14259,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -14162,12 +14276,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -14187,7 +14301,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -14207,7 +14321,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -14227,12 +14341,12 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -14249,7 +14363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -14266,7 +14380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -14283,7 +14397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
@@ -14294,7 +14408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -14324,14 +14438,14 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -14345,7 +14459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -14360,7 +14474,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -14375,7 +14489,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -14390,7 +14504,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -14405,7 +14519,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -14420,7 +14534,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -14435,7 +14549,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -14450,7 +14564,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -14465,7 +14579,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -14480,7 +14594,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -14495,7 +14609,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -14510,7 +14624,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -14525,7 +14639,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -14540,7 +14654,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -14555,7 +14669,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -14570,7 +14684,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -14588,7 +14702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -14606,7 +14720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -14621,7 +14735,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -14636,7 +14750,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14651,7 +14765,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -14666,7 +14780,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -14681,7 +14795,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -14696,7 +14810,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -14711,7 +14825,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -14726,7 +14840,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -14741,7 +14855,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -14756,7 +14870,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -14771,7 +14885,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -14786,7 +14900,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -14801,7 +14915,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -14816,7 +14930,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -14831,7 +14945,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -14846,7 +14960,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -14861,7 +14975,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -14876,7 +14990,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -14891,7 +15005,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -14906,7 +15020,7 @@
         <v>0.1098278823170873</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -14921,7 +15035,7 @@
         <v>8.4676026180754607E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -14936,7 +15050,7 @@
         <v>4.4452765551837449E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -14951,7 +15065,7 @@
         <v>6.5997997628198524E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -14966,7 +15080,7 @@
         <v>0.10683414041775249</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -14981,7 +15095,7 @@
         <v>8.4842909794603669E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -14996,7 +15110,7 @@
         <v>5.0968248025526151E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -15011,7 +15125,7 @@
         <v>6.9021906740956068E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -15026,7 +15140,7 @@
         <v>0.10509518175944001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -15041,7 +15155,7 @@
         <v>8.6154996791385496E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -15056,7 +15170,7 @@
         <v>4.1652750387538677E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -15071,7 +15185,7 @@
         <v>6.4232757314387504E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -15086,7 +15200,7 @@
         <v>7.9252112693233581E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -15101,7 +15215,7 @@
         <v>8.4952793495642456E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -15116,7 +15230,7 @@
         <v>4.6094914193953548E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -15131,7 +15245,7 @@
         <v>6.1780361289398081E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -15146,7 +15260,7 @@
         <v>7.4185531408667515E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -15161,7 +15275,7 @@
         <v>8.3643657313105385E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -15176,7 +15290,7 @@
         <v>4.1756525177360379E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -15191,7 +15305,7 @@
         <v>5.6164082928312292E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -15206,7 +15320,7 @@
         <v>5.8209744090300428E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -15221,7 +15335,7 @@
         <v>8.0577590696087456E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -15236,7 +15350,7 @@
         <v>3.9111927642915628E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -15251,7 +15365,7 @@
         <v>5.5640179411258733E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -15266,7 +15380,7 @@
         <v>4.8120627502583023E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -15281,7 +15395,7 @@
         <v>8.1119622989275678E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -15296,7 +15410,7 @@
         <v>4.6676417645683477E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -15311,7 +15425,7 @@
         <v>5.8063208676388617E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -15326,7 +15440,7 @@
         <v>6.8478209714373392E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -15341,7 +15455,7 @@
         <v>8.6664788018828723E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -15356,7 +15470,7 @@
         <v>4.7713332792566503E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -15371,7 +15485,7 @@
         <v>6.0032979075207119E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -15386,7 +15500,7 @@
         <v>5.5093022980555718E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -15401,7 +15515,7 @@
         <v>8.9243628734461941E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -15416,7 +15530,7 @@
         <v>4.6961532054155472E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -15431,7 +15545,7 @@
         <v>6.1408596229388317E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -15446,7 +15560,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -15461,7 +15575,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -15476,7 +15590,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -15491,7 +15605,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -15506,7 +15620,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -15521,7 +15635,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -15536,7 +15650,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -15551,7 +15665,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -15566,7 +15680,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -15581,7 +15695,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -15596,7 +15710,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -15611,7 +15725,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -15626,7 +15740,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -15641,7 +15755,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -15656,7 +15770,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -15671,7 +15785,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -15686,7 +15800,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -15701,7 +15815,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -15716,7 +15830,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -15731,7 +15845,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -15746,7 +15860,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -15761,7 +15875,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -15776,7 +15890,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -15791,7 +15905,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -15806,7 +15920,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -15821,7 +15935,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -15836,7 +15950,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -15851,7 +15965,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -15866,7 +15980,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -15881,7 +15995,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>34</v>
       </c>
@@ -15896,7 +16010,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>34</v>
       </c>
@@ -15911,7 +16025,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -15926,7 +16040,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -15941,7 +16055,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -15956,7 +16070,7 @@
         <v>4.1303192313634343E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -15986,12 +16100,12 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="9.5546875" customWidth="1"/>
+    <col min="1" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16023,7 +16137,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -16055,7 +16169,7 @@
         <v>19810686</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -16087,7 +16201,7 @@
         <v>12034313</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -16119,7 +16233,7 @@
         <v>14630986</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -16151,7 +16265,7 @@
         <v>35561656</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="1"/>
     </row>
   </sheetData>
@@ -16170,9 +16284,9 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16180,7 +16294,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -16188,7 +16302,7 @@
         <v>17914371.626316801</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -16196,7 +16310,7 @@
         <v>11617342.9600616</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -16204,7 +16318,7 @@
         <v>33014904.042284802</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -16231,9 +16345,9 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -16265,7 +16379,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -16297,7 +16411,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -16329,7 +16443,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -16361,7 +16475,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -16410,13 +16524,13 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -16448,7 +16562,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -16480,7 +16594,7 @@
         <v>5.5093022980555718E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -16512,7 +16626,7 @@
         <v>8.9243628734461941E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -16544,7 +16658,7 @@
         <v>6.1408596229388317E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -16593,13 +16707,13 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -16631,7 +16745,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -16663,7 +16777,7 @@
         <v>7.0536281954503732E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -16695,7 +16809,7 @@
         <v>8.7050026667435484E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -16727,7 +16841,7 @@
         <v>5.7803139393470877E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>

--- a/Shocks/ShockMaster.xlsx
+++ b/Shocks/ShockMaster.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Shocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A1B49-A313-469F-9931-DF662E88467E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7FCE8-9A4C-4365-90C1-D78328CECECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AC5AC57-1F64-4F2D-BB65-F878D395C517}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{FDEE0995-F68A-4ED9-9CCF-85B3630CFFD1}"/>
+    <workbookView xWindow="39852" yWindow="0" windowWidth="9396" windowHeight="13200" activeTab="1" xr2:uid="{B60DDE52-988F-44A2-B15C-F9EEC5148EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShockMaster" sheetId="6" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="EXIOHSUT_Electricity prices" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShockMaster!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShockMaster!$A$1:$M$409</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -675,15 +674,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D578EE-3C05-4D0C-AE17-43AAD0A9E4AC}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:M409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H407" sqref="H407"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -743,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -777,7 +773,7 @@
         <v>0.31791623705013017</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -811,7 +807,7 @@
         <v>8.4052867968024844E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -845,7 +841,7 @@
         <v>0.15997266486503273</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -879,7 +875,7 @@
         <v>0.31216209701302372</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -913,7 +909,7 @@
         <v>8.2531549090775522E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -947,7 +943,7 @@
         <v>0.15707723201679688</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -981,7 +977,7 @@
         <v>0.31216209701302372</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1011,7 @@
         <v>8.2531549090775522E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1045,7 @@
         <v>0.15707723201679688</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1079,7 @@
         <v>0.31075596144089296</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>8.2159785356132387E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1151,7 +1147,7 @@
         <v>0.1563696769176221</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1181,7 @@
         <v>0.31216209701302372</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>8.2531549090775522E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1249,7 @@
         <v>0.15707723201679688</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1283,7 @@
         <v>0.3135810156358102</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1321,7 +1317,7 @@
         <v>8.2906692495733597E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1351,7 @@
         <v>0.15779121943505503</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1389,7 +1385,7 @@
         <v>0.31216209701302372</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1423,7 +1419,7 @@
         <v>8.2531549090775522E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1457,7 +1453,7 @@
         <v>0.15707723201679688</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1491,7 +1487,7 @@
         <v>0.30936243695012666</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1525,7 +1521,7 @@
         <v>8.1791355825387407E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1559,7 +1555,7 @@
         <v>0.15566846760409017</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1593,7 +1589,7 @@
         <v>0.30661254862168102</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1627,7 +1623,7 @@
         <v>8.1064321551383961E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1661,7 +1657,7 @@
         <v>0.15428474789205379</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1695,7 +1691,7 @@
         <v>0.81472674795357813</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>0.21540302694562333</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1763,7 +1759,7 @@
         <v>0.40996336084087537</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1797,7 +1793,7 @@
         <v>0.81312420338824976</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1831,7 +1827,7 @@
         <v>0.21497933525874297</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1865,7 +1861,7 @@
         <v>0.40915697445728166</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1899,7 +1895,7 @@
         <v>0.80074082768436972</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +1929,7 @@
         <v>0.21170533373968076</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1967,7 +1963,7 @@
         <v>0.40292576830764987</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -2001,7 +1997,7 @@
         <v>0.8120724534316448</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>0.21470126641564719</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2069,7 +2065,7 @@
         <v>0.40862774309467198</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2103,7 +2099,7 @@
         <v>0.82478248388439546</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2137,7 +2133,7 @@
         <v>0.21806163115016741</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2171,7 +2167,7 @@
         <v>0.41502331905174916</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2205,7 +2201,7 @@
         <v>0.85616637136841112</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2239,7 +2235,7 @@
         <v>0.22635911785765309</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2273,7 +2269,7 @@
         <v>0.43081541624447817</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2307,7 +2303,7 @@
         <v>0.85044556295581764</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2341,7 +2337,7 @@
         <v>0.22484661142314133</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2375,7 +2371,7 @@
         <v>0.42793675557764166</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2409,7 +2405,7 @@
         <v>0.79603060270441095</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2443,7 +2439,7 @@
         <v>0.21046001226125075</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2477,7 +2473,7 @@
         <v>0.40055562436926695</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>0.77302799559110935</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2541,7 @@
         <v>0.20437842575105997</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>0.38898091402133972</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2613,7 +2609,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2647,7 +2643,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2715,7 +2711,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2749,7 +2745,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2783,7 +2779,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -2851,7 +2847,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -2919,7 +2915,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -2953,7 +2949,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2987,7 +2983,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -3021,7 +3017,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3055,7 +3051,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -3089,7 +3085,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3123,7 +3119,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -3157,7 +3153,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3191,7 +3187,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3225,7 +3221,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -3259,7 +3255,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -3293,7 +3289,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -3327,7 +3323,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3395,7 +3391,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -3429,7 +3425,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -3463,7 +3459,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -3497,7 +3493,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3531,7 +3527,7 @@
         <v>0.2384371777875976</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3565,7 +3561,7 @@
         <v>5.4033986550873103E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>0.10498206131767777</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3633,7 +3629,7 @@
         <v>0.23412157275976775</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -3667,7 +3663,7 @@
         <v>5.3055995844069968E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -3701,7 +3697,7 @@
         <v>0.10308193351102297</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -3735,7 +3731,7 @@
         <v>0.23412157275976775</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -3769,7 +3765,7 @@
         <v>5.3055995844069968E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -3803,7 +3799,7 @@
         <v>0.10308193351102297</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -3837,7 +3833,7 @@
         <v>0.2330669710806697</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -3871,7 +3867,7 @@
         <v>5.281700487179939E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -3905,7 +3901,7 @@
         <v>0.10261760047718953</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>0.23412157275976775</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -3973,7 +3969,7 @@
         <v>5.3055995844069968E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -4007,7 +4003,7 @@
         <v>0.10308193351102297</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4041,7 +4037,7 @@
         <v>0.23518576172685762</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4075,7 +4071,7 @@
         <v>5.3297159461543016E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4109,7 +4105,7 @@
         <v>0.10355048775425489</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4143,7 +4139,7 @@
         <v>0.23412157275976775</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4177,7 +4173,7 @@
         <v>5.3055995844069968E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4211,7 +4207,7 @@
         <v>0.10308193351102297</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -4245,7 +4241,7 @@
         <v>0.23202182771259494</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -4279,7 +4275,7 @@
         <v>5.2580157316320465E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -4313,7 +4309,7 @@
         <v>0.1021574318651842</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -4347,7 +4343,7 @@
         <v>0.22995941146626075</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4381,7 +4377,7 @@
         <v>5.2112778140175398E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -4415,7 +4411,7 @@
         <v>0.10124936580416033</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -4449,7 +4445,7 @@
         <v>0.61104506096518352</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -4483,7 +4479,7 @@
         <v>0.13847337446504354</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -4517,7 +4513,7 @@
         <v>0.26903845555182448</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -4551,7 +4547,7 @@
         <v>0.60984315254118726</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -4585,7 +4581,7 @@
         <v>0.13820100123776333</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -4619,7 +4615,7 @@
         <v>0.26850926448759116</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -4653,7 +4649,7 @@
         <v>0.60055562076327729</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -4687,7 +4683,7 @@
         <v>0.13609628597550902</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -4721,7 +4717,7 @@
         <v>0.26442003545189524</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>0.60905434007373349</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -4789,7 +4785,7 @@
         <v>0.13802224269577318</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -4823,7 +4819,7 @@
         <v>0.26816195640587859</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -4857,7 +4853,7 @@
         <v>0.61858686291329656</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -4891,7 +4887,7 @@
         <v>0.14018247716796478</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -4925,7 +4921,7 @@
         <v>0.27235905312771042</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -4959,7 +4955,7 @@
         <v>0.64212477852630823</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -4993,7 +4989,7 @@
         <v>0.14551657576563409</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5027,7 +5023,7 @@
         <v>0.28272261691043887</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5061,7 +5057,7 @@
         <v>0.63783417221686312</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -5095,7 +5091,7 @@
         <v>0.14454425020059083</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>0.28083349584782741</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>0.59702295202830813</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -5197,7 +5193,7 @@
         <v>0.13529572216794691</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -5333,7 +5329,7 @@
         <v>0.25526872482650426</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>34</v>
       </c>
@@ -5367,7 +5363,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -5401,7 +5397,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -5435,7 +5431,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -5469,7 +5465,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>34</v>
       </c>
@@ -5503,7 +5499,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>34</v>
       </c>
@@ -5537,7 +5533,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -5571,7 +5567,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>34</v>
       </c>
@@ -5605,7 +5601,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>34</v>
       </c>
@@ -5639,7 +5635,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -5673,7 +5669,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -5741,7 +5737,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -5775,7 +5771,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -5843,7 +5839,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -5877,7 +5873,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -5911,7 +5907,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -5979,7 +5975,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -6013,7 +6009,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -6081,7 +6077,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>34</v>
       </c>
@@ -6115,7 +6111,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>34</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -6183,7 +6179,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>34</v>
       </c>
@@ -6217,7 +6213,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>34</v>
       </c>
@@ -6251,7 +6247,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -6285,7 +6281,7 @@
         <v>0.18700955120595888</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -6319,7 +6315,7 @@
         <v>3.7823790585611174E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -6353,7 +6349,7 @@
         <v>7.4653910270348622E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>0.18362476294883745</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>3.713919709084898E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -6455,7 +6451,7 @@
         <v>7.3302708274505204E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -6489,7 +6485,7 @@
         <v>0.18362476294883745</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -6523,7 +6519,7 @@
         <v>3.713919709084898E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -6557,7 +6553,7 @@
         <v>7.3302708274505204E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -6591,7 +6587,7 @@
         <v>0.18279762437699584</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -6625,7 +6621,7 @@
         <v>3.697190341025957E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>7.297251589489033E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -6693,7 +6689,7 @@
         <v>0.18362476294883745</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>3.713919709084898E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -6761,7 +6757,7 @@
         <v>7.3302708274505204E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -6795,7 +6791,7 @@
         <v>0.18445942096224124</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -6829,7 +6825,7 @@
         <v>3.7308011623080117E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -6863,7 +6859,7 @@
         <v>7.3635902403025685E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -6897,7 +6893,7 @@
         <v>0.18362476294883745</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -6931,7 +6927,7 @@
         <v>3.713919709084898E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -6965,7 +6961,7 @@
         <v>7.3302708274505204E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -6999,7 +6995,7 @@
         <v>0.18197790408830977</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -7033,7 +7029,7 @@
         <v>3.6806110121424325E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -7067,7 +7063,7 @@
         <v>7.2645284881908745E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -7101,7 +7097,7 @@
         <v>0.18036032271863589</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -7135,7 +7131,7 @@
         <v>3.6478944698122774E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -7169,7 +7165,7 @@
         <v>7.1999549016291783E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -7203,7 +7199,7 @@
         <v>0.47925102820798704</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -7237,7 +7233,7 @@
         <v>9.6931362125530482E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -7271,7 +7267,7 @@
         <v>0.19131623505907516</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -7305,7 +7301,7 @@
         <v>0.47830835493426449</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -7339,7 +7335,7 @@
         <v>9.6740700866434326E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -7373,7 +7369,7 @@
         <v>0.19093992141339813</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>33</v>
       </c>
@@ -7407,7 +7403,7 @@
         <v>0.4710240162849233</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>33</v>
       </c>
@@ -7441,7 +7437,7 @@
         <v>9.5267400182856316E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>33</v>
       </c>
@@ -7475,7 +7471,7 @@
         <v>0.1880320252102366</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -7509,7 +7505,7 @@
         <v>0.47768967848920274</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>33</v>
       </c>
@@ -7543,7 +7539,7 @@
         <v>9.6615569887041217E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>33</v>
       </c>
@@ -7577,7 +7573,7 @@
         <v>0.19069294677751361</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>33</v>
       </c>
@@ -7611,7 +7607,7 @@
         <v>0.48516616699082082</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>33</v>
       </c>
@@ -7645,7 +7641,7 @@
         <v>9.8127734017575324E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>33</v>
       </c>
@@ -7679,7 +7675,7 @@
         <v>0.19367754889081629</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>33</v>
       </c>
@@ -7713,7 +7709,7 @@
         <v>0.50362727727553591</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>33</v>
       </c>
@@ -7747,7 +7743,7 @@
         <v>0.10186160303594387</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>33</v>
       </c>
@@ -7781,7 +7777,7 @@
         <v>0.20104719424742315</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -7815,7 +7811,7 @@
         <v>0.50026209585636328</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>33</v>
       </c>
@@ -7849,7 +7845,7 @@
         <v>0.10118097514041359</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>33</v>
       </c>
@@ -7883,7 +7879,7 @@
         <v>0.19970381926956612</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>33</v>
       </c>
@@ -7917,7 +7913,7 @@
         <v>0.46825329570847696</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -7951,7 +7947,7 @@
         <v>9.4707005517562823E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>33</v>
       </c>
@@ -7985,7 +7981,7 @@
         <v>0.18692595803899129</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -8019,7 +8015,7 @@
         <v>0.4547223503477113</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -8053,7 +8049,7 @@
         <v>9.1970291587976968E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>33</v>
       </c>
@@ -8087,7 +8083,7 @@
         <v>0.1815244265432919</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>34</v>
       </c>
@@ -8121,7 +8117,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -8155,7 +8151,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -8189,7 +8185,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -8223,7 +8219,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -8257,7 +8253,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>34</v>
       </c>
@@ -8291,7 +8287,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -8325,7 +8321,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>34</v>
       </c>
@@ -8359,7 +8355,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -8393,7 +8389,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>34</v>
       </c>
@@ -8427,7 +8423,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>34</v>
       </c>
@@ -8461,7 +8457,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -8495,7 +8491,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>34</v>
       </c>
@@ -8529,7 +8525,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>34</v>
       </c>
@@ -8563,7 +8559,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>34</v>
       </c>
@@ -8597,7 +8593,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>34</v>
       </c>
@@ -8631,7 +8627,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -8665,7 +8661,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>34</v>
       </c>
@@ -8699,7 +8695,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>34</v>
       </c>
@@ -8733,7 +8729,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>34</v>
       </c>
@@ -8767,7 +8763,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>34</v>
       </c>
@@ -8801,7 +8797,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>34</v>
       </c>
@@ -8835,7 +8831,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>34</v>
       </c>
@@ -8869,7 +8865,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>34</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>34</v>
       </c>
@@ -8971,7 +8967,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>34</v>
       </c>
@@ -9005,7 +9001,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>0.15264576294986981</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>0.20886346716694243</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -9098,7 +9094,7 @@
         <v>0.15839990298697626</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>0.2132802188924276</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -9160,7 +9156,7 @@
         <v>0.15839990298697626</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -9191,7 +9187,7 @@
         <v>0.2132802188924276</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -9222,7 +9218,7 @@
         <v>0.15980603855910702</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -9253,7 +9249,7 @@
         <v>0.2143595377262455</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -9284,7 +9280,7 @@
         <v>0.15839990298697626</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -9315,7 +9311,7 @@
         <v>0.2132802188924276</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -9346,7 +9342,7 @@
         <v>0.15698098436418978</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -9377,7 +9373,7 @@
         <v>0.21219108806921136</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -9408,7 +9404,7 @@
         <v>0.15839990298697626</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -9439,7 +9435,7 @@
         <v>0.2132802188924276</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -9470,7 +9466,7 @@
         <v>0.16119956304987332</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -9501,7 +9497,7 @@
         <v>0.21542917657052241</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -9532,7 +9528,7 @@
         <v>0.16394945137831896</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -9563,7 +9559,7 @@
         <v>0.21753993055656223</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>33</v>
       </c>
@@ -9594,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>33</v>
       </c>
@@ -9625,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -9656,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>33</v>
       </c>
@@ -9687,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -9718,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>33</v>
       </c>
@@ -9749,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>33</v>
       </c>
@@ -9780,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>33</v>
       </c>
@@ -9811,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>33</v>
       </c>
@@ -9842,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>33</v>
       </c>
@@ -9873,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>33</v>
       </c>
@@ -9904,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>33</v>
       </c>
@@ -9935,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>33</v>
       </c>
@@ -9966,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>33</v>
       </c>
@@ -9997,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -10028,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>33</v>
       </c>
@@ -10059,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>33</v>
       </c>
@@ -10090,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>33</v>
       </c>
@@ -10121,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>34</v>
       </c>
@@ -10152,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>34</v>
       </c>
@@ -10183,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>34</v>
       </c>
@@ -10214,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>34</v>
       </c>
@@ -10245,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>34</v>
       </c>
@@ -10276,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>34</v>
       </c>
@@ -10307,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>34</v>
       </c>
@@ -10338,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>34</v>
       </c>
@@ -10369,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>34</v>
       </c>
@@ -10400,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>34</v>
       </c>
@@ -10431,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>34</v>
       </c>
@@ -10462,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -10493,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>34</v>
       </c>
@@ -10524,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>34</v>
       </c>
@@ -10555,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>34</v>
       </c>
@@ -10586,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>34</v>
       </c>
@@ -10617,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>34</v>
       </c>
@@ -10648,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>34</v>
       </c>
@@ -10679,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -10710,7 +10706,7 @@
         <v>0.23212482221240238</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -10741,7 +10737,7 @@
         <v>0.29387295213144909</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>0.23644042724023223</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -10803,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>0.23644042724023223</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -10865,7 +10861,7 @@
         <v>0.29675107064490702</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -10896,7 +10892,7 @@
         <v>0.23749502891933028</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -10927,7 +10923,7 @@
         <v>0.29745439465101109</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -10958,7 +10954,7 @@
         <v>0.23644042724023223</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -10989,7 +10985,7 @@
         <v>0.29675107064490702</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -11020,7 +11016,7 @@
         <v>0.23537623827314236</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -11051,7 +11047,7 @@
         <v>0.29604135278420207</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -11082,7 +11078,7 @@
         <v>0.23644042724023223</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -11113,7 +11109,7 @@
         <v>0.29675107064490702</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -11144,7 +11140,7 @@
         <v>0.23854017228740504</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -11175,7 +11171,7 @@
         <v>0.29815141081849533</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -11206,7 +11202,7 @@
         <v>0.24060258853373923</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -11237,7 +11233,7 @@
         <v>0.29952685605566426</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>33</v>
       </c>
@@ -11268,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11295,7 @@
         <v>4.537716998313196E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>33</v>
       </c>
@@ -11330,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>33</v>
       </c>
@@ -11361,7 +11357,7 @@
         <v>4.6178734274645472E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>33</v>
       </c>
@@ -11392,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>33</v>
       </c>
@@ -11423,7 +11419,7 @@
         <v>5.2372678572595754E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>33</v>
       </c>
@@ -11454,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>33</v>
       </c>
@@ -11485,7 +11481,7 @@
         <v>4.670480089834822E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>33</v>
       </c>
@@ -11516,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>33</v>
       </c>
@@ -11547,7 +11543,7 @@
         <v>4.034746970432479E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -11578,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -11609,7 +11605,7 @@
         <v>2.464980732392702E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -11640,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -11671,7 +11667,7 @@
         <v>2.7511253951581716E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -11702,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -11795,7 +11791,7 @@
         <v>6.6234144333528588E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -11826,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>34</v>
       </c>
@@ -11857,7 +11853,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>34</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>34</v>
       </c>
@@ -11919,7 +11915,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>34</v>
       </c>
@@ -11950,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>34</v>
       </c>
@@ -11981,7 +11977,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>34</v>
       </c>
@@ -12012,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>34</v>
       </c>
@@ -12043,7 +12039,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -12074,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>34</v>
       </c>
@@ -12105,7 +12101,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -12136,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>34</v>
       </c>
@@ -12167,7 +12163,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>34</v>
       </c>
@@ -12198,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>34</v>
       </c>
@@ -12229,7 +12225,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>34</v>
       </c>
@@ -12260,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>34</v>
       </c>
@@ -12291,7 +12287,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>34</v>
       </c>
@@ -12322,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -12353,7 +12349,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>20</v>
       </c>
@@ -12384,7 +12380,7 @@
         <v>0.28355244879404107</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>20</v>
       </c>
@@ -12415,7 +12411,7 @@
         <v>0.34041129914404022</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>20</v>
       </c>
@@ -12446,7 +12442,7 @@
         <v>0.28693723705116253</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>20</v>
       </c>
@@ -12477,7 +12473,7 @@
         <v>0.34244709463464579</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>20</v>
       </c>
@@ -12508,7 +12504,7 @@
         <v>0.28693723705116253</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>20</v>
       </c>
@@ -12539,7 +12535,7 @@
         <v>0.34244709463464579</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -12570,7 +12566,7 @@
         <v>0.28776437562300416</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -12601,7 +12597,7 @@
         <v>0.34294458069485012</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>20</v>
       </c>
@@ -12632,7 +12628,7 @@
         <v>0.28693723705116253</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -12663,7 +12659,7 @@
         <v>0.34244709463464579</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -12694,7 +12690,7 @@
         <v>0.28610257903775871</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>20</v>
       </c>
@@ -12725,7 +12721,7 @@
         <v>0.34194508597389417</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>20</v>
       </c>
@@ -12756,7 +12752,7 @@
         <v>0.28693723705116253</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>20</v>
       </c>
@@ -12787,7 +12783,7 @@
         <v>0.34244709463464579</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>20</v>
       </c>
@@ -12818,7 +12814,7 @@
         <v>0.28858409591169021</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>20</v>
       </c>
@@ -12849,7 +12845,7 @@
         <v>0.34343760499666692</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>20</v>
       </c>
@@ -12880,7 +12876,7 @@
         <v>0.29020167728136409</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>20</v>
       </c>
@@ -12911,7 +12907,7 @@
         <v>0.34441050628558545</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>33</v>
       </c>
@@ -12942,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>33</v>
       </c>
@@ -12973,7 +12969,7 @@
         <v>0.16464140281539436</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>33</v>
       </c>
@@ -13004,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>33</v>
       </c>
@@ -13035,7 +13031,7 @@
         <v>0.1652083777201675</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>33</v>
       </c>
@@ -13066,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>33</v>
       </c>
@@ -13097,7 +13093,7 @@
         <v>0.16958957460690705</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>33</v>
       </c>
@@ -13128,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>33</v>
       </c>
@@ -13159,7 +13155,7 @@
         <v>0.16558048333544517</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>33</v>
       </c>
@@ -13190,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>33</v>
       </c>
@@ -13221,7 +13217,7 @@
         <v>0.1610837170916084</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>33</v>
       </c>
@@ -13252,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>33</v>
       </c>
@@ -13283,7 +13279,7 @@
         <v>0.14998020271663298</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>33</v>
       </c>
@@ -13314,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>33</v>
       </c>
@@ -13345,7 +13341,7 @@
         <v>0.15200420559002026</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>33</v>
       </c>
@@ -13376,7 +13372,7 @@
         <v>2.3087042915230227E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>33</v>
       </c>
@@ -13407,7 +13403,7 @@
         <v>0.17125603644344589</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>33</v>
       </c>
@@ -13438,7 +13434,7 @@
         <v>1.5839649652288679E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>33</v>
       </c>
@@ -13469,7 +13465,7 @@
         <v>0.17939428186873113</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>34</v>
       </c>
@@ -13500,7 +13496,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>34</v>
       </c>
@@ -13531,7 +13527,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>34</v>
       </c>
@@ -13562,7 +13558,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>34</v>
       </c>
@@ -13593,7 +13589,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>34</v>
       </c>
@@ -13624,7 +13620,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>34</v>
       </c>
@@ -13655,7 +13651,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>34</v>
       </c>
@@ -13686,7 +13682,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>34</v>
       </c>
@@ -13717,7 +13713,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>34</v>
       </c>
@@ -13748,7 +13744,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>34</v>
       </c>
@@ -13779,7 +13775,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>34</v>
       </c>
@@ -13810,7 +13806,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>34</v>
       </c>
@@ -13841,7 +13837,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>34</v>
       </c>
@@ -13872,7 +13868,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>34</v>
       </c>
@@ -13903,7 +13899,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>34</v>
       </c>
@@ -13934,7 +13930,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>34</v>
       </c>
@@ -13965,7 +13961,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>34</v>
       </c>
@@ -13996,7 +13992,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>34</v>
       </c>
@@ -14027,7 +14023,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>46</v>
       </c>
@@ -14060,7 +14056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>46</v>
       </c>
@@ -14093,7 +14089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>46</v>
       </c>
@@ -14127,7 +14123,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{97D578EE-3C05-4D0C-AE17-43AAD0A9E4AC}"/>
+  <autoFilter ref="A1:M409" xr:uid="{97D578EE-3C05-4D0C-AE17-43AAD0A9E4AC}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="IEA - 2019 - Average"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14137,13 +14139,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14420,6 +14419,12 @@
       </c>
       <c r="D26" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>C12*C22*Prices!D71</f>
+        <v>0.35697451493784776</v>
       </c>
     </row>
   </sheetData>
@@ -14436,7 +14441,6 @@
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16098,7 +16102,6 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16282,7 +16285,6 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16340,10 +16342,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16519,10 +16518,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16702,10 +16698,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J5"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Shocks/ShockMaster.xlsx
+++ b/Shocks/ShockMaster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Shocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7FCE8-9A4C-4365-90C1-D78328CECECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E802770-CD1E-4BD4-A646-E463DFB4934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39852" yWindow="0" windowWidth="9396" windowHeight="13200" activeTab="1" xr2:uid="{B60DDE52-988F-44A2-B15C-F9EEC5148EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B60DDE52-988F-44A2-B15C-F9EEC5148EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShockMaster" sheetId="6" r:id="rId1"/>
@@ -14142,7 +14142,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Shocks/ShockMaster.xlsx
+++ b/Shocks/ShockMaster.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Shocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E802770-CD1E-4BD4-A646-E463DFB4934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663D6F4-364E-450C-BA54-8AB84567C846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B60DDE52-988F-44A2-B15C-F9EEC5148EBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{B60DDE52-988F-44A2-B15C-F9EEC5148EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="ShockMaster" sheetId="6" r:id="rId1"/>
     <sheet name="Support data" sheetId="9" r:id="rId2"/>
     <sheet name="Prices" sheetId="10" r:id="rId3"/>
     <sheet name="IEA_Electricity production" sheetId="1" r:id="rId4"/>
-    <sheet name="EXIOHSUT_Electricity production" sheetId="2" r:id="rId5"/>
-    <sheet name="Constant_Electricity prices" sheetId="3" r:id="rId6"/>
-    <sheet name="IEA_Electricity prices" sheetId="4" r:id="rId7"/>
-    <sheet name="EXIOHSUT_Electricity prices" sheetId="5" r:id="rId8"/>
+    <sheet name="EXIOBASE_Electricity production" sheetId="11" r:id="rId5"/>
+    <sheet name="EXIOHSUT_Electricity production" sheetId="2" r:id="rId6"/>
+    <sheet name="Constant_Electricity prices" sheetId="3" r:id="rId7"/>
+    <sheet name="IEA_Electricity prices" sheetId="4" r:id="rId8"/>
+    <sheet name="EXIOHSUT_Electricity prices" sheetId="5" r:id="rId9"/>
+    <sheet name="EXIOBASE_Electricity prices" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShockMaster!$A$1:$M$409</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShockMaster!$A$1:$M$544</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="53">
   <si>
     <t>TJ</t>
   </si>
@@ -219,6 +221,12 @@
   <si>
     <t>Production of offshore wind plants</t>
   </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>EXIOBASE</t>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -359,6 +367,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,16 +685,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D578EE-3C05-4D0C-AE17-43AAD0A9E4AC}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:M409"/>
+  <dimension ref="A1:M544"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A350" zoomScale="92" workbookViewId="0">
+      <selection activeCell="M410" sqref="A410:M544"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
@@ -694,7 +707,7 @@
     <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -739,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -770,10 +783,10 @@
       </c>
       <c r="M2" s="9" cm="1">
         <f t="array" ref="M2">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H2,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H2,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C2,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H2,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C2,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H2,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A2)*(Prices!$B$2:$B$109=ShockMaster!$B2)*(Prices!$C$2:$C$109=ShockMaster!$F2))*1000000</f>
-        <v>0.31791623705013017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.55272422085336192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -804,10 +817,10 @@
       </c>
       <c r="M3" s="9" cm="1">
         <f t="array" ref="M3">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H3,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H3,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C3,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H3,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C3,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H3,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A3)*(Prices!$B$2:$B$109=ShockMaster!$B3)*(Prices!$C$2:$C$109=ShockMaster!$F3))*1000000</f>
-        <v>8.4052867968024844E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14613300782995672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -838,10 +851,10 @@
       </c>
       <c r="M4" s="9" cm="1">
         <f t="array" ref="M4">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H4,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H4,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C4,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H4,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C4,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H4,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A4)*(Prices!$B$2:$B$109=ShockMaster!$B4)*(Prices!$C$2:$C$109=ShockMaster!$F4))*1000000</f>
-        <v>0.15997266486503273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.27812598490028911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -872,10 +885,10 @@
       </c>
       <c r="M5" s="9" cm="1">
         <f t="array" ref="M5">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H5,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H5,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C5,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H5,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C5,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H5,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A5)*(Prices!$B$2:$B$109=ShockMaster!$B5)*(Prices!$C$2:$C$109=ShockMaster!$F5))*1000000</f>
-        <v>0.31216209701302372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.54407820301907117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -906,10 +919,10 @@
       </c>
       <c r="M6" s="9" cm="1">
         <f t="array" ref="M6">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H6,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H6,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C6,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H6,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C6,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H6,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A6)*(Prices!$B$2:$B$109=ShockMaster!$B6)*(Prices!$C$2:$C$109=ShockMaster!$F6))*1000000</f>
-        <v>8.2531549090775522E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14384711453234497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -940,10 +953,10 @@
       </c>
       <c r="M7" s="9" cm="1">
         <f t="array" ref="M7">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H7,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H7,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C7,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H7,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C7,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H7,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A7)*(Prices!$B$2:$B$109=ShockMaster!$B7)*(Prices!$C$2:$C$109=ShockMaster!$F7))*1000000</f>
-        <v>0.15707723201679688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.27377538448347555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -974,10 +987,10 @@
       </c>
       <c r="M8" s="9" cm="1">
         <f t="array" ref="M8">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H8,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H8,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C8,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H8,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C8,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H8,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A8)*(Prices!$B$2:$B$109=ShockMaster!$B8)*(Prices!$C$2:$C$109=ShockMaster!$F8))*1000000</f>
-        <v>0.31216209701302372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.54123939851972036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1008,10 +1021,10 @@
       </c>
       <c r="M9" s="9" cm="1">
         <f t="array" ref="M9">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H9,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H9,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C9,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H9,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C9,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H9,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A9)*(Prices!$B$2:$B$109=ShockMaster!$B9)*(Prices!$C$2:$C$109=ShockMaster!$F9))*1000000</f>
-        <v>8.2531549090775522E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14309657199326309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1042,10 +1055,10 @@
       </c>
       <c r="M10" s="9" cm="1">
         <f t="array" ref="M10">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H10,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H10,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C10,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H10,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C10,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H10,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A10)*(Prices!$B$2:$B$109=ShockMaster!$B10)*(Prices!$C$2:$C$109=ShockMaster!$F10))*1000000</f>
-        <v>0.15707723201679688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.27234692293333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1076,10 +1089,10 @@
       </c>
       <c r="M11" s="9" cm="1">
         <f t="array" ref="M11">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H11,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H11,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C11,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H11,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C11,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H11,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A11)*(Prices!$B$2:$B$109=ShockMaster!$B11)*(Prices!$C$2:$C$109=ShockMaster!$F11))*1000000</f>
-        <v>0.31075596144089296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.5461751307809215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1110,10 +1123,10 @@
       </c>
       <c r="M12" s="9" cm="1">
         <f t="array" ref="M12">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H12,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H12,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C12,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H12,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C12,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H12,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A12)*(Prices!$B$2:$B$109=ShockMaster!$B12)*(Prices!$C$2:$C$109=ShockMaster!$F12))*1000000</f>
-        <v>8.2159785356132387E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14440151462823408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1144,10 +1157,10 @@
       </c>
       <c r="M13" s="9" cm="1">
         <f t="array" ref="M13">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H13,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H13,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C13,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H13,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C13,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H13,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A13)*(Prices!$B$2:$B$109=ShockMaster!$B13)*(Prices!$C$2:$C$109=ShockMaster!$F13))*1000000</f>
-        <v>0.1563696769176221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.2748305401597167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1178,10 +1191,10 @@
       </c>
       <c r="M14" s="9" cm="1">
         <f t="array" ref="M14">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H14,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H14,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C14,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H14,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C14,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H14,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A14)*(Prices!$B$2:$B$109=ShockMaster!$B14)*(Prices!$C$2:$C$109=ShockMaster!$F14))*1000000</f>
-        <v>0.31216209701302372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.55596795634214091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1212,10 +1225,10 @@
       </c>
       <c r="M15" s="9" cm="1">
         <f t="array" ref="M15">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H15,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H15,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C15,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H15,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C15,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H15,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A15)*(Prices!$B$2:$B$109=ShockMaster!$B15)*(Prices!$C$2:$C$109=ShockMaster!$F15))*1000000</f>
-        <v>8.2531549090775522E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14699060879205711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1246,10 +1259,10 @@
       </c>
       <c r="M16" s="9" cm="1">
         <f t="array" ref="M16">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H16,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H16,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C16,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H16,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C16,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H16,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A16)*(Prices!$B$2:$B$109=ShockMaster!$B16)*(Prices!$C$2:$C$109=ShockMaster!$F16))*1000000</f>
-        <v>0.15707723201679688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.27975820417625963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1280,10 +1293,10 @@
       </c>
       <c r="M17" s="9" cm="1">
         <f t="array" ref="M17">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H17,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H17,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C17,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H17,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C17,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H17,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A17)*(Prices!$B$2:$B$109=ShockMaster!$B17)*(Prices!$C$2:$C$109=ShockMaster!$F17))*1000000</f>
-        <v>0.3135810156358102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.57573665896435089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1314,10 +1327,10 @@
       </c>
       <c r="M18" s="9" cm="1">
         <f t="array" ref="M18">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H18,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H18,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C18,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H18,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C18,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H18,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A18)*(Prices!$B$2:$B$109=ShockMaster!$B18)*(Prices!$C$2:$C$109=ShockMaster!$F18))*1000000</f>
-        <v>8.2906692495733597E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.15221719352651894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1348,10 +1361,10 @@
       </c>
       <c r="M19" s="9" cm="1">
         <f t="array" ref="M19">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H19,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H19,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C19,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H19,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C19,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H19,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A19)*(Prices!$B$2:$B$109=ShockMaster!$B19)*(Prices!$C$2:$C$109=ShockMaster!$F19))*1000000</f>
-        <v>0.15779121943505503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.28970564212011218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1382,10 +1395,10 @@
       </c>
       <c r="M20" s="9" cm="1">
         <f t="array" ref="M20">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H20,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H20,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C20,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H20,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C20,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H20,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A20)*(Prices!$B$2:$B$109=ShockMaster!$B20)*(Prices!$C$2:$C$109=ShockMaster!$F20))*1000000</f>
-        <v>0.31216209701302372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.55221821732451815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1416,10 +1429,10 @@
       </c>
       <c r="M21" s="9" cm="1">
         <f t="array" ref="M21">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H21,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H21,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C21,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H21,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C21,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H21,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A21)*(Prices!$B$2:$B$109=ShockMaster!$B21)*(Prices!$C$2:$C$109=ShockMaster!$F21))*1000000</f>
-        <v>8.2531549090775522E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14599922715805425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1450,10 +1463,10 @@
       </c>
       <c r="M22" s="9" cm="1">
         <f t="array" ref="M22">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H22,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H22,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C22,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H22,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C22,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H22,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A22)*(Prices!$B$2:$B$109=ShockMaster!$B22)*(Prices!$C$2:$C$109=ShockMaster!$F22))*1000000</f>
-        <v>0.15707723201679688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.27787136835823595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1484,10 +1497,10 @@
       </c>
       <c r="M23" s="9" cm="1">
         <f t="array" ref="M23">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H23,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H23,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C23,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H23,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C23,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H23,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A23)*(Prices!$B$2:$B$109=ShockMaster!$B23)*(Prices!$C$2:$C$109=ShockMaster!$F23))*1000000</f>
-        <v>0.30936243695012666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.58502522001001034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1518,10 +1531,10 @@
       </c>
       <c r="M24" s="9" cm="1">
         <f t="array" ref="M24">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H24,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H24,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C24,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H24,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C24,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H24,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A24)*(Prices!$B$2:$B$109=ShockMaster!$B24)*(Prices!$C$2:$C$109=ShockMaster!$F24))*1000000</f>
-        <v>8.1791355825387407E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.15467296679065912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1552,10 +1565,10 @@
       </c>
       <c r="M25" s="9" cm="1">
         <f t="array" ref="M25">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H25,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H25,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C25,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H25,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C25,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H25,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A25)*(Prices!$B$2:$B$109=ShockMaster!$B25)*(Prices!$C$2:$C$109=ShockMaster!$F25))*1000000</f>
-        <v>0.15566846760409017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.29437956465084908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1586,10 +1599,10 @@
       </c>
       <c r="M26" s="9" cm="1">
         <f t="array" ref="M26">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H26,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H26,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C26,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H26,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C26,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H26,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A26)*(Prices!$B$2:$B$109=ShockMaster!$B26)*(Prices!$C$2:$C$109=ShockMaster!$F26))*1000000</f>
-        <v>0.30661254862168102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.54805565590339644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1620,10 +1633,10 @@
       </c>
       <c r="M27" s="9" cm="1">
         <f t="array" ref="M27">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H27,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H27,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C27,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H27,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C27,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H27,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A27)*(Prices!$B$2:$B$109=ShockMaster!$B27)*(Prices!$C$2:$C$109=ShockMaster!$F27))*1000000</f>
-        <v>8.1064321551383961E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14489870071503663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1654,10 +1667,10 @@
       </c>
       <c r="M28" s="9" cm="1">
         <f t="array" ref="M28">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H28,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H28,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C28,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H28,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C28,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H28,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A28)*(Prices!$B$2:$B$109=ShockMaster!$B28)*(Prices!$C$2:$C$109=ShockMaster!$F28))*1000000</f>
-        <v>0.15428474789205379</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.27577680392396897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1691,7 +1704,7 @@
         <v>0.81472674795357813</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1725,7 +1738,7 @@
         <v>0.21540302694562333</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1759,7 +1772,7 @@
         <v>0.40996336084087537</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1793,7 +1806,7 @@
         <v>0.81312420338824976</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1827,7 +1840,7 @@
         <v>0.21497933525874297</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1861,7 +1874,7 @@
         <v>0.40915697445728166</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1895,7 +1908,7 @@
         <v>0.80074082768436972</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1942,7 @@
         <v>0.21170533373968076</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1963,7 +1976,7 @@
         <v>0.40292576830764987</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1997,7 +2010,7 @@
         <v>0.8120724534316448</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2031,7 +2044,7 @@
         <v>0.21470126641564719</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2065,7 +2078,7 @@
         <v>0.40862774309467198</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2099,7 +2112,7 @@
         <v>0.82478248388439546</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2133,7 +2146,7 @@
         <v>0.21806163115016741</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2167,7 +2180,7 @@
         <v>0.41502331905174916</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2201,7 +2214,7 @@
         <v>0.85616637136841112</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2235,7 +2248,7 @@
         <v>0.22635911785765309</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2269,7 +2282,7 @@
         <v>0.43081541624447817</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>0.85044556295581764</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2337,7 +2350,7 @@
         <v>0.22484661142314133</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2371,7 +2384,7 @@
         <v>0.42793675557764166</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2418,7 @@
         <v>0.79603060270441095</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2452,7 @@
         <v>0.21046001226125075</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2473,7 +2486,7 @@
         <v>0.40055562436926695</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2507,7 +2520,7 @@
         <v>0.77302799559110935</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -2541,7 +2554,7 @@
         <v>0.20437842575105997</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2575,7 +2588,7 @@
         <v>0.38898091402133972</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2609,7 +2622,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2643,7 +2656,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2677,7 +2690,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2711,7 +2724,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2745,7 +2758,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2779,7 +2792,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2813,7 +2826,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -2847,7 +2860,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -2881,7 +2894,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -2915,7 +2928,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -2949,7 +2962,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2983,7 +2996,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -3017,7 +3030,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3051,7 +3064,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -3085,7 +3098,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3119,7 +3132,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -3153,7 +3166,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3187,7 +3200,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3221,7 +3234,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -3255,7 +3268,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -3289,7 +3302,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -3323,7 +3336,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3357,7 +3370,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3391,7 +3404,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -3425,7 +3438,7 @@
         <v>0.79250778065167293</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -3459,7 +3472,7 @@
         <v>0.20952862448558662</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -3493,7 +3506,7 @@
         <v>0.39878297117970074</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3524,10 +3537,10 @@
       </c>
       <c r="M83" s="9" cm="1">
         <f t="array" ref="M83">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H83,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H83,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C83,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H83,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C83,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H83,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A83)*(Prices!$B$2:$B$109=ShockMaster!$B83)*(Prices!$C$2:$C$109=ShockMaster!$F83))*1000000</f>
-        <v>0.2384371777875976</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.41454316564002142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3558,10 +3571,10 @@
       </c>
       <c r="M84" s="9" cm="1">
         <f t="array" ref="M84">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H84,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H84,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C84,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H84,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C84,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H84,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A84)*(Prices!$B$2:$B$109=ShockMaster!$B84)*(Prices!$C$2:$C$109=ShockMaster!$F84))*1000000</f>
-        <v>5.4033986550873103E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.3942647890686432E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3592,10 +3605,10 @@
       </c>
       <c r="M85" s="9" cm="1">
         <f t="array" ref="M85">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H85,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H85,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C85,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H85,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C85,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H85,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A85)*(Prices!$B$2:$B$109=ShockMaster!$B85)*(Prices!$C$2:$C$109=ShockMaster!$F85))*1000000</f>
-        <v>0.10498206131767777</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.18252017759081476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3626,10 +3639,10 @@
       </c>
       <c r="M86" s="9" cm="1">
         <f t="array" ref="M86">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H86,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H86,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C86,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H86,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C86,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H86,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A86)*(Prices!$B$2:$B$109=ShockMaster!$B86)*(Prices!$C$2:$C$109=ShockMaster!$F86))*1000000</f>
-        <v>0.23412157275976775</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.40805865226430332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -3660,10 +3673,10 @@
       </c>
       <c r="M87" s="9" cm="1">
         <f t="array" ref="M87">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H87,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H87,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C87,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H87,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C87,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H87,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A87)*(Prices!$B$2:$B$109=ShockMaster!$B87)*(Prices!$C$2:$C$109=ShockMaster!$F87))*1000000</f>
-        <v>5.3055995844069968E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.2473145056507486E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -3694,10 +3707,10 @@
       </c>
       <c r="M88" s="9" cm="1">
         <f t="array" ref="M88">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H88,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H88,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C88,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H88,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C88,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H88,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A88)*(Prices!$B$2:$B$109=ShockMaster!$B88)*(Prices!$C$2:$C$109=ShockMaster!$F88))*1000000</f>
-        <v>0.10308193351102297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.17966509606728087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -3728,10 +3741,10 @@
       </c>
       <c r="M89" s="9" cm="1">
         <f t="array" ref="M89">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H89,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H89,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C89,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H89,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C89,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H89,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A89)*(Prices!$B$2:$B$109=ShockMaster!$B89)*(Prices!$C$2:$C$109=ShockMaster!$F89))*1000000</f>
-        <v>0.23412157275976775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.40592954888979027</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -3762,10 +3775,10 @@
       </c>
       <c r="M90" s="9" cm="1">
         <f t="array" ref="M90">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H90,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H90,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C90,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H90,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C90,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H90,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A90)*(Prices!$B$2:$B$109=ShockMaster!$B90)*(Prices!$C$2:$C$109=ShockMaster!$F90))*1000000</f>
-        <v>5.3055995844069968E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.1990653424240537E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -3796,10 +3809,10 @@
       </c>
       <c r="M91" s="9" cm="1">
         <f t="array" ref="M91">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H91,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H91,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C91,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H91,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C91,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H91,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A91)*(Prices!$B$2:$B$109=ShockMaster!$B91)*(Prices!$C$2:$C$109=ShockMaster!$F91))*1000000</f>
-        <v>0.10308193351102297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.17872766817500008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -3830,10 +3843,10 @@
       </c>
       <c r="M92" s="9" cm="1">
         <f t="array" ref="M92">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H92,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H92,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C92,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H92,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C92,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H92,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A92)*(Prices!$B$2:$B$109=ShockMaster!$B92)*(Prices!$C$2:$C$109=ShockMaster!$F92))*1000000</f>
-        <v>0.2330669710806697</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.40963134808569113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -3864,10 +3877,10 @@
       </c>
       <c r="M93" s="9" cm="1">
         <f t="array" ref="M93">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H93,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H93,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C93,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H93,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C93,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H93,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A93)*(Prices!$B$2:$B$109=ShockMaster!$B93)*(Prices!$C$2:$C$109=ShockMaster!$F93))*1000000</f>
-        <v>5.281700487179939E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.2829545118150461E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -3898,10 +3911,10 @@
       </c>
       <c r="M94" s="9" cm="1">
         <f t="array" ref="M94">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H94,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H94,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C94,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H94,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C94,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H94,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A94)*(Prices!$B$2:$B$109=ShockMaster!$B94)*(Prices!$C$2:$C$109=ShockMaster!$F94))*1000000</f>
-        <v>0.10261760047718953</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.1803575419798141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -3932,10 +3945,10 @@
       </c>
       <c r="M95" s="9" cm="1">
         <f t="array" ref="M95">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H95,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H95,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C95,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H95,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C95,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H95,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A95)*(Prices!$B$2:$B$109=ShockMaster!$B95)*(Prices!$C$2:$C$109=ShockMaster!$F95))*1000000</f>
-        <v>0.23412157275976775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.41697596725660563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -3966,10 +3979,10 @@
       </c>
       <c r="M96" s="9" cm="1">
         <f t="array" ref="M96">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H96,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H96,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C96,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H96,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C96,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H96,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A96)*(Prices!$B$2:$B$109=ShockMaster!$B96)*(Prices!$C$2:$C$109=ShockMaster!$F96))*1000000</f>
-        <v>5.3055995844069968E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.4493962794893846E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -4000,10 +4013,10 @@
       </c>
       <c r="M97" s="9" cm="1">
         <f t="array" ref="M97">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H97,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H97,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C97,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H97,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C97,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H97,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A97)*(Prices!$B$2:$B$109=ShockMaster!$B97)*(Prices!$C$2:$C$109=ShockMaster!$F97))*1000000</f>
-        <v>0.10308193351102297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.18359132149067042</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4034,10 +4047,10 @@
       </c>
       <c r="M98" s="9" cm="1">
         <f t="array" ref="M98">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H98,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H98,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C98,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H98,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C98,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H98,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A98)*(Prices!$B$2:$B$109=ShockMaster!$B98)*(Prices!$C$2:$C$109=ShockMaster!$F98))*1000000</f>
-        <v>0.23518576172685762</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.43180249422326311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4068,10 +4081,10 @@
       </c>
       <c r="M99" s="9" cm="1">
         <f t="array" ref="M99">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H99,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H99,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C99,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H99,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C99,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H99,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A99)*(Prices!$B$2:$B$109=ShockMaster!$B99)*(Prices!$C$2:$C$109=ShockMaster!$F99))*1000000</f>
-        <v>5.3297159461543016E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.7853910124190729E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4102,10 +4115,10 @@
       </c>
       <c r="M100" s="9" cm="1">
         <f t="array" ref="M100">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H100,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H100,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C100,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H100,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C100,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H100,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A100)*(Prices!$B$2:$B$109=ShockMaster!$B100)*(Prices!$C$2:$C$109=ShockMaster!$F100))*1000000</f>
-        <v>0.10355048775425489</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.19011932764132367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4136,10 +4149,10 @@
       </c>
       <c r="M101" s="9" cm="1">
         <f t="array" ref="M101">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H101,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H101,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C101,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H101,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C101,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H101,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A101)*(Prices!$B$2:$B$109=ShockMaster!$B101)*(Prices!$C$2:$C$109=ShockMaster!$F101))*1000000</f>
-        <v>0.23412157275976775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.41416366299338858</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4170,10 +4183,10 @@
       </c>
       <c r="M102" s="9" cm="1">
         <f t="array" ref="M102">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H102,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H102,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C102,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H102,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C102,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H102,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A102)*(Prices!$B$2:$B$109=ShockMaster!$B102)*(Prices!$C$2:$C$109=ShockMaster!$F102))*1000000</f>
-        <v>5.3055995844069968E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.3856646030177723E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4204,10 +4217,10 @@
       </c>
       <c r="M103" s="9" cm="1">
         <f t="array" ref="M103">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H103,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H103,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C103,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H103,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C103,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H103,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A103)*(Prices!$B$2:$B$109=ShockMaster!$B103)*(Prices!$C$2:$C$109=ShockMaster!$F103))*1000000</f>
-        <v>0.10308193351102297</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.18235308548509238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -4238,10 +4251,10 @@
       </c>
       <c r="M104" s="9" cm="1">
         <f t="array" ref="M104">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H104,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H104,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C104,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H104,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C104,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H104,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A104)*(Prices!$B$2:$B$109=ShockMaster!$B104)*(Prices!$C$2:$C$109=ShockMaster!$F104))*1000000</f>
-        <v>0.23202182771259494</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.43876891500750775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -4272,10 +4285,10 @@
       </c>
       <c r="M105" s="9" cm="1">
         <f t="array" ref="M105">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H105,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H105,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C105,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H105,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C105,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H105,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A105)*(Prices!$B$2:$B$109=ShockMaster!$B105)*(Prices!$C$2:$C$109=ShockMaster!$F105))*1000000</f>
-        <v>5.2580157316320465E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.9432621508280847E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -4306,10 +4319,10 @@
       </c>
       <c r="M106" s="9" cm="1">
         <f t="array" ref="M106">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H106,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H106,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C106,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H106,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C106,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H106,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A106)*(Prices!$B$2:$B$109=ShockMaster!$B106)*(Prices!$C$2:$C$109=ShockMaster!$F106))*1000000</f>
-        <v>0.1021574318651842</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.19318658930211974</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -4340,10 +4353,10 @@
       </c>
       <c r="M107" s="9" cm="1">
         <f t="array" ref="M107">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H107,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H107,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C107,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H107,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C107,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H107,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A107)*(Prices!$B$2:$B$109=ShockMaster!$B107)*(Prices!$C$2:$C$109=ShockMaster!$F107))*1000000</f>
-        <v>0.22995941146626075</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.41104174192754739</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4374,10 +4387,10 @@
       </c>
       <c r="M108" s="9" cm="1">
         <f t="array" ref="M108">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H108,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H108,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C108,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H108,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C108,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H108,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A108)*(Prices!$B$2:$B$109=ShockMaster!$B108)*(Prices!$C$2:$C$109=ShockMaster!$F108))*1000000</f>
-        <v>5.2112778140175398E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.314916474538068E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -4408,10 +4421,10 @@
       </c>
       <c r="M109" s="9" cm="1">
         <f t="array" ref="M109">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H109,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H109,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C109,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H109,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C109,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H109,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A109)*(Prices!$B$2:$B$109=ShockMaster!$B109)*(Prices!$C$2:$C$109=ShockMaster!$F109))*1000000</f>
-        <v>0.10124936580416033</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.18097852757510463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -4445,7 +4458,7 @@
         <v>0.61104506096518352</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -4479,7 +4492,7 @@
         <v>0.13847337446504354</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -4513,7 +4526,7 @@
         <v>0.26903845555182448</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -4547,7 +4560,7 @@
         <v>0.60984315254118726</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -4581,7 +4594,7 @@
         <v>0.13820100123776333</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -4615,7 +4628,7 @@
         <v>0.26850926448759116</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -4649,7 +4662,7 @@
         <v>0.60055562076327729</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -4683,7 +4696,7 @@
         <v>0.13609628597550902</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -4717,7 +4730,7 @@
         <v>0.26442003545189524</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4751,7 +4764,7 @@
         <v>0.60905434007373349</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -4785,7 +4798,7 @@
         <v>0.13802224269577318</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -4819,7 +4832,7 @@
         <v>0.26816195640587859</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -4853,7 +4866,7 @@
         <v>0.61858686291329656</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -4887,7 +4900,7 @@
         <v>0.14018247716796478</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -4921,7 +4934,7 @@
         <v>0.27235905312771042</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -4955,7 +4968,7 @@
         <v>0.64212477852630823</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -4989,7 +5002,7 @@
         <v>0.14551657576563409</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5023,7 +5036,7 @@
         <v>0.28272261691043887</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5057,7 +5070,7 @@
         <v>0.63783417221686312</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -5091,7 +5104,7 @@
         <v>0.14454425020059083</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -5125,7 +5138,7 @@
         <v>0.28083349584782741</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -5159,7 +5172,7 @@
         <v>0.59702295202830813</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -5193,7 +5206,7 @@
         <v>0.13529572216794691</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -5329,7 +5342,7 @@
         <v>0.25526872482650426</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>34</v>
       </c>
@@ -5363,7 +5376,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -5397,7 +5410,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -5431,7 +5444,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -5465,7 +5478,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>34</v>
       </c>
@@ -5499,7 +5512,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>34</v>
       </c>
@@ -5533,7 +5546,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -5567,7 +5580,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>34</v>
       </c>
@@ -5601,7 +5614,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>34</v>
       </c>
@@ -5635,7 +5648,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -5669,7 +5682,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -5703,7 +5716,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -5737,7 +5750,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>34</v>
       </c>
@@ -5771,7 +5784,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -5805,7 +5818,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -5839,7 +5852,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -5873,7 +5886,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -5907,7 +5920,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -5941,7 +5954,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -5975,7 +5988,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -6009,7 +6022,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -6043,7 +6056,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -6077,7 +6090,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>34</v>
       </c>
@@ -6111,7 +6124,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>34</v>
       </c>
@@ -6145,7 +6158,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -6179,7 +6192,7 @@
         <v>0.59438083548875464</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>34</v>
       </c>
@@ -6213,7 +6226,7 @@
         <v>0.13469697288359136</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>34</v>
       </c>
@@ -6247,7 +6260,7 @@
         <v>0.26170132483667874</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -6278,10 +6291,10 @@
       </c>
       <c r="M164" s="9" cm="1">
         <f t="array" ref="M164">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H164,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H164,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C164,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H164,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C164,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H164,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A164)*(Prices!$B$2:$B$109=ShockMaster!$B164)*(Prices!$C$2:$C$109=ShockMaster!$F164))*1000000</f>
-        <v>0.18700955120595888</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.32513189461962466</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -6312,10 +6325,10 @@
       </c>
       <c r="M165" s="9" cm="1">
         <f t="array" ref="M165">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H165,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H165,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C165,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H165,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C165,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H165,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A165)*(Prices!$B$2:$B$109=ShockMaster!$B165)*(Prices!$C$2:$C$109=ShockMaster!$F165))*1000000</f>
-        <v>3.7823790585611174E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.5759853523480502E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -6346,10 +6359,10 @@
       </c>
       <c r="M166" s="9" cm="1">
         <f t="array" ref="M166">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H166,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H166,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C166,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H166,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C166,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H166,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A166)*(Prices!$B$2:$B$109=ShockMaster!$B166)*(Prices!$C$2:$C$109=ShockMaster!$F166))*1000000</f>
-        <v>7.4653910270348622E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.12979212628680159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -6380,10 +6393,10 @@
       </c>
       <c r="M167" s="9" cm="1">
         <f t="array" ref="M167">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H167,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H167,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C167,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H167,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C167,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H167,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A167)*(Prices!$B$2:$B$109=ShockMaster!$B167)*(Prices!$C$2:$C$109=ShockMaster!$F167))*1000000</f>
-        <v>0.18362476294883745</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.32004600177592418</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -6414,10 +6427,10 @@
       </c>
       <c r="M168" s="9" cm="1">
         <f t="array" ref="M168">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H168,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H168,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C168,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H168,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C168,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H168,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A168)*(Prices!$B$2:$B$109=ShockMaster!$B168)*(Prices!$C$2:$C$109=ShockMaster!$F168))*1000000</f>
-        <v>3.713919709084898E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.4731201539555236E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -6448,10 +6461,10 @@
       </c>
       <c r="M169" s="9" cm="1">
         <f t="array" ref="M169">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H169,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H169,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C169,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H169,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C169,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H169,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A169)*(Prices!$B$2:$B$109=ShockMaster!$B169)*(Prices!$C$2:$C$109=ShockMaster!$F169))*1000000</f>
-        <v>7.3302708274505204E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.12776184609228858</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -6482,10 +6495,10 @@
       </c>
       <c r="M170" s="9" cm="1">
         <f t="array" ref="M170">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H170,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H170,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C170,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H170,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C170,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H170,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A170)*(Prices!$B$2:$B$109=ShockMaster!$B170)*(Prices!$C$2:$C$109=ShockMaster!$F170))*1000000</f>
-        <v>0.18362476294883745</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.31837611677630601</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -6516,10 +6529,10 @@
       </c>
       <c r="M171" s="9" cm="1">
         <f t="array" ref="M171">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H171,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H171,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C171,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H171,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C171,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H171,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A171)*(Prices!$B$2:$B$109=ShockMaster!$B171)*(Prices!$C$2:$C$109=ShockMaster!$F171))*1000000</f>
-        <v>3.713919709084898E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.4393457396968376E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -6550,10 +6563,10 @@
       </c>
       <c r="M172" s="9" cm="1">
         <f t="array" ref="M172">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H172,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H172,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C172,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H172,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C172,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H172,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A172)*(Prices!$B$2:$B$109=ShockMaster!$B172)*(Prices!$C$2:$C$109=ShockMaster!$F172))*1000000</f>
-        <v>7.3302708274505204E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.12709523070222223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -6584,10 +6597,10 @@
       </c>
       <c r="M173" s="9" cm="1">
         <f t="array" ref="M173">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H173,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H173,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C173,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H173,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C173,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H173,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A173)*(Prices!$B$2:$B$109=ShockMaster!$B173)*(Prices!$C$2:$C$109=ShockMaster!$F173))*1000000</f>
-        <v>0.18279762437699584</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.32127948869465967</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -6618,10 +6631,10 @@
       </c>
       <c r="M174" s="9" cm="1">
         <f t="array" ref="M174">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H174,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H174,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C174,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H174,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C174,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H174,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A174)*(Prices!$B$2:$B$109=ShockMaster!$B174)*(Prices!$C$2:$C$109=ShockMaster!$F174))*1000000</f>
-        <v>3.697190341025957E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.4980681582705327E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -6652,10 +6665,10 @@
       </c>
       <c r="M175" s="9" cm="1">
         <f t="array" ref="M175">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H175,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H175,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C175,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H175,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C175,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H175,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A175)*(Prices!$B$2:$B$109=ShockMaster!$B175)*(Prices!$C$2:$C$109=ShockMaster!$F175))*1000000</f>
-        <v>7.297251589489033E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.12825425207453445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -6686,10 +6699,10 @@
       </c>
       <c r="M176" s="9" cm="1">
         <f t="array" ref="M176">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H176,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H176,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C176,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H176,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C176,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H176,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A176)*(Prices!$B$2:$B$109=ShockMaster!$B176)*(Prices!$C$2:$C$109=ShockMaster!$F176))*1000000</f>
-        <v>0.18362476294883745</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.32703997431890636</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -6720,10 +6733,10 @@
       </c>
       <c r="M177" s="9" cm="1">
         <f t="array" ref="M177">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H177,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H177,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C177,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H177,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C177,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H177,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A177)*(Prices!$B$2:$B$109=ShockMaster!$B177)*(Prices!$C$2:$C$109=ShockMaster!$F177))*1000000</f>
-        <v>3.713919709084898E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.6145773956425694E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -6754,10 +6767,10 @@
       </c>
       <c r="M178" s="9" cm="1">
         <f t="array" ref="M178">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H178,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H178,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C178,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H178,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C178,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H178,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A178)*(Prices!$B$2:$B$109=ShockMaster!$B178)*(Prices!$C$2:$C$109=ShockMaster!$F178))*1000000</f>
-        <v>7.3302708274505204E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.13055382861558784</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -6788,10 +6801,10 @@
       </c>
       <c r="M179" s="9" cm="1">
         <f t="array" ref="M179">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H179,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H179,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C179,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H179,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C179,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H179,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A179)*(Prices!$B$2:$B$109=ShockMaster!$B179)*(Prices!$C$2:$C$109=ShockMaster!$F179))*1000000</f>
-        <v>0.18445942096224124</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.33866862292020627</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -6822,10 +6835,10 @@
       </c>
       <c r="M180" s="9" cm="1">
         <f t="array" ref="M180">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H180,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H180,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C180,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H180,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C180,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H180,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A180)*(Prices!$B$2:$B$109=ShockMaster!$B180)*(Prices!$C$2:$C$109=ShockMaster!$F180))*1000000</f>
-        <v>3.7308011623080117E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.8497737086933519E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -6856,10 +6869,10 @@
       </c>
       <c r="M181" s="9" cm="1">
         <f t="array" ref="M181">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H181,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H181,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C181,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H181,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C181,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H181,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A181)*(Prices!$B$2:$B$109=ShockMaster!$B181)*(Prices!$C$2:$C$109=ShockMaster!$F181))*1000000</f>
-        <v>7.3635902403025685E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.13519596632271902</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -6890,10 +6903,10 @@
       </c>
       <c r="M182" s="9" cm="1">
         <f t="array" ref="M182">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H182,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H182,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C182,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H182,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C182,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H182,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A182)*(Prices!$B$2:$B$109=ShockMaster!$B182)*(Prices!$C$2:$C$109=ShockMaster!$F182))*1000000</f>
-        <v>0.18362476294883745</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.32483424548501061</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -6924,10 +6937,10 @@
       </c>
       <c r="M183" s="9" cm="1">
         <f t="array" ref="M183">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H183,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H183,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C183,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H183,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C183,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H183,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A183)*(Prices!$B$2:$B$109=ShockMaster!$B183)*(Prices!$C$2:$C$109=ShockMaster!$F183))*1000000</f>
-        <v>3.713919709084898E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.5699652221124408E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -6958,10 +6971,10 @@
       </c>
       <c r="M184" s="9" cm="1">
         <f t="array" ref="M184">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H184,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H184,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C184,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H184,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C184,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H184,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A184)*(Prices!$B$2:$B$109=ShockMaster!$B184)*(Prices!$C$2:$C$109=ShockMaster!$F184))*1000000</f>
-        <v>7.3302708274505204E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.12967330523384346</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -6992,10 +7005,10 @@
       </c>
       <c r="M185" s="9" cm="1">
         <f t="array" ref="M185">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H185,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H185,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C185,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H185,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C185,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H185,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A185)*(Prices!$B$2:$B$109=ShockMaster!$B185)*(Prices!$C$2:$C$109=ShockMaster!$F185))*1000000</f>
-        <v>0.18197790408830977</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.34413248235882959</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -7026,10 +7039,10 @@
       </c>
       <c r="M186" s="9" cm="1">
         <f t="array" ref="M186">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H186,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H186,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C186,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H186,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C186,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H186,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A186)*(Prices!$B$2:$B$109=ShockMaster!$B186)*(Prices!$C$2:$C$109=ShockMaster!$F186))*1000000</f>
-        <v>3.6806110121424325E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.9602835055796591E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -7060,10 +7073,10 @@
       </c>
       <c r="M187" s="9" cm="1">
         <f t="array" ref="M187">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H187,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H187,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C187,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H187,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C187,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H187,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A187)*(Prices!$B$2:$B$109=ShockMaster!$B187)*(Prices!$C$2:$C$109=ShockMaster!$F187))*1000000</f>
-        <v>7.2645284881908745E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.13737713017039627</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -7094,10 +7107,10 @@
       </c>
       <c r="M188" s="9" cm="1">
         <f t="array" ref="M188">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H188,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H188,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C188,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H188,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C188,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H188,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A188)*(Prices!$B$2:$B$109=ShockMaster!$B188)*(Prices!$C$2:$C$109=ShockMaster!$F188))*1000000</f>
-        <v>0.18036032271863589</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.32238567994317435</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -7128,10 +7141,10 @@
       </c>
       <c r="M189" s="9" cm="1">
         <f t="array" ref="M189">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H189,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H189,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C189,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H189,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C189,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H189,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A189)*(Prices!$B$2:$B$109=ShockMaster!$B189)*(Prices!$C$2:$C$109=ShockMaster!$F189))*1000000</f>
-        <v>3.6478944698122774E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.5204415321766476E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -7162,10 +7175,10 @@
       </c>
       <c r="M190" s="9" cm="1">
         <f t="array" ref="M190">INDEX('Support data'!$C$8:$E$8,1,MATCH(ShockMaster!$H190,'Support data'!$C$5:$E$5,0))*INDEX('Support data'!$C$6:$E$6,1,MATCH(ShockMaster!$H190,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$21:$E$23,MATCH($C190,'Support data'!$A$21:$A$23,0),MATCH(ShockMaster!$H190,'Support data'!$C$5:$E$5,0))/INDEX('Support data'!$C$16:$E$18,MATCH($C190,'Support data'!$A$16:$A$18,0),MATCH(ShockMaster!$H190,'Support data'!$C$5:$E$5,0))/1000/_xlfn._xlws.FILTER(Prices!$D$2:$D$109,(Prices!$A$2:$A$109=ShockMaster!$A190)*(Prices!$B$2:$B$109=ShockMaster!$B190)*(Prices!$C$2:$C$109=ShockMaster!$F190))*1000000</f>
-        <v>7.1999549016291783E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.12869584183118549</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -7199,7 +7212,7 @@
         <v>0.47925102820798704</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -7233,7 +7246,7 @@
         <v>9.6931362125530482E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -7267,7 +7280,7 @@
         <v>0.19131623505907516</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -7301,7 +7314,7 @@
         <v>0.47830835493426449</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -7335,7 +7348,7 @@
         <v>9.6740700866434326E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -7369,7 +7382,7 @@
         <v>0.19093992141339813</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>33</v>
       </c>
@@ -7403,7 +7416,7 @@
         <v>0.4710240162849233</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>33</v>
       </c>
@@ -7437,7 +7450,7 @@
         <v>9.5267400182856316E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>33</v>
       </c>
@@ -7471,7 +7484,7 @@
         <v>0.1880320252102366</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -7505,7 +7518,7 @@
         <v>0.47768967848920274</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>33</v>
       </c>
@@ -7539,7 +7552,7 @@
         <v>9.6615569887041217E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>33</v>
       </c>
@@ -7573,7 +7586,7 @@
         <v>0.19069294677751361</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>33</v>
       </c>
@@ -7607,7 +7620,7 @@
         <v>0.48516616699082082</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>33</v>
       </c>
@@ -7641,7 +7654,7 @@
         <v>9.8127734017575324E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>33</v>
       </c>
@@ -7675,7 +7688,7 @@
         <v>0.19367754889081629</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>33</v>
       </c>
@@ -7709,7 +7722,7 @@
         <v>0.50362727727553591</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>33</v>
       </c>
@@ -7743,7 +7756,7 @@
         <v>0.10186160303594387</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>33</v>
       </c>
@@ -7777,7 +7790,7 @@
         <v>0.20104719424742315</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -7811,7 +7824,7 @@
         <v>0.50026209585636328</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>33</v>
       </c>
@@ -7845,7 +7858,7 @@
         <v>0.10118097514041359</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>33</v>
       </c>
@@ -7879,7 +7892,7 @@
         <v>0.19970381926956612</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>33</v>
       </c>
@@ -7913,7 +7926,7 @@
         <v>0.46825329570847696</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -7947,7 +7960,7 @@
         <v>9.4707005517562823E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>33</v>
       </c>
@@ -7981,7 +7994,7 @@
         <v>0.18692595803899129</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -8015,7 +8028,7 @@
         <v>0.4547223503477113</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -8049,7 +8062,7 @@
         <v>9.1970291587976968E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>33</v>
       </c>
@@ -8083,7 +8096,7 @@
         <v>0.1815244265432919</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>34</v>
       </c>
@@ -8117,7 +8130,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -8151,7 +8164,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -8185,7 +8198,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -8219,7 +8232,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -8253,7 +8266,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>34</v>
       </c>
@@ -8287,7 +8300,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -8321,7 +8334,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>34</v>
       </c>
@@ -8355,7 +8368,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -8389,7 +8402,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>34</v>
       </c>
@@ -8423,7 +8436,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>34</v>
       </c>
@@ -8457,7 +8470,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -8491,7 +8504,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>34</v>
       </c>
@@ -8525,7 +8538,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>34</v>
       </c>
@@ -8559,7 +8572,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>34</v>
       </c>
@@ -8593,7 +8606,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>34</v>
       </c>
@@ -8627,7 +8640,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -8661,7 +8674,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>34</v>
       </c>
@@ -8695,7 +8708,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>34</v>
       </c>
@@ -8729,7 +8742,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>34</v>
       </c>
@@ -8763,7 +8776,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>34</v>
       </c>
@@ -8797,7 +8810,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>34</v>
       </c>
@@ -8831,7 +8844,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>34</v>
       </c>
@@ -8865,7 +8878,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>34</v>
       </c>
@@ -8899,7 +8912,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -8933,7 +8946,7 @@
         <v>0.46618104744216043</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>34</v>
       </c>
@@ -8967,7 +8980,7 @@
         <v>9.4287881018513972E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>34</v>
       </c>
@@ -9001,7 +9014,7 @@
         <v>0.18609871988386037</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -9029,10 +9042,10 @@
       </c>
       <c r="M245" s="9" cm="1">
         <f t="array" ref="M245">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G245,'Support data'!$C$1:$D$1,0))-IF($G245="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A245)*($B$2:$B$82=$B245)*($F$2:$F$82=$F245)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A245)*($B$2:$B$82=$B245)*($F$2:$F$82=$F245)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A245)*($B$2:$B$82=$B245)*($F$2:$F$82=$F245)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G245,'Support data'!$C$1:$D$1,0))-IF($G245="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A245)*($B$2:$B$82=$B245)*($F$2:$F$82=$F245)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A245)*($B$2:$B$82=$B245)*($F$2:$F$82=$F245)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A245)*($B$2:$B$82=$B245)*($F$2:$F$82=$F245)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.15264576294986981</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -9060,10 +9073,10 @@
       </c>
       <c r="M246" s="9" cm="1">
         <f t="array" ref="M246">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G246,'Support data'!$C$1:$D$1,0))-IF($G246="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A246)*($B$2:$B$82=$B246)*($F$2:$F$82=$F246)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A246)*($B$2:$B$82=$B246)*($F$2:$F$82=$F246)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A246)*($B$2:$B$82=$B246)*($F$2:$F$82=$F246)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G246,'Support data'!$C$1:$D$1,0))-IF($G246="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A246)*($B$2:$B$82=$B246)*($F$2:$F$82=$F246)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A246)*($B$2:$B$82=$B246)*($F$2:$F$82=$F246)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A246)*($B$2:$B$82=$B246)*($F$2:$F$82=$F246)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.20886346716694243</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.8630007269754176E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -9091,10 +9104,10 @@
       </c>
       <c r="M247" s="9" cm="1">
         <f t="array" ref="M247">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G247,'Support data'!$C$1:$D$1,0))-IF($G247="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A247)*($B$2:$B$82=$B247)*($F$2:$F$82=$F247)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A247)*($B$2:$B$82=$B247)*($F$2:$F$82=$F247)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A247)*($B$2:$B$82=$B247)*($F$2:$F$82=$F247)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G247,'Support data'!$C$1:$D$1,0))-IF($G247="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A247)*($B$2:$B$82=$B247)*($F$2:$F$82=$F247)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A247)*($B$2:$B$82=$B247)*($F$2:$F$82=$F247)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A247)*($B$2:$B$82=$B247)*($F$2:$F$82=$F247)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.15839990298697626</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -9122,10 +9135,10 @@
       </c>
       <c r="M248" s="9" cm="1">
         <f t="array" ref="M248">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G248,'Support data'!$C$1:$D$1,0))-IF($G248="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A248)*($B$2:$B$82=$B248)*($F$2:$F$82=$F248)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A248)*($B$2:$B$82=$B248)*($F$2:$F$82=$F248)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A248)*($B$2:$B$82=$B248)*($F$2:$F$82=$F248)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G248,'Support data'!$C$1:$D$1,0))-IF($G248="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A248)*($B$2:$B$82=$B248)*($F$2:$F$82=$F248)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A248)*($B$2:$B$82=$B248)*($F$2:$F$82=$F248)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A248)*($B$2:$B$82=$B248)*($F$2:$F$82=$F248)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.2132802188924276</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.5266500984179494E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -9153,10 +9166,10 @@
       </c>
       <c r="M249" s="9" cm="1">
         <f t="array" ref="M249">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G249,'Support data'!$C$1:$D$1,0))-IF($G249="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A249)*($B$2:$B$82=$B249)*($F$2:$F$82=$F249)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A249)*($B$2:$B$82=$B249)*($F$2:$F$82=$F249)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A249)*($B$2:$B$82=$B249)*($F$2:$F$82=$F249)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G249,'Support data'!$C$1:$D$1,0))-IF($G249="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A249)*($B$2:$B$82=$B249)*($F$2:$F$82=$F249)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A249)*($B$2:$B$82=$B249)*($F$2:$F$82=$F249)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A249)*($B$2:$B$82=$B249)*($F$2:$F$82=$F249)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.15839990298697626</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -9184,10 +9197,10 @@
       </c>
       <c r="M250" s="9" cm="1">
         <f t="array" ref="M250">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G250,'Support data'!$C$1:$D$1,0))-IF($G250="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A250)*($B$2:$B$82=$B250)*($F$2:$F$82=$F250)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A250)*($B$2:$B$82=$B250)*($F$2:$F$82=$F250)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A250)*($B$2:$B$82=$B250)*($F$2:$F$82=$F250)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G250,'Support data'!$C$1:$D$1,0))-IF($G250="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A250)*($B$2:$B$82=$B250)*($F$2:$F$82=$F250)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A250)*($B$2:$B$82=$B250)*($F$2:$F$82=$F250)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A250)*($B$2:$B$82=$B250)*($F$2:$F$82=$F250)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.2132802188924276</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.7445505073403551E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -9215,10 +9228,10 @@
       </c>
       <c r="M251" s="9" cm="1">
         <f t="array" ref="M251">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G251,'Support data'!$C$1:$D$1,0))-IF($G251="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A251)*($B$2:$B$82=$B251)*($F$2:$F$82=$F251)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A251)*($B$2:$B$82=$B251)*($F$2:$F$82=$F251)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A251)*($B$2:$B$82=$B251)*($F$2:$F$82=$F251)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G251,'Support data'!$C$1:$D$1,0))-IF($G251="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A251)*($B$2:$B$82=$B251)*($F$2:$F$82=$F251)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A251)*($B$2:$B$82=$B251)*($F$2:$F$82=$F251)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A251)*($B$2:$B$82=$B251)*($F$2:$F$82=$F251)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.15980603855910702</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -9246,10 +9259,10 @@
       </c>
       <c r="M252" s="9" cm="1">
         <f t="array" ref="M252">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G252,'Support data'!$C$1:$D$1,0))-IF($G252="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A252)*($B$2:$B$82=$B252)*($F$2:$F$82=$F252)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A252)*($B$2:$B$82=$B252)*($F$2:$F$82=$F252)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A252)*($B$2:$B$82=$B252)*($F$2:$F$82=$F252)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G252,'Support data'!$C$1:$D$1,0))-IF($G252="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A252)*($B$2:$B$82=$B252)*($F$2:$F$82=$F252)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A252)*($B$2:$B$82=$B252)*($F$2:$F$82=$F252)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A252)*($B$2:$B$82=$B252)*($F$2:$F$82=$F252)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.2143595377262455</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.3656945212049205E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -9277,10 +9290,10 @@
       </c>
       <c r="M253" s="9" cm="1">
         <f t="array" ref="M253">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G253,'Support data'!$C$1:$D$1,0))-IF($G253="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A253)*($B$2:$B$82=$B253)*($F$2:$F$82=$F253)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A253)*($B$2:$B$82=$B253)*($F$2:$F$82=$F253)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A253)*($B$2:$B$82=$B253)*($F$2:$F$82=$F253)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G253,'Support data'!$C$1:$D$1,0))-IF($G253="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A253)*($B$2:$B$82=$B253)*($F$2:$F$82=$F253)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A253)*($B$2:$B$82=$B253)*($F$2:$F$82=$F253)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A253)*($B$2:$B$82=$B253)*($F$2:$F$82=$F253)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.15839990298697626</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -9308,10 +9321,10 @@
       </c>
       <c r="M254" s="9" cm="1">
         <f t="array" ref="M254">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G254,'Support data'!$C$1:$D$1,0))-IF($G254="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A254)*($B$2:$B$82=$B254)*($F$2:$F$82=$F254)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A254)*($B$2:$B$82=$B254)*($F$2:$F$82=$F254)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A254)*($B$2:$B$82=$B254)*($F$2:$F$82=$F254)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G254,'Support data'!$C$1:$D$1,0))-IF($G254="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A254)*($B$2:$B$82=$B254)*($F$2:$F$82=$F254)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A254)*($B$2:$B$82=$B254)*($F$2:$F$82=$F254)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A254)*($B$2:$B$82=$B254)*($F$2:$F$82=$F254)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.2132802188924276</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.6140187031683249E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -9339,10 +9352,10 @@
       </c>
       <c r="M255" s="9" cm="1">
         <f t="array" ref="M255">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G255,'Support data'!$C$1:$D$1,0))-IF($G255="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A255)*($B$2:$B$82=$B255)*($F$2:$F$82=$F255)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A255)*($B$2:$B$82=$B255)*($F$2:$F$82=$F255)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A255)*($B$2:$B$82=$B255)*($F$2:$F$82=$F255)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G255,'Support data'!$C$1:$D$1,0))-IF($G255="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A255)*($B$2:$B$82=$B255)*($F$2:$F$82=$F255)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A255)*($B$2:$B$82=$B255)*($F$2:$F$82=$F255)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A255)*($B$2:$B$82=$B255)*($F$2:$F$82=$F255)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.15698098436418978</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -9370,10 +9383,10 @@
       </c>
       <c r="M256" s="9" cm="1">
         <f t="array" ref="M256">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G256,'Support data'!$C$1:$D$1,0))-IF($G256="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A256)*($B$2:$B$82=$B256)*($F$2:$F$82=$F256)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A256)*($B$2:$B$82=$B256)*($F$2:$F$82=$F256)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A256)*($B$2:$B$82=$B256)*($F$2:$F$82=$F256)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G256,'Support data'!$C$1:$D$1,0))-IF($G256="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A256)*($B$2:$B$82=$B256)*($F$2:$F$82=$F256)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A256)*($B$2:$B$82=$B256)*($F$2:$F$82=$F256)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A256)*($B$2:$B$82=$B256)*($F$2:$F$82=$F256)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.21219108806921136</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.0966164353368835E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -9401,10 +9414,10 @@
       </c>
       <c r="M257" s="9" cm="1">
         <f t="array" ref="M257">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G257,'Support data'!$C$1:$D$1,0))-IF($G257="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A257)*($B$2:$B$82=$B257)*($F$2:$F$82=$F257)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A257)*($B$2:$B$82=$B257)*($F$2:$F$82=$F257)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A257)*($B$2:$B$82=$B257)*($F$2:$F$82=$F257)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G257,'Support data'!$C$1:$D$1,0))-IF($G257="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A257)*($B$2:$B$82=$B257)*($F$2:$F$82=$F257)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A257)*($B$2:$B$82=$B257)*($F$2:$F$82=$F257)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A257)*($B$2:$B$82=$B257)*($F$2:$F$82=$F257)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.15839990298697626</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -9432,10 +9445,10 @@
       </c>
       <c r="M258" s="9" cm="1">
         <f t="array" ref="M258">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G258,'Support data'!$C$1:$D$1,0))-IF($G258="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A258)*($B$2:$B$82=$B258)*($F$2:$F$82=$F258)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A258)*($B$2:$B$82=$B258)*($F$2:$F$82=$F258)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A258)*($B$2:$B$82=$B258)*($F$2:$F$82=$F258)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G258,'Support data'!$C$1:$D$1,0))-IF($G258="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A258)*($B$2:$B$82=$B258)*($F$2:$F$82=$F258)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A258)*($B$2:$B$82=$B258)*($F$2:$F$82=$F258)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A258)*($B$2:$B$82=$B258)*($F$2:$F$82=$F258)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.2132802188924276</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.9018404483709792E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -9463,10 +9476,10 @@
       </c>
       <c r="M259" s="9" cm="1">
         <f t="array" ref="M259">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G259,'Support data'!$C$1:$D$1,0))-IF($G259="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A259)*($B$2:$B$82=$B259)*($F$2:$F$82=$F259)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A259)*($B$2:$B$82=$B259)*($F$2:$F$82=$F259)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A259)*($B$2:$B$82=$B259)*($F$2:$F$82=$F259)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G259,'Support data'!$C$1:$D$1,0))-IF($G259="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A259)*($B$2:$B$82=$B259)*($F$2:$F$82=$F259)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A259)*($B$2:$B$82=$B259)*($F$2:$F$82=$F259)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A259)*($B$2:$B$82=$B259)*($F$2:$F$82=$F259)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.16119956304987332</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -9494,10 +9507,10 @@
       </c>
       <c r="M260" s="9" cm="1">
         <f t="array" ref="M260">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G260,'Support data'!$C$1:$D$1,0))-IF($G260="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A260)*($B$2:$B$82=$B260)*($F$2:$F$82=$F260)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A260)*($B$2:$B$82=$B260)*($F$2:$F$82=$F260)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A260)*($B$2:$B$82=$B260)*($F$2:$F$82=$F260)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G260,'Support data'!$C$1:$D$1,0))-IF($G260="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A260)*($B$2:$B$82=$B260)*($F$2:$F$82=$F260)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A260)*($B$2:$B$82=$B260)*($F$2:$F$82=$F260)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A260)*($B$2:$B$82=$B260)*($F$2:$F$82=$F260)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.21542917657052241</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.8364685584917901E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -9525,10 +9538,10 @@
       </c>
       <c r="M261" s="9" cm="1">
         <f t="array" ref="M261">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G261,'Support data'!$C$1:$D$1,0))-IF($G261="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A261)*($B$2:$B$82=$B261)*($F$2:$F$82=$F261)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A261)*($B$2:$B$82=$B261)*($F$2:$F$82=$F261)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A261)*($B$2:$B$82=$B261)*($F$2:$F$82=$F261)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G261,'Support data'!$C$1:$D$1,0))-IF($G261="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A261)*($B$2:$B$82=$B261)*($F$2:$F$82=$F261)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A261)*($B$2:$B$82=$B261)*($F$2:$F$82=$F261)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A261)*($B$2:$B$82=$B261)*($F$2:$F$82=$F261)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.16394945137831896</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -9556,10 +9569,10 @@
       </c>
       <c r="M262" s="9" cm="1">
         <f t="array" ref="M262">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G262,'Support data'!$C$1:$D$1,0))-IF($G262="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A262)*($B$2:$B$82=$B262)*($F$2:$F$82=$F262)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A262)*($B$2:$B$82=$B262)*($F$2:$F$82=$F262)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A262)*($B$2:$B$82=$B262)*($F$2:$F$82=$F262)*($H$2:$H$82="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G262,'Support data'!$C$1:$D$1,0))-IF($G262="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A262)*($B$2:$B$82=$B262)*($F$2:$F$82=$F262)*($H$2:$H$82="Photovoltaic plants")),_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A262)*($B$2:$B$82=$B262)*($F$2:$F$82=$F262)*($H$2:$H$82="Onshore wind plants"))+_xlfn._xlws.FILTER($M$2:$M$82,($A$2:$A$82=$A262)*($B$2:$B$82=$B262)*($F$2:$F$82=$F262)*($H$2:$H$82="Offshore wind plants"))))</f>
-        <v>0.21753993055656223</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.2213495360994382E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>33</v>
       </c>
@@ -9590,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>33</v>
       </c>
@@ -9621,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -9652,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>33</v>
       </c>
@@ -9683,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -9714,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>33</v>
       </c>
@@ -9745,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>33</v>
       </c>
@@ -9776,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>33</v>
       </c>
@@ -9807,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>33</v>
       </c>
@@ -9838,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>33</v>
       </c>
@@ -9869,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>33</v>
       </c>
@@ -9900,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>33</v>
       </c>
@@ -9931,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>33</v>
       </c>
@@ -9962,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>33</v>
       </c>
@@ -9993,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -10024,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>33</v>
       </c>
@@ -10055,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>33</v>
       </c>
@@ -10086,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>33</v>
       </c>
@@ -10117,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>34</v>
       </c>
@@ -10148,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>34</v>
       </c>
@@ -10179,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>34</v>
       </c>
@@ -10210,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>34</v>
       </c>
@@ -10241,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>34</v>
       </c>
@@ -10272,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>34</v>
       </c>
@@ -10303,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>34</v>
       </c>
@@ -10334,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>34</v>
       </c>
@@ -10365,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>34</v>
       </c>
@@ -10396,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>34</v>
       </c>
@@ -10427,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>34</v>
       </c>
@@ -10458,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -10489,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>34</v>
       </c>
@@ -10520,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>34</v>
       </c>
@@ -10551,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>34</v>
       </c>
@@ -10582,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>34</v>
       </c>
@@ -10613,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>34</v>
       </c>
@@ -10644,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>34</v>
       </c>
@@ -10675,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -10703,10 +10716,10 @@
       </c>
       <c r="M299" s="9" cm="1">
         <f t="array" ref="M299">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G299,'Support data'!$C$1:$D$1,0))-IF($G299="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A299)*($B$83:$B$163=$B299)*($F$83:$F$163=$F299)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A299)*($B$83:$B$163=$B299)*($F$83:$F$163=$F299)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A299)*($B$83:$B$163=$B299)*($F$83:$F$163=$F299)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G299,'Support data'!$C$1:$D$1,0))-IF($G299="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A299)*($B$83:$B$163=$B299)*($F$83:$F$163=$F299)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A299)*($B$83:$B$163=$B299)*($F$83:$F$163=$F299)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A299)*($B$83:$B$163=$B299)*($F$83:$F$163=$F299)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.23212482221240238</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.6018834359978564E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -10734,10 +10747,10 @@
       </c>
       <c r="M300" s="9" cm="1">
         <f t="array" ref="M300">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G300,'Support data'!$C$1:$D$1,0))-IF($G300="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A300)*($B$83:$B$163=$B300)*($F$83:$F$163=$F300)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A300)*($B$83:$B$163=$B300)*($F$83:$F$163=$F300)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A300)*($B$83:$B$163=$B300)*($F$83:$F$163=$F300)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G300,'Support data'!$C$1:$D$1,0))-IF($G300="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A300)*($B$83:$B$163=$B300)*($F$83:$F$163=$F300)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A300)*($B$83:$B$163=$B300)*($F$83:$F$163=$F300)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A300)*($B$83:$B$163=$B300)*($F$83:$F$163=$F300)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.29387295213144909</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.17642617451849879</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -10765,10 +10778,10 @@
       </c>
       <c r="M301" s="9" cm="1">
         <f t="array" ref="M301">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G301,'Support data'!$C$1:$D$1,0))-IF($G301="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A301)*($B$83:$B$163=$B301)*($F$83:$F$163=$F301)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A301)*($B$83:$B$163=$B301)*($F$83:$F$163=$F301)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A301)*($B$83:$B$163=$B301)*($F$83:$F$163=$F301)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G301,'Support data'!$C$1:$D$1,0))-IF($G301="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A301)*($B$83:$B$163=$B301)*($F$83:$F$163=$F301)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A301)*($B$83:$B$163=$B301)*($F$83:$F$163=$F301)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A301)*($B$83:$B$163=$B301)*($F$83:$F$163=$F301)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.23644042724023223</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.2503347735696657E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -10799,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -10827,10 +10840,10 @@
       </c>
       <c r="M303" s="9" cm="1">
         <f t="array" ref="M303">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G303,'Support data'!$C$1:$D$1,0))-IF($G303="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A303)*($B$83:$B$163=$B303)*($F$83:$F$163=$F303)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A303)*($B$83:$B$163=$B303)*($F$83:$F$163=$F303)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A303)*($B$83:$B$163=$B303)*($F$83:$F$163=$F303)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G303,'Support data'!$C$1:$D$1,0))-IF($G303="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A303)*($B$83:$B$163=$B303)*($F$83:$F$163=$F303)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A303)*($B$83:$B$163=$B303)*($F$83:$F$163=$F303)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A303)*($B$83:$B$163=$B303)*($F$83:$F$163=$F303)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.23644042724023223</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.463245111020971E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -10858,10 +10871,10 @@
       </c>
       <c r="M304" s="9" cm="1">
         <f t="array" ref="M304">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G304,'Support data'!$C$1:$D$1,0))-IF($G304="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A304)*($B$83:$B$163=$B304)*($F$83:$F$163=$F304)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A304)*($B$83:$B$163=$B304)*($F$83:$F$163=$F304)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A304)*($B$83:$B$163=$B304)*($F$83:$F$163=$F304)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G304,'Support data'!$C$1:$D$1,0))-IF($G304="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A304)*($B$83:$B$163=$B304)*($F$83:$F$163=$F304)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A304)*($B$83:$B$163=$B304)*($F$83:$F$163=$F304)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A304)*($B$83:$B$163=$B304)*($F$83:$F$163=$F304)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.29675107064490702</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.1821706784007594</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -10889,10 +10902,10 @@
       </c>
       <c r="M305" s="9" cm="1">
         <f t="array" ref="M305">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G305,'Support data'!$C$1:$D$1,0))-IF($G305="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A305)*($B$83:$B$163=$B305)*($F$83:$F$163=$F305)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A305)*($B$83:$B$163=$B305)*($F$83:$F$163=$F305)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A305)*($B$83:$B$163=$B305)*($F$83:$F$163=$F305)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G305,'Support data'!$C$1:$D$1,0))-IF($G305="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A305)*($B$83:$B$163=$B305)*($F$83:$F$163=$F305)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A305)*($B$83:$B$163=$B305)*($F$83:$F$163=$F305)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A305)*($B$83:$B$163=$B305)*($F$83:$F$163=$F305)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.23749502891933028</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.0930651914308853E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -10920,10 +10933,10 @@
       </c>
       <c r="M306" s="9" cm="1">
         <f t="array" ref="M306">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G306,'Support data'!$C$1:$D$1,0))-IF($G306="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A306)*($B$83:$B$163=$B306)*($F$83:$F$163=$F306)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A306)*($B$83:$B$163=$B306)*($F$83:$F$163=$F306)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A306)*($B$83:$B$163=$B306)*($F$83:$F$163=$F306)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G306,'Support data'!$C$1:$D$1,0))-IF($G306="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A306)*($B$83:$B$163=$B306)*($F$83:$F$163=$F306)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A306)*($B$83:$B$163=$B306)*($F$83:$F$163=$F306)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A306)*($B$83:$B$163=$B306)*($F$83:$F$163=$F306)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.29745439465101109</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.17970191290203541</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -10951,10 +10964,10 @@
       </c>
       <c r="M307" s="9" cm="1">
         <f t="array" ref="M307">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G307,'Support data'!$C$1:$D$1,0))-IF($G307="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A307)*($B$83:$B$163=$B307)*($F$83:$F$163=$F307)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A307)*($B$83:$B$163=$B307)*($F$83:$F$163=$F307)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A307)*($B$83:$B$163=$B307)*($F$83:$F$163=$F307)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G307,'Support data'!$C$1:$D$1,0))-IF($G307="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A307)*($B$83:$B$163=$B307)*($F$83:$F$163=$F307)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A307)*($B$83:$B$163=$B307)*($F$83:$F$163=$F307)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A307)*($B$83:$B$163=$B307)*($F$83:$F$163=$F307)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.23644042724023223</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.3586032743394352E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -10982,10 +10995,10 @@
       </c>
       <c r="M308" s="9" cm="1">
         <f t="array" ref="M308">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G308,'Support data'!$C$1:$D$1,0))-IF($G308="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A308)*($B$83:$B$163=$B308)*($F$83:$F$163=$F308)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A308)*($B$83:$B$163=$B308)*($F$83:$F$163=$F308)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A308)*($B$83:$B$163=$B308)*($F$83:$F$163=$F308)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G308,'Support data'!$C$1:$D$1,0))-IF($G308="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A308)*($B$83:$B$163=$B308)*($F$83:$F$163=$F308)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A308)*($B$83:$B$163=$B308)*($F$83:$F$163=$F308)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A308)*($B$83:$B$163=$B308)*($F$83:$F$163=$F308)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.29675107064490702</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.1748037157144357</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -11013,10 +11026,10 @@
       </c>
       <c r="M309" s="9" cm="1">
         <f t="array" ref="M309">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G309,'Support data'!$C$1:$D$1,0))-IF($G309="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A309)*($B$83:$B$163=$B309)*($F$83:$F$163=$F309)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A309)*($B$83:$B$163=$B309)*($F$83:$F$163=$F309)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A309)*($B$83:$B$163=$B309)*($F$83:$F$163=$F309)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G309,'Support data'!$C$1:$D$1,0))-IF($G309="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A309)*($B$83:$B$163=$B309)*($F$83:$F$163=$F309)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A309)*($B$83:$B$163=$B309)*($F$83:$F$163=$F309)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A309)*($B$83:$B$163=$B309)*($F$83:$F$163=$F309)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.23537623827314236</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.8759505776736869E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -11044,10 +11057,10 @@
       </c>
       <c r="M310" s="9" cm="1">
         <f t="array" ref="M310">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G310,'Support data'!$C$1:$D$1,0))-IF($G310="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A310)*($B$83:$B$163=$B310)*($F$83:$F$163=$F310)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A310)*($B$83:$B$163=$B310)*($F$83:$F$163=$F310)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A310)*($B$83:$B$163=$B310)*($F$83:$F$163=$F310)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G310,'Support data'!$C$1:$D$1,0))-IF($G310="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A310)*($B$83:$B$163=$B310)*($F$83:$F$163=$F310)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A310)*($B$83:$B$163=$B310)*($F$83:$F$163=$F310)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A310)*($B$83:$B$163=$B310)*($F$83:$F$163=$F310)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.29604135278420207</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.16491576223448556</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -11075,10 +11088,10 @@
       </c>
       <c r="M311" s="9" cm="1">
         <f t="array" ref="M311">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G311,'Support data'!$C$1:$D$1,0))-IF($G311="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A311)*($B$83:$B$163=$B311)*($F$83:$F$163=$F311)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A311)*($B$83:$B$163=$B311)*($F$83:$F$163=$F311)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A311)*($B$83:$B$163=$B311)*($F$83:$F$163=$F311)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G311,'Support data'!$C$1:$D$1,0))-IF($G311="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A311)*($B$83:$B$163=$B311)*($F$83:$F$163=$F311)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A311)*($B$83:$B$163=$B311)*($F$83:$F$163=$F311)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A311)*($B$83:$B$163=$B311)*($F$83:$F$163=$F311)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.23644042724023223</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.6398337006611399E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -11106,10 +11119,10 @@
       </c>
       <c r="M312" s="9" cm="1">
         <f t="array" ref="M312">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G312,'Support data'!$C$1:$D$1,0))-IF($G312="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A312)*($B$83:$B$163=$B312)*($F$83:$F$163=$F312)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A312)*($B$83:$B$163=$B312)*($F$83:$F$163=$F312)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A312)*($B$83:$B$163=$B312)*($F$83:$F$163=$F312)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G312,'Support data'!$C$1:$D$1,0))-IF($G312="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A312)*($B$83:$B$163=$B312)*($F$83:$F$163=$F312)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A312)*($B$83:$B$163=$B312)*($F$83:$F$163=$F312)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A312)*($B$83:$B$163=$B312)*($F$83:$F$163=$F312)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.29675107064490702</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.17667926848472987</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -11137,10 +11150,10 @@
       </c>
       <c r="M313" s="9" cm="1">
         <f t="array" ref="M313">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G313,'Support data'!$C$1:$D$1,0))-IF($G313="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A313)*($B$83:$B$163=$B313)*($F$83:$F$163=$F313)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A313)*($B$83:$B$163=$B313)*($F$83:$F$163=$F313)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A313)*($B$83:$B$163=$B313)*($F$83:$F$163=$F313)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G313,'Support data'!$C$1:$D$1,0))-IF($G313="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A313)*($B$83:$B$163=$B313)*($F$83:$F$163=$F313)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A313)*($B$83:$B$163=$B313)*($F$83:$F$163=$F313)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A313)*($B$83:$B$163=$B313)*($F$83:$F$163=$F313)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.23854017228740504</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.1793084992492227E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -11168,10 +11181,10 @@
       </c>
       <c r="M314" s="9" cm="1">
         <f t="array" ref="M314">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G314,'Support data'!$C$1:$D$1,0))-IF($G314="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A314)*($B$83:$B$163=$B314)*($F$83:$F$163=$F314)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A314)*($B$83:$B$163=$B314)*($F$83:$F$163=$F314)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A314)*($B$83:$B$163=$B314)*($F$83:$F$163=$F314)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G314,'Support data'!$C$1:$D$1,0))-IF($G314="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A314)*($B$83:$B$163=$B314)*($F$83:$F$163=$F314)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A314)*($B$83:$B$163=$B314)*($F$83:$F$163=$F314)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A314)*($B$83:$B$163=$B314)*($F$83:$F$163=$F314)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.29815141081849533</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.16026978918959939</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -11199,10 +11212,10 @@
       </c>
       <c r="M315" s="9" cm="1">
         <f t="array" ref="M315">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G315,'Support data'!$C$1:$D$1,0))-IF($G315="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A315)*($B$83:$B$163=$B315)*($F$83:$F$163=$F315)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A315)*($B$83:$B$163=$B315)*($F$83:$F$163=$F315)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A315)*($B$83:$B$163=$B315)*($F$83:$F$163=$F315)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G315,'Support data'!$C$1:$D$1,0))-IF($G315="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A315)*($B$83:$B$163=$B315)*($F$83:$F$163=$F315)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A315)*($B$83:$B$163=$B315)*($F$83:$F$163=$F315)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A315)*($B$83:$B$163=$B315)*($F$83:$F$163=$F315)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.24060258853373923</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.9520258072452592E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -11230,10 +11243,10 @@
       </c>
       <c r="M316" s="9" cm="1">
         <f t="array" ref="M316">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G316,'Support data'!$C$1:$D$1,0))-IF($G316="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A316)*($B$83:$B$163=$B316)*($F$83:$F$163=$F316)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A316)*($B$83:$B$163=$B316)*($F$83:$F$163=$F316)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A316)*($B$83:$B$163=$B316)*($F$83:$F$163=$F316)*($H$83:$H$163="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G316,'Support data'!$C$1:$D$1,0))-IF($G316="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A316)*($B$83:$B$163=$B316)*($F$83:$F$163=$F316)*($H$83:$H$163="Photovoltaic plants")),_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A316)*($B$83:$B$163=$B316)*($F$83:$F$163=$F316)*($H$83:$H$163="Onshore wind plants"))+_xlfn._xlws.FILTER($M$83:$M$163,($A$83:$A$163=$A316)*($B$83:$B$163=$B316)*($F$83:$F$163=$F316)*($H$83:$H$163="Offshore wind plants"))))</f>
-        <v>0.29952685605566426</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.1787613076795147</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>33</v>
       </c>
@@ -11264,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>33</v>
       </c>
@@ -11295,7 +11308,7 @@
         <v>4.537716998313196E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>33</v>
       </c>
@@ -11326,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>33</v>
       </c>
@@ -11357,7 +11370,7 @@
         <v>4.6178734274645472E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>33</v>
       </c>
@@ -11388,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>33</v>
       </c>
@@ -11419,7 +11432,7 @@
         <v>5.2372678572595754E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>33</v>
       </c>
@@ -11450,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>33</v>
       </c>
@@ -11481,7 +11494,7 @@
         <v>4.670480089834822E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>33</v>
       </c>
@@ -11512,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>33</v>
       </c>
@@ -11543,7 +11556,7 @@
         <v>4.034746970432479E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -11574,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -11605,7 +11618,7 @@
         <v>2.464980732392702E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -11636,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -11667,7 +11680,7 @@
         <v>2.7511253951581716E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -11698,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -11791,7 +11804,7 @@
         <v>6.6234144333528588E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -11822,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>34</v>
       </c>
@@ -11853,7 +11866,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>34</v>
       </c>
@@ -11884,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>34</v>
       </c>
@@ -11915,7 +11928,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>34</v>
       </c>
@@ -11946,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>34</v>
       </c>
@@ -11977,7 +11990,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>34</v>
       </c>
@@ -12008,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>34</v>
       </c>
@@ -12039,7 +12052,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -12070,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>34</v>
       </c>
@@ -12101,7 +12114,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>34</v>
       </c>
@@ -12132,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>34</v>
       </c>
@@ -12163,7 +12176,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>34</v>
       </c>
@@ -12194,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>34</v>
       </c>
@@ -12225,7 +12238,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>34</v>
       </c>
@@ -12256,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>34</v>
       </c>
@@ -12287,7 +12300,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>34</v>
       </c>
@@ -12318,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -12349,7 +12362,7 @@
         <v>5.6490702279729854E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>20</v>
       </c>
@@ -12377,10 +12390,10 @@
       </c>
       <c r="M353" s="9" cm="1">
         <f t="array" ref="M353">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G353,'Support data'!$C$1:$D$1,0))-IF($G353="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A353)*($B$164:$B$244=$B353)*($F$164:$F$244=$F353)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A353)*($B$164:$B$244=$B353)*($F$164:$F$244=$F353)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A353)*($B$164:$B$244=$B353)*($F$164:$F$244=$F353)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G353,'Support data'!$C$1:$D$1,0))-IF($G353="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A353)*($B$164:$B$244=$B353)*($F$164:$F$244=$F353)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A353)*($B$164:$B$244=$B353)*($F$164:$F$244=$F353)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A353)*($B$164:$B$244=$B353)*($F$164:$F$244=$F353)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.28355244879404107</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14543010538037532</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>20</v>
       </c>
@@ -12408,10 +12421,10 @@
       </c>
       <c r="M354" s="9" cm="1">
         <f t="array" ref="M354">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G354,'Support data'!$C$1:$D$1,0))-IF($G354="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A354)*($B$164:$B$244=$B354)*($F$164:$F$244=$F354)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A354)*($B$164:$B$244=$B354)*($F$164:$F$244=$F354)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A354)*($B$164:$B$244=$B354)*($F$164:$F$244=$F354)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G354,'Support data'!$C$1:$D$1,0))-IF($G354="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A354)*($B$164:$B$244=$B354)*($F$164:$F$244=$F354)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A354)*($B$164:$B$244=$B354)*($F$164:$F$244=$F354)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A354)*($B$164:$B$244=$B354)*($F$164:$F$244=$F354)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34041129914404022</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25733702018971788</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>20</v>
       </c>
@@ -12439,10 +12452,10 @@
       </c>
       <c r="M355" s="9" cm="1">
         <f t="array" ref="M355">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G355,'Support data'!$C$1:$D$1,0))-IF($G355="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A355)*($B$164:$B$244=$B355)*($F$164:$F$244=$F355)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A355)*($B$164:$B$244=$B355)*($F$164:$F$244=$F355)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A355)*($B$164:$B$244=$B355)*($F$164:$F$244=$F355)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G355,'Support data'!$C$1:$D$1,0))-IF($G355="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A355)*($B$164:$B$244=$B355)*($F$164:$F$244=$F355)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A355)*($B$164:$B$244=$B355)*($F$164:$F$244=$F355)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A355)*($B$164:$B$244=$B355)*($F$164:$F$244=$F355)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.28693723705116253</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.1505159982240758</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>20</v>
       </c>
@@ -12470,10 +12483,10 @@
       </c>
       <c r="M356" s="9" cm="1">
         <f t="array" ref="M356">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G356,'Support data'!$C$1:$D$1,0))-IF($G356="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A356)*($B$164:$B$244=$B356)*($F$164:$F$244=$F356)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A356)*($B$164:$B$244=$B356)*($F$164:$F$244=$F356)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A356)*($B$164:$B$244=$B356)*($F$164:$F$244=$F356)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G356,'Support data'!$C$1:$D$1,0))-IF($G356="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A356)*($B$164:$B$244=$B356)*($F$164:$F$244=$F356)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A356)*($B$164:$B$244=$B356)*($F$164:$F$244=$F356)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A356)*($B$164:$B$244=$B356)*($F$164:$F$244=$F356)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34244709463464579</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.26039595236815616</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>20</v>
       </c>
@@ -12501,10 +12514,10 @@
       </c>
       <c r="M357" s="9" cm="1">
         <f t="array" ref="M357">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G357,'Support data'!$C$1:$D$1,0))-IF($G357="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A357)*($B$164:$B$244=$B357)*($F$164:$F$244=$F357)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A357)*($B$164:$B$244=$B357)*($F$164:$F$244=$F357)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A357)*($B$164:$B$244=$B357)*($F$164:$F$244=$F357)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G357,'Support data'!$C$1:$D$1,0))-IF($G357="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A357)*($B$164:$B$244=$B357)*($F$164:$F$244=$F357)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A357)*($B$164:$B$244=$B357)*($F$164:$F$244=$F357)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A357)*($B$164:$B$244=$B357)*($F$164:$F$244=$F357)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.28693723705116253</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.15218588322369397</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>20</v>
       </c>
@@ -12532,10 +12545,10 @@
       </c>
       <c r="M358" s="9" cm="1">
         <f t="array" ref="M358">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G358,'Support data'!$C$1:$D$1,0))-IF($G358="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A358)*($B$164:$B$244=$B358)*($F$164:$F$244=$F358)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A358)*($B$164:$B$244=$B358)*($F$164:$F$244=$F358)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A358)*($B$164:$B$244=$B358)*($F$164:$F$244=$F358)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G358,'Support data'!$C$1:$D$1,0))-IF($G358="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A358)*($B$164:$B$244=$B358)*($F$164:$F$244=$F358)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A358)*($B$164:$B$244=$B358)*($F$164:$F$244=$F358)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A358)*($B$164:$B$244=$B358)*($F$164:$F$244=$F358)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34244709463464579</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.26140031190080937</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -12563,10 +12576,10 @@
       </c>
       <c r="M359" s="9" cm="1">
         <f t="array" ref="M359">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G359,'Support data'!$C$1:$D$1,0))-IF($G359="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A359)*($B$164:$B$244=$B359)*($F$164:$F$244=$F359)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A359)*($B$164:$B$244=$B359)*($F$164:$F$244=$F359)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A359)*($B$164:$B$244=$B359)*($F$164:$F$244=$F359)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G359,'Support data'!$C$1:$D$1,0))-IF($G359="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A359)*($B$164:$B$244=$B359)*($F$164:$F$244=$F359)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A359)*($B$164:$B$244=$B359)*($F$164:$F$244=$F359)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A359)*($B$164:$B$244=$B359)*($F$164:$F$244=$F359)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.28776437562300416</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14928251130534032</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -12594,10 +12607,10 @@
       </c>
       <c r="M360" s="9" cm="1">
         <f t="array" ref="M360">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G360,'Support data'!$C$1:$D$1,0))-IF($G360="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A360)*($B$164:$B$244=$B360)*($F$164:$F$244=$F360)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A360)*($B$164:$B$244=$B360)*($F$164:$F$244=$F360)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A360)*($B$164:$B$244=$B360)*($F$164:$F$244=$F360)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G360,'Support data'!$C$1:$D$1,0))-IF($G360="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A360)*($B$164:$B$244=$B360)*($F$164:$F$244=$F360)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A360)*($B$164:$B$244=$B360)*($F$164:$F$244=$F360)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A360)*($B$164:$B$244=$B360)*($F$164:$F$244=$F360)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34294458069485012</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25965406634276023</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>20</v>
       </c>
@@ -12625,10 +12638,10 @@
       </c>
       <c r="M361" s="9" cm="1">
         <f t="array" ref="M361">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G361,'Support data'!$C$1:$D$1,0))-IF($G361="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A361)*($B$164:$B$244=$B361)*($F$164:$F$244=$F361)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A361)*($B$164:$B$244=$B361)*($F$164:$F$244=$F361)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A361)*($B$164:$B$244=$B361)*($F$164:$F$244=$F361)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G361,'Support data'!$C$1:$D$1,0))-IF($G361="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A361)*($B$164:$B$244=$B361)*($F$164:$F$244=$F361)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A361)*($B$164:$B$244=$B361)*($F$164:$F$244=$F361)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A361)*($B$164:$B$244=$B361)*($F$164:$F$244=$F361)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.28693723705116253</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14352202568109362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -12656,10 +12669,10 @@
       </c>
       <c r="M362" s="9" cm="1">
         <f t="array" ref="M362">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G362,'Support data'!$C$1:$D$1,0))-IF($G362="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A362)*($B$164:$B$244=$B362)*($F$164:$F$244=$F362)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A362)*($B$164:$B$244=$B362)*($F$164:$F$244=$F362)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A362)*($B$164:$B$244=$B362)*($F$164:$F$244=$F362)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G362,'Support data'!$C$1:$D$1,0))-IF($G362="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A362)*($B$164:$B$244=$B362)*($F$164:$F$244=$F362)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A362)*($B$164:$B$244=$B362)*($F$164:$F$244=$F362)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A362)*($B$164:$B$244=$B362)*($F$164:$F$244=$F362)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34244709463464579</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25618939742798646</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -12687,10 +12700,10 @@
       </c>
       <c r="M363" s="9" cm="1">
         <f t="array" ref="M363">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G363,'Support data'!$C$1:$D$1,0))-IF($G363="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A363)*($B$164:$B$244=$B363)*($F$164:$F$244=$F363)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A363)*($B$164:$B$244=$B363)*($F$164:$F$244=$F363)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A363)*($B$164:$B$244=$B363)*($F$164:$F$244=$F363)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G363,'Support data'!$C$1:$D$1,0))-IF($G363="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A363)*($B$164:$B$244=$B363)*($F$164:$F$244=$F363)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A363)*($B$164:$B$244=$B363)*($F$164:$F$244=$F363)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A363)*($B$164:$B$244=$B363)*($F$164:$F$244=$F363)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.28610257903775871</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.13189337707979371</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>20</v>
       </c>
@@ -12718,10 +12731,10 @@
       </c>
       <c r="M364" s="9" cm="1">
         <f t="array" ref="M364">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G364,'Support data'!$C$1:$D$1,0))-IF($G364="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A364)*($B$164:$B$244=$B364)*($F$164:$F$244=$F364)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A364)*($B$164:$B$244=$B364)*($F$164:$F$244=$F364)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A364)*($B$164:$B$244=$B364)*($F$164:$F$244=$F364)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G364,'Support data'!$C$1:$D$1,0))-IF($G364="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A364)*($B$164:$B$244=$B364)*($F$164:$F$244=$F364)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A364)*($B$164:$B$244=$B364)*($F$164:$F$244=$F364)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A364)*($B$164:$B$244=$B364)*($F$164:$F$244=$F364)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34194508597389417</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.24919529659034745</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>20</v>
       </c>
@@ -12749,10 +12762,10 @@
       </c>
       <c r="M365" s="9" cm="1">
         <f t="array" ref="M365">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G365,'Support data'!$C$1:$D$1,0))-IF($G365="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A365)*($B$164:$B$244=$B365)*($F$164:$F$244=$F365)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A365)*($B$164:$B$244=$B365)*($F$164:$F$244=$F365)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A365)*($B$164:$B$244=$B365)*($F$164:$F$244=$F365)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G365,'Support data'!$C$1:$D$1,0))-IF($G365="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A365)*($B$164:$B$244=$B365)*($F$164:$F$244=$F365)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A365)*($B$164:$B$244=$B365)*($F$164:$F$244=$F365)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A365)*($B$164:$B$244=$B365)*($F$164:$F$244=$F365)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.28693723705116253</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14572775451498937</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>20</v>
       </c>
@@ -12780,10 +12793,10 @@
       </c>
       <c r="M366" s="9" cm="1">
         <f t="array" ref="M366">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G366,'Support data'!$C$1:$D$1,0))-IF($G366="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A366)*($B$164:$B$244=$B366)*($F$164:$F$244=$F366)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A366)*($B$164:$B$244=$B366)*($F$164:$F$244=$F366)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A366)*($B$164:$B$244=$B366)*($F$164:$F$244=$F366)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G366,'Support data'!$C$1:$D$1,0))-IF($G366="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A366)*($B$164:$B$244=$B366)*($F$164:$F$244=$F366)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A366)*($B$164:$B$244=$B366)*($F$164:$F$244=$F366)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A366)*($B$164:$B$244=$B366)*($F$164:$F$244=$F366)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34244709463464579</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25751604254503213</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>20</v>
       </c>
@@ -12811,10 +12824,10 @@
       </c>
       <c r="M367" s="9" cm="1">
         <f t="array" ref="M367">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G367,'Support data'!$C$1:$D$1,0))-IF($G367="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A367)*($B$164:$B$244=$B367)*($F$164:$F$244=$F367)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A367)*($B$164:$B$244=$B367)*($F$164:$F$244=$F367)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A367)*($B$164:$B$244=$B367)*($F$164:$F$244=$F367)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G367,'Support data'!$C$1:$D$1,0))-IF($G367="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A367)*($B$164:$B$244=$B367)*($F$164:$F$244=$F367)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A367)*($B$164:$B$244=$B367)*($F$164:$F$244=$F367)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A367)*($B$164:$B$244=$B367)*($F$164:$F$244=$F367)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.28858409591169021</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.12642951764117039</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>20</v>
       </c>
@@ -12842,10 +12855,10 @@
       </c>
       <c r="M368" s="9" cm="1">
         <f t="array" ref="M368">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G368,'Support data'!$C$1:$D$1,0))-IF($G368="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A368)*($B$164:$B$244=$B368)*($F$164:$F$244=$F368)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A368)*($B$164:$B$244=$B368)*($F$164:$F$244=$F368)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A368)*($B$164:$B$244=$B368)*($F$164:$F$244=$F368)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G368,'Support data'!$C$1:$D$1,0))-IF($G368="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A368)*($B$164:$B$244=$B368)*($F$164:$F$244=$F368)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A368)*($B$164:$B$244=$B368)*($F$164:$F$244=$F368)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A368)*($B$164:$B$244=$B368)*($F$164:$F$244=$F368)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34343760499666692</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.24590903477380713</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>20</v>
       </c>
@@ -12873,10 +12886,10 @@
       </c>
       <c r="M369" s="9" cm="1">
         <f t="array" ref="M369">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G369,'Support data'!$C$1:$D$1,0))-IF($G369="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A369)*($B$164:$B$244=$B369)*($F$164:$F$244=$F369)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A369)*($B$164:$B$244=$B369)*($F$164:$F$244=$F369)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A369)*($B$164:$B$244=$B369)*($F$164:$F$244=$F369)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G369,'Support data'!$C$1:$D$1,0))-IF($G369="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A369)*($B$164:$B$244=$B369)*($F$164:$F$244=$F369)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A369)*($B$164:$B$244=$B369)*($F$164:$F$244=$F369)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A369)*($B$164:$B$244=$B369)*($F$164:$F$244=$F369)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.29020167728136409</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.14817632005682563</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>20</v>
       </c>
@@ -12904,10 +12917,10 @@
       </c>
       <c r="M370" s="9" cm="1">
         <f t="array" ref="M370">IF(INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G370,'Support data'!$C$1:$D$1,0))-IF($G370="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A370)*($B$164:$B$244=$B370)*($F$164:$F$244=$F370)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A370)*($B$164:$B$244=$B370)*($F$164:$F$244=$F370)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A370)*($B$164:$B$244=$B370)*($F$164:$F$244=$F370)*($H$164:$H$244="Offshore wind plants")))&lt;0,0,INDEX('Support data'!$C$2:$D$2,1,MATCH(ShockMaster!$G370,'Support data'!$C$1:$D$1,0))-IF($G370="Production of electricity by solar photovoltaic",_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A370)*($B$164:$B$244=$B370)*($F$164:$F$244=$F370)*($H$164:$H$244="Photovoltaic plants")),_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A370)*($B$164:$B$244=$B370)*($F$164:$F$244=$F370)*($H$164:$H$244="Onshore wind plants"))+_xlfn._xlws.FILTER($M$164:$M$244,($A$164:$A$244=$A370)*($B$164:$B$244=$B370)*($F$164:$F$244=$F370)*($H$164:$H$244="Offshore wind plants"))))</f>
-        <v>0.34441050628558545</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25898874284704804</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>33</v>
       </c>
@@ -12938,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>33</v>
       </c>
@@ -12969,7 +12982,7 @@
         <v>0.16464140281539436</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>33</v>
       </c>
@@ -13000,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>33</v>
       </c>
@@ -13031,7 +13044,7 @@
         <v>0.1652083777201675</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>33</v>
       </c>
@@ -13062,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>33</v>
       </c>
@@ -13093,7 +13106,7 @@
         <v>0.16958957460690705</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>33</v>
       </c>
@@ -13124,7 +13137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>33</v>
       </c>
@@ -13155,7 +13168,7 @@
         <v>0.16558048333544517</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>33</v>
       </c>
@@ -13186,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>33</v>
       </c>
@@ -13217,7 +13230,7 @@
         <v>0.1610837170916084</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>33</v>
       </c>
@@ -13248,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>33</v>
       </c>
@@ -13279,7 +13292,7 @@
         <v>0.14998020271663298</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>33</v>
       </c>
@@ -13310,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>33</v>
       </c>
@@ -13341,7 +13354,7 @@
         <v>0.15200420559002026</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>33</v>
       </c>
@@ -13372,7 +13385,7 @@
         <v>2.3087042915230227E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>33</v>
       </c>
@@ -13403,7 +13416,7 @@
         <v>0.17125603644344589</v>
       </c>
     </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>33</v>
       </c>
@@ -13434,7 +13447,7 @@
         <v>1.5839649652288679E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>33</v>
       </c>
@@ -13465,7 +13478,7 @@
         <v>0.17939428186873113</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>34</v>
       </c>
@@ -13496,7 +13509,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>34</v>
       </c>
@@ -13527,7 +13540,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>34</v>
       </c>
@@ -13558,7 +13571,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>34</v>
       </c>
@@ -13589,7 +13602,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>34</v>
       </c>
@@ -13620,7 +13633,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>34</v>
       </c>
@@ -13651,7 +13664,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>34</v>
       </c>
@@ -13682,7 +13695,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>34</v>
       </c>
@@ -13713,7 +13726,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>34</v>
       </c>
@@ -13744,7 +13757,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>34</v>
       </c>
@@ -13775,7 +13788,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>34</v>
       </c>
@@ -13806,7 +13819,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>34</v>
       </c>
@@ -13837,7 +13850,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>34</v>
       </c>
@@ -13868,7 +13881,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>34</v>
       </c>
@@ -13899,7 +13912,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>34</v>
       </c>
@@ -13930,7 +13943,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>34</v>
       </c>
@@ -13961,7 +13974,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>34</v>
       </c>
@@ -13992,7 +14005,7 @@
         <v>4.3809525578395458E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>34</v>
       </c>
@@ -14023,7 +14036,7 @@
         <v>0.17250239909762566</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>46</v>
       </c>
@@ -14056,7 +14069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>46</v>
       </c>
@@ -14089,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>46</v>
       </c>
@@ -14122,14 +14135,864 @@
         <v>1</v>
       </c>
     </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B410" s="13"/>
+      <c r="C410" s="4"/>
+      <c r="M410" s="9"/>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B411" s="13"/>
+      <c r="C411" s="4"/>
+      <c r="M411" s="9"/>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B412" s="13"/>
+      <c r="C412" s="4"/>
+      <c r="M412" s="9"/>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B413" s="13"/>
+      <c r="C413" s="4"/>
+      <c r="M413" s="9"/>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B414" s="13"/>
+      <c r="C414" s="4"/>
+      <c r="M414" s="9"/>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B415" s="13"/>
+      <c r="C415" s="4"/>
+      <c r="M415" s="9"/>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B416" s="13"/>
+      <c r="C416" s="4"/>
+      <c r="M416" s="9"/>
+    </row>
+    <row r="417" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B417" s="13"/>
+      <c r="C417" s="4"/>
+      <c r="M417" s="9"/>
+    </row>
+    <row r="418" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B418" s="13"/>
+      <c r="C418" s="4"/>
+      <c r="M418" s="9"/>
+    </row>
+    <row r="419" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B419" s="13"/>
+      <c r="C419" s="4"/>
+      <c r="M419" s="9"/>
+    </row>
+    <row r="420" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B420" s="13"/>
+      <c r="C420" s="4"/>
+      <c r="M420" s="9"/>
+    </row>
+    <row r="421" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B421" s="13"/>
+      <c r="C421" s="4"/>
+      <c r="M421" s="9"/>
+    </row>
+    <row r="422" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B422" s="13"/>
+      <c r="C422" s="4"/>
+      <c r="M422" s="9"/>
+    </row>
+    <row r="423" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B423" s="13"/>
+      <c r="C423" s="4"/>
+      <c r="M423" s="9"/>
+    </row>
+    <row r="424" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B424" s="13"/>
+      <c r="C424" s="4"/>
+      <c r="M424" s="9"/>
+    </row>
+    <row r="425" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B425" s="13"/>
+      <c r="C425" s="4"/>
+      <c r="M425" s="9"/>
+    </row>
+    <row r="426" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B426" s="13"/>
+      <c r="C426" s="4"/>
+      <c r="M426" s="9"/>
+    </row>
+    <row r="427" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B427" s="13"/>
+      <c r="C427" s="4"/>
+      <c r="M427" s="9"/>
+    </row>
+    <row r="428" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B428" s="13"/>
+      <c r="C428" s="4"/>
+      <c r="M428" s="9"/>
+    </row>
+    <row r="429" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B429" s="13"/>
+      <c r="C429" s="4"/>
+      <c r="M429" s="9"/>
+    </row>
+    <row r="430" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B430" s="13"/>
+      <c r="C430" s="4"/>
+      <c r="M430" s="9"/>
+    </row>
+    <row r="431" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B431" s="13"/>
+      <c r="C431" s="4"/>
+      <c r="M431" s="9"/>
+    </row>
+    <row r="432" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B432" s="13"/>
+      <c r="C432" s="4"/>
+      <c r="M432" s="9"/>
+    </row>
+    <row r="433" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B433" s="13"/>
+      <c r="C433" s="4"/>
+      <c r="M433" s="9"/>
+    </row>
+    <row r="434" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B434" s="13"/>
+      <c r="C434" s="4"/>
+      <c r="M434" s="9"/>
+    </row>
+    <row r="435" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B435" s="13"/>
+      <c r="C435" s="4"/>
+      <c r="M435" s="9"/>
+    </row>
+    <row r="436" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B436" s="13"/>
+      <c r="C436" s="4"/>
+      <c r="M436" s="9"/>
+    </row>
+    <row r="437" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B437" s="13"/>
+      <c r="C437" s="4"/>
+      <c r="M437" s="9"/>
+    </row>
+    <row r="438" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B438" s="13"/>
+      <c r="C438" s="4"/>
+      <c r="M438" s="9"/>
+    </row>
+    <row r="439" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B439" s="13"/>
+      <c r="C439" s="4"/>
+      <c r="M439" s="9"/>
+    </row>
+    <row r="440" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B440" s="13"/>
+      <c r="C440" s="4"/>
+      <c r="M440" s="9"/>
+    </row>
+    <row r="441" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B441" s="13"/>
+      <c r="C441" s="4"/>
+      <c r="M441" s="9"/>
+    </row>
+    <row r="442" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B442" s="13"/>
+      <c r="C442" s="4"/>
+      <c r="M442" s="9"/>
+    </row>
+    <row r="443" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B443" s="13"/>
+      <c r="C443" s="4"/>
+      <c r="M443" s="9"/>
+    </row>
+    <row r="444" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B444" s="13"/>
+      <c r="C444" s="4"/>
+      <c r="M444" s="9"/>
+    </row>
+    <row r="445" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B445" s="13"/>
+      <c r="C445" s="4"/>
+      <c r="M445" s="9"/>
+    </row>
+    <row r="446" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B446" s="13"/>
+      <c r="C446" s="4"/>
+      <c r="M446" s="9"/>
+    </row>
+    <row r="447" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B447" s="13"/>
+      <c r="C447" s="4"/>
+      <c r="M447" s="9"/>
+    </row>
+    <row r="448" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B448" s="13"/>
+      <c r="C448" s="4"/>
+      <c r="M448" s="9"/>
+    </row>
+    <row r="449" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B449" s="13"/>
+      <c r="C449" s="4"/>
+      <c r="M449" s="9"/>
+    </row>
+    <row r="450" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B450" s="13"/>
+      <c r="C450" s="4"/>
+      <c r="M450" s="9"/>
+    </row>
+    <row r="451" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B451" s="13"/>
+      <c r="C451" s="4"/>
+      <c r="M451" s="9"/>
+    </row>
+    <row r="452" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B452" s="13"/>
+      <c r="C452" s="4"/>
+      <c r="M452" s="9"/>
+    </row>
+    <row r="453" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B453" s="13"/>
+      <c r="C453" s="4"/>
+      <c r="M453" s="9"/>
+    </row>
+    <row r="454" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B454" s="13"/>
+      <c r="C454" s="4"/>
+      <c r="M454" s="9"/>
+    </row>
+    <row r="455" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B455" s="13"/>
+      <c r="C455" s="4"/>
+      <c r="M455" s="9"/>
+    </row>
+    <row r="456" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B456" s="13"/>
+      <c r="C456" s="4"/>
+      <c r="M456" s="9"/>
+    </row>
+    <row r="457" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B457" s="13"/>
+      <c r="C457" s="4"/>
+      <c r="M457" s="9"/>
+    </row>
+    <row r="458" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B458" s="13"/>
+      <c r="C458" s="4"/>
+      <c r="M458" s="9"/>
+    </row>
+    <row r="459" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B459" s="13"/>
+      <c r="C459" s="4"/>
+      <c r="M459" s="9"/>
+    </row>
+    <row r="460" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B460" s="13"/>
+      <c r="C460" s="4"/>
+      <c r="M460" s="9"/>
+    </row>
+    <row r="461" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B461" s="13"/>
+      <c r="C461" s="4"/>
+      <c r="M461" s="9"/>
+    </row>
+    <row r="462" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B462" s="13"/>
+      <c r="C462" s="4"/>
+      <c r="M462" s="9"/>
+    </row>
+    <row r="463" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B463" s="13"/>
+      <c r="C463" s="4"/>
+      <c r="M463" s="9"/>
+    </row>
+    <row r="464" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B464" s="13"/>
+      <c r="C464" s="4"/>
+      <c r="M464" s="9"/>
+    </row>
+    <row r="465" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B465" s="13"/>
+      <c r="C465" s="4"/>
+      <c r="M465" s="9"/>
+    </row>
+    <row r="466" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B466" s="13"/>
+      <c r="C466" s="4"/>
+      <c r="M466" s="9"/>
+    </row>
+    <row r="467" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B467" s="13"/>
+      <c r="C467" s="4"/>
+      <c r="M467" s="9"/>
+    </row>
+    <row r="468" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B468" s="13"/>
+      <c r="C468" s="4"/>
+      <c r="M468" s="9"/>
+    </row>
+    <row r="469" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B469" s="13"/>
+      <c r="C469" s="4"/>
+      <c r="M469" s="9"/>
+    </row>
+    <row r="470" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B470" s="13"/>
+      <c r="C470" s="4"/>
+      <c r="M470" s="9"/>
+    </row>
+    <row r="471" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B471" s="13"/>
+      <c r="C471" s="4"/>
+      <c r="M471" s="9"/>
+    </row>
+    <row r="472" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B472" s="13"/>
+      <c r="C472" s="4"/>
+      <c r="M472" s="9"/>
+    </row>
+    <row r="473" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B473" s="13"/>
+      <c r="C473" s="4"/>
+      <c r="M473" s="9"/>
+    </row>
+    <row r="474" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B474" s="13"/>
+      <c r="C474" s="4"/>
+      <c r="M474" s="9"/>
+    </row>
+    <row r="475" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B475" s="13"/>
+      <c r="C475" s="4"/>
+      <c r="M475" s="9"/>
+    </row>
+    <row r="476" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B476" s="13"/>
+      <c r="C476" s="4"/>
+      <c r="M476" s="9"/>
+    </row>
+    <row r="477" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B477" s="13"/>
+      <c r="C477" s="4"/>
+      <c r="M477" s="9"/>
+    </row>
+    <row r="478" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B478" s="13"/>
+      <c r="C478" s="4"/>
+      <c r="M478" s="9"/>
+    </row>
+    <row r="479" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B479" s="13"/>
+      <c r="C479" s="4"/>
+      <c r="M479" s="9"/>
+    </row>
+    <row r="480" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B480" s="13"/>
+      <c r="C480" s="4"/>
+      <c r="M480" s="9"/>
+    </row>
+    <row r="481" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B481" s="13"/>
+      <c r="C481" s="4"/>
+      <c r="M481" s="9"/>
+    </row>
+    <row r="482" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B482" s="13"/>
+      <c r="C482" s="4"/>
+      <c r="M482" s="9"/>
+    </row>
+    <row r="483" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B483" s="13"/>
+      <c r="C483" s="4"/>
+      <c r="M483" s="9"/>
+    </row>
+    <row r="484" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B484" s="13"/>
+      <c r="C484" s="4"/>
+      <c r="M484" s="9"/>
+    </row>
+    <row r="485" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B485" s="13"/>
+      <c r="C485" s="4"/>
+      <c r="M485" s="9"/>
+    </row>
+    <row r="486" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B486" s="13"/>
+      <c r="C486" s="4"/>
+      <c r="M486" s="9"/>
+    </row>
+    <row r="487" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B487" s="13"/>
+      <c r="C487" s="4"/>
+      <c r="M487" s="9"/>
+    </row>
+    <row r="488" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B488" s="13"/>
+      <c r="C488" s="4"/>
+      <c r="M488" s="9"/>
+    </row>
+    <row r="489" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B489" s="13"/>
+      <c r="C489" s="4"/>
+      <c r="M489" s="9"/>
+    </row>
+    <row r="490" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B490" s="13"/>
+      <c r="C490" s="4"/>
+      <c r="M490" s="9"/>
+    </row>
+    <row r="491" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B491" s="13"/>
+      <c r="C491" s="4"/>
+      <c r="M491" s="9"/>
+    </row>
+    <row r="492" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B492" s="13"/>
+      <c r="C492" s="4"/>
+      <c r="M492" s="9"/>
+    </row>
+    <row r="493" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B493" s="13"/>
+      <c r="C493" s="4"/>
+      <c r="M493" s="9"/>
+    </row>
+    <row r="494" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B494" s="13"/>
+      <c r="C494" s="4"/>
+      <c r="M494" s="9"/>
+    </row>
+    <row r="495" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B495" s="13"/>
+      <c r="C495" s="4"/>
+      <c r="M495" s="9"/>
+    </row>
+    <row r="496" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B496" s="13"/>
+      <c r="C496" s="4"/>
+      <c r="M496" s="9"/>
+    </row>
+    <row r="497" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B497" s="13"/>
+      <c r="C497" s="4"/>
+      <c r="M497" s="9"/>
+    </row>
+    <row r="498" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B498" s="13"/>
+      <c r="C498" s="4"/>
+      <c r="M498" s="9"/>
+    </row>
+    <row r="499" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B499" s="13"/>
+      <c r="C499" s="4"/>
+      <c r="M499" s="9"/>
+    </row>
+    <row r="500" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B500" s="13"/>
+      <c r="C500" s="4"/>
+      <c r="M500" s="9"/>
+    </row>
+    <row r="501" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B501" s="13"/>
+      <c r="C501" s="4"/>
+      <c r="M501" s="9"/>
+    </row>
+    <row r="502" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B502" s="13"/>
+      <c r="C502" s="4"/>
+      <c r="M502" s="9"/>
+    </row>
+    <row r="503" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B503" s="13"/>
+      <c r="C503" s="4"/>
+      <c r="M503" s="9"/>
+    </row>
+    <row r="504" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B504" s="13"/>
+      <c r="C504" s="4"/>
+      <c r="M504" s="9"/>
+    </row>
+    <row r="505" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B505" s="13"/>
+      <c r="C505" s="4"/>
+      <c r="M505" s="9"/>
+    </row>
+    <row r="506" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B506" s="13"/>
+      <c r="C506" s="4"/>
+      <c r="M506" s="9"/>
+    </row>
+    <row r="507" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B507" s="13"/>
+      <c r="C507" s="4"/>
+      <c r="M507" s="9"/>
+    </row>
+    <row r="508" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B508" s="13"/>
+      <c r="C508" s="4"/>
+      <c r="M508" s="9"/>
+    </row>
+    <row r="509" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B509" s="13"/>
+      <c r="C509" s="4"/>
+      <c r="M509" s="9"/>
+    </row>
+    <row r="510" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B510" s="13"/>
+      <c r="C510" s="4"/>
+      <c r="M510" s="9"/>
+    </row>
+    <row r="511" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B511" s="13"/>
+      <c r="C511" s="4"/>
+      <c r="M511" s="9"/>
+    </row>
+    <row r="512" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B512" s="13"/>
+      <c r="C512" s="4"/>
+      <c r="M512" s="9"/>
+    </row>
+    <row r="513" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B513" s="13"/>
+      <c r="C513" s="4"/>
+      <c r="M513" s="9"/>
+    </row>
+    <row r="514" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B514" s="13"/>
+      <c r="C514" s="4"/>
+      <c r="M514" s="9"/>
+    </row>
+    <row r="515" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B515" s="13"/>
+      <c r="C515" s="4"/>
+      <c r="M515" s="9"/>
+    </row>
+    <row r="516" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B516" s="13"/>
+      <c r="C516" s="4"/>
+      <c r="M516" s="9"/>
+    </row>
+    <row r="517" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B517" s="13"/>
+      <c r="C517" s="4"/>
+      <c r="M517" s="9"/>
+    </row>
+    <row r="518" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B518" s="13"/>
+      <c r="C518" s="4"/>
+      <c r="M518" s="9"/>
+    </row>
+    <row r="519" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B519" s="13"/>
+      <c r="C519" s="4"/>
+      <c r="M519" s="9"/>
+    </row>
+    <row r="520" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B520" s="13"/>
+      <c r="C520" s="4"/>
+      <c r="M520" s="9"/>
+    </row>
+    <row r="521" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B521" s="13"/>
+      <c r="C521" s="4"/>
+      <c r="M521" s="9"/>
+    </row>
+    <row r="522" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B522" s="13"/>
+      <c r="C522" s="4"/>
+      <c r="M522" s="9"/>
+    </row>
+    <row r="523" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B523" s="13"/>
+      <c r="C523" s="4"/>
+      <c r="M523" s="9"/>
+    </row>
+    <row r="524" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B524" s="13"/>
+      <c r="C524" s="4"/>
+      <c r="M524" s="9"/>
+    </row>
+    <row r="525" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B525" s="13"/>
+      <c r="C525" s="4"/>
+      <c r="M525" s="9"/>
+    </row>
+    <row r="526" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B526" s="13"/>
+      <c r="C526" s="4"/>
+      <c r="M526" s="9"/>
+    </row>
+    <row r="527" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B527" s="13"/>
+      <c r="C527" s="4"/>
+      <c r="M527" s="9"/>
+    </row>
+    <row r="528" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B528" s="13"/>
+      <c r="C528" s="4"/>
+      <c r="M528" s="9"/>
+    </row>
+    <row r="529" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B529" s="13"/>
+      <c r="C529" s="4"/>
+      <c r="M529" s="9"/>
+    </row>
+    <row r="530" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B530" s="13"/>
+      <c r="C530" s="4"/>
+      <c r="M530" s="9"/>
+    </row>
+    <row r="531" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B531" s="13"/>
+      <c r="C531" s="4"/>
+      <c r="M531" s="9"/>
+    </row>
+    <row r="532" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B532" s="13"/>
+      <c r="C532" s="4"/>
+      <c r="M532" s="9"/>
+    </row>
+    <row r="533" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B533" s="13"/>
+      <c r="C533" s="4"/>
+      <c r="M533" s="9"/>
+    </row>
+    <row r="534" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B534" s="13"/>
+      <c r="C534" s="4"/>
+      <c r="M534" s="9"/>
+    </row>
+    <row r="535" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B535" s="13"/>
+      <c r="C535" s="4"/>
+      <c r="M535" s="9"/>
+    </row>
+    <row r="536" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B536" s="13"/>
+      <c r="C536" s="4"/>
+      <c r="M536" s="9"/>
+    </row>
+    <row r="537" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B537" s="13"/>
+      <c r="C537" s="4"/>
+      <c r="M537" s="9"/>
+    </row>
+    <row r="538" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B538" s="13"/>
+      <c r="C538" s="4"/>
+      <c r="M538" s="9"/>
+    </row>
+    <row r="539" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B539" s="13"/>
+      <c r="C539" s="4"/>
+      <c r="M539" s="9"/>
+    </row>
+    <row r="540" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B540" s="13"/>
+      <c r="C540" s="4"/>
+      <c r="M540" s="9"/>
+    </row>
+    <row r="541" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B541" s="13"/>
+      <c r="C541" s="4"/>
+      <c r="M541" s="9"/>
+    </row>
+    <row r="542" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B542" s="13"/>
+      <c r="C542" s="4"/>
+      <c r="M542" s="9"/>
+    </row>
+    <row r="543" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B543" s="13"/>
+      <c r="C543" s="4"/>
+      <c r="M543" s="9"/>
+    </row>
+    <row r="544" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B544" s="13"/>
+      <c r="C544" s="4"/>
+      <c r="M544" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M409" xr:uid="{97D578EE-3C05-4D0C-AE17-43AAD0A9E4AC}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="IEA - 2019 - Average"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M544" xr:uid="{97D578EE-3C05-4D0C-AE17-43AAD0A9E4AC}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9565AE4A-1F71-4D88-A0D0-25074A7AB780}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="B2:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="14">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="14">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="14">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="14">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="14">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="14">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7.5568770886351902E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.4915434841648407E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.3985917505638404E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.7687813535218499E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.3836786372325099E-2</v>
+      </c>
+      <c r="G2">
+        <v>5.4963227143144201E-2</v>
+      </c>
+      <c r="H2">
+        <v>5.7586984528275001E-2</v>
+      </c>
+      <c r="I2">
+        <v>5.7900873718087102E-2</v>
+      </c>
+      <c r="J2">
+        <v>6.3131273669494906E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.124814185514372</v>
+      </c>
+      <c r="C3">
+        <v>0.12679762404938699</v>
+      </c>
+      <c r="D3">
+        <v>0.12746267849043999</v>
+      </c>
+      <c r="E3">
+        <v>0.12631081049267001</v>
+      </c>
+      <c r="F3">
+        <v>0.124085970518458</v>
+      </c>
+      <c r="G3">
+        <v>0.119825309654548</v>
+      </c>
+      <c r="H3">
+        <v>0.124928554103344</v>
+      </c>
+      <c r="I3">
+        <v>0.117922819530238</v>
+      </c>
+      <c r="J3">
+        <v>0.12587740441463199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6.6738299483936406E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.9811467324278897E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.5663587603148901E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.2908929003628197E-2</v>
+      </c>
+      <c r="F4">
+        <v>5.6969892931538403E-2</v>
+      </c>
+      <c r="G4">
+        <v>6.0358252281757202E-2</v>
+      </c>
+      <c r="H4">
+        <v>5.8348870628433198E-2</v>
+      </c>
+      <c r="I4">
+        <v>5.9352444439537799E-2</v>
+      </c>
+      <c r="J4">
+        <v>6.0821484602319502E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.2530463944459702E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.0059339446151901E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.2775831881922202E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.8402537140696297E-2</v>
+      </c>
+      <c r="F5">
+        <v>4.1233186077508401E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.1460708736780101E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.1252008905229703E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.1581727600413697E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.2328791025151101E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14141,8 +15004,8 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14438,9 +15301,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:D145"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14475,7 +15340,7 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B2),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C2)</f>
-        <v>7.5999999999999998E-2</v>
+        <v>7.5568770886351902E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14490,7 +15355,7 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B3),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C3)</f>
-        <v>0.217</v>
+        <v>0.124814185514372</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -14505,7 +15370,7 @@
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B4),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C4)</f>
-        <v>8.5000000000000006E-2</v>
+        <v>4.2530463944459702E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -14520,7 +15385,7 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B5),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C5)</f>
-        <v>0.11799999999999999</v>
+        <v>6.6738299483936406E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -14535,7 +15400,7 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B6),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C6)</f>
-        <v>7.5999999999999998E-2</v>
+        <v>7.4915434841648407E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -14550,7 +15415,7 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B7),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C7)</f>
-        <v>0.221</v>
+        <v>0.12679762404938699</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -14565,7 +15430,7 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B8),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C8)</f>
-        <v>8.5999999999999993E-2</v>
+        <v>5.0059339446151901E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -14580,7 +15445,7 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B9),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C9)</f>
-        <v>0.12</v>
+        <v>6.9811467324278897E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -14595,7 +15460,7 @@
       </c>
       <c r="D10" cm="1">
         <f t="array" ref="D10">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B10),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C10)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.3985917505638404E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -14610,7 +15475,7 @@
       </c>
       <c r="D11" cm="1">
         <f t="array" ref="D11">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B11),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C11)</f>
-        <v>0.221</v>
+        <v>0.12746267849043999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -14625,7 +15490,7 @@
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B12),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C12)</f>
-        <v>8.5999999999999993E-2</v>
+        <v>4.2775831881922202E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -14640,7 +15505,7 @@
       </c>
       <c r="D13" cm="1">
         <f t="array" ref="D13">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B13),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C13)</f>
-        <v>0.121</v>
+        <v>6.5663587603148901E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -14655,7 +15520,7 @@
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B14),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C14)</f>
-        <v>7.2999999999999995E-2</v>
+        <v>5.7687813535218499E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -14670,7 +15535,7 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B15),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C15)</f>
-        <v>0.222</v>
+        <v>0.12631081049267001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -14685,7 +15550,7 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" ref="D16">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B16),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C16)</f>
-        <v>8.5999999999999993E-2</v>
+        <v>4.8402537140696297E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -14700,7 +15565,7 @@
       </c>
       <c r="D17" cm="1">
         <f t="array" ref="D17">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B17),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C17)</f>
-        <v>0.122</v>
+        <v>6.2908929003628197E-2</v>
       </c>
       <c r="N17" t="s">
         <v>33</v>
@@ -14718,7 +15583,7 @@
       </c>
       <c r="D18" cm="1">
         <f t="array" ref="D18">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B18),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C18)</f>
-        <v>7.1999999999999995E-2</v>
+        <v>5.3836786372325099E-2</v>
       </c>
       <c r="N18" t="s">
         <v>34</v>
@@ -14736,7 +15601,7 @@
       </c>
       <c r="D19" cm="1">
         <f t="array" ref="D19">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B19),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C19)</f>
-        <v>0.221</v>
+        <v>0.124085970518458</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -14751,7 +15616,7 @@
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B20),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C20)</f>
-        <v>8.5999999999999993E-2</v>
+        <v>4.1233186077508401E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -14766,7 +15631,7 @@
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B21),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C21)</f>
-        <v>0.122</v>
+        <v>5.6969892931538403E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -14781,7 +15646,7 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" ref="D22">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B22),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C22)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>5.4963227143144201E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -14796,7 +15661,7 @@
       </c>
       <c r="D23" cm="1">
         <f t="array" ref="D23">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B23),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C23)</f>
-        <v>0.22</v>
+        <v>0.119825309654548</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -14811,7 +15676,7 @@
       </c>
       <c r="D24" cm="1">
         <f t="array" ref="D24">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B24),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C24)</f>
-        <v>8.6999999999999994E-2</v>
+        <v>4.1460708736780101E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -14826,7 +15691,7 @@
       </c>
       <c r="D25" cm="1">
         <f t="array" ref="D25">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B25),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C25)</f>
-        <v>0.123</v>
+        <v>6.0358252281757202E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -14841,7 +15706,7 @@
       </c>
       <c r="D26" cm="1">
         <f t="array" ref="D26">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B26),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C26)</f>
-        <v>6.7000000000000004E-2</v>
+        <v>5.7586984528275001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -14856,7 +15721,7 @@
       </c>
       <c r="D27" cm="1">
         <f t="array" ref="D27">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B27),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C27)</f>
-        <v>0.221</v>
+        <v>0.124928554103344</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -14871,7 +15736,7 @@
       </c>
       <c r="D28" cm="1">
         <f t="array" ref="D28">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B28),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C28)</f>
-        <v>8.7999999999999995E-2</v>
+        <v>4.1252008905229703E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -14886,7 +15751,7 @@
       </c>
       <c r="D29" cm="1">
         <f t="array" ref="D29">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B29),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C29)</f>
-        <v>0.123</v>
+        <v>5.8348870628433198E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -14901,7 +15766,7 @@
       </c>
       <c r="D30" cm="1">
         <f t="array" ref="D30">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B30),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C30)</f>
-        <v>6.4000000000000001E-2</v>
+        <v>5.7900873718087102E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -14916,7 +15781,7 @@
       </c>
       <c r="D31" cm="1">
         <f t="array" ref="D31">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B31),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C31)</f>
-        <v>0.223</v>
+        <v>0.117922819530238</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -14931,7 +15796,7 @@
       </c>
       <c r="D32" cm="1">
         <f t="array" ref="D32">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B32),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C32)</f>
-        <v>8.8999999999999996E-2</v>
+        <v>4.1581727600413697E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -14946,7 +15811,7 @@
       </c>
       <c r="D33" cm="1">
         <f t="array" ref="D33">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B33),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C33)</f>
-        <v>0.124</v>
+        <v>5.9352444439537799E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -14961,7 +15826,7 @@
       </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B34),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C34)</f>
-        <v>6.2E-2</v>
+        <v>6.3131273669494906E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -14976,7 +15841,7 @@
       </c>
       <c r="D35" cm="1">
         <f t="array" ref="D35">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B35),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C35)</f>
-        <v>0.22500000000000001</v>
+        <v>0.12587740441463199</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -14991,7 +15856,7 @@
       </c>
       <c r="D36" cm="1">
         <f t="array" ref="D36">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B36),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C36)</f>
-        <v>9.0999999999999998E-2</v>
+        <v>4.2328791025151101E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -15006,7 +15871,7 @@
       </c>
       <c r="D37" cm="1">
         <f t="array" ref="D37">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Constant_Electricity prices'!$B$2:$J$5,'Constant_Electricity prices'!$B$1:$J$1=Prices!$B37),'Constant_Electricity prices'!$A$2:$A$5=Prices!$C37)</f>
-        <v>0.125</v>
+        <v>6.0821484602319502E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -16087,6 +16952,546 @@
       <c r="D109" s="12" cm="1">
         <f t="array" ref="D109">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOHSUT_Electricity prices'!$B$2:$J$5,'EXIOHSUT_Electricity prices'!$B$1:$J$1=Prices!$B109),'EXIOHSUT_Electricity prices'!$A$2:$A$5=Prices!$C109)</f>
         <v>5.7803139393470877E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110">
+        <v>2011</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="12" cm="1">
+        <f t="array" ref="D110">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B110),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C110)</f>
+        <v>7.5568770886351902E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111">
+        <v>2011</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="12" cm="1">
+        <f t="array" ref="D111">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B111),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C111)</f>
+        <v>0.124814185514372</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112">
+        <v>2011</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="12" cm="1">
+        <f t="array" ref="D112">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B112),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C112)</f>
+        <v>4.2530463944459702E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113">
+        <v>2011</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="12" cm="1">
+        <f t="array" ref="D113">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B113),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C113)</f>
+        <v>6.6738299483936406E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114">
+        <v>2012</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="12" cm="1">
+        <f t="array" ref="D114">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B114),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C114)</f>
+        <v>7.4915434841648407E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115">
+        <v>2012</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="12" cm="1">
+        <f t="array" ref="D115">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B115),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C115)</f>
+        <v>0.12679762404938699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116">
+        <v>2012</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="12" cm="1">
+        <f t="array" ref="D116">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B116),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C116)</f>
+        <v>5.0059339446151901E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117">
+        <v>2012</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="12" cm="1">
+        <f t="array" ref="D117">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B117),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C117)</f>
+        <v>6.9811467324278897E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118">
+        <v>2013</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="12" cm="1">
+        <f t="array" ref="D118">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B118),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C118)</f>
+        <v>7.3985917505638404E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119">
+        <v>2013</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="12" cm="1">
+        <f t="array" ref="D119">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B119),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C119)</f>
+        <v>0.12746267849043999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120">
+        <v>2013</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="12" cm="1">
+        <f t="array" ref="D120">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B120),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C120)</f>
+        <v>4.2775831881922202E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121">
+        <v>2013</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="12" cm="1">
+        <f t="array" ref="D121">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B121),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C121)</f>
+        <v>6.5663587603148901E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122">
+        <v>2014</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="12" cm="1">
+        <f t="array" ref="D122">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B122),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C122)</f>
+        <v>5.7687813535218499E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123">
+        <v>2014</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="12" cm="1">
+        <f t="array" ref="D123">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B123),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C123)</f>
+        <v>0.12631081049267001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124">
+        <v>2014</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="12" cm="1">
+        <f t="array" ref="D124">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B124),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C124)</f>
+        <v>4.8402537140696297E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125">
+        <v>2014</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="12" cm="1">
+        <f t="array" ref="D125">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B125),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C125)</f>
+        <v>6.2908929003628197E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126">
+        <v>2015</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="12" cm="1">
+        <f t="array" ref="D126">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B126),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C126)</f>
+        <v>5.3836786372325099E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127">
+        <v>2015</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="12" cm="1">
+        <f t="array" ref="D127">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B127),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C127)</f>
+        <v>0.124085970518458</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128">
+        <v>2015</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="12" cm="1">
+        <f t="array" ref="D128">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B128),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C128)</f>
+        <v>4.1233186077508401E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129">
+        <v>2015</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="12" cm="1">
+        <f t="array" ref="D129">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B129),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C129)</f>
+        <v>5.6969892931538403E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130">
+        <v>2016</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="12" cm="1">
+        <f t="array" ref="D130">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B130),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C130)</f>
+        <v>5.4963227143144201E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131">
+        <v>2016</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="12" cm="1">
+        <f t="array" ref="D131">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B131),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C131)</f>
+        <v>0.119825309654548</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132">
+        <v>2016</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="12" cm="1">
+        <f t="array" ref="D132">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B132),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C132)</f>
+        <v>4.1460708736780101E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133">
+        <v>2016</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="12" cm="1">
+        <f t="array" ref="D133">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B133),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C133)</f>
+        <v>6.0358252281757202E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134">
+        <v>2017</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="12" cm="1">
+        <f t="array" ref="D134">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B134),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C134)</f>
+        <v>5.7586984528275001E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135">
+        <v>2017</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="12" cm="1">
+        <f t="array" ref="D135">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B135),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C135)</f>
+        <v>0.124928554103344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136">
+        <v>2017</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="12" cm="1">
+        <f t="array" ref="D136">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B136),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C136)</f>
+        <v>4.1252008905229703E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137">
+        <v>2017</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="12" cm="1">
+        <f t="array" ref="D137">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B137),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C137)</f>
+        <v>5.8348870628433198E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138">
+        <v>2018</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="12" cm="1">
+        <f t="array" ref="D138">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B138),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C138)</f>
+        <v>5.7900873718087102E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>52</v>
+      </c>
+      <c r="B139">
+        <v>2018</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="12" cm="1">
+        <f t="array" ref="D139">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B139),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C139)</f>
+        <v>0.117922819530238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>52</v>
+      </c>
+      <c r="B140">
+        <v>2018</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="12" cm="1">
+        <f t="array" ref="D140">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B140),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C140)</f>
+        <v>4.1581727600413697E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141">
+        <v>2018</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="12" cm="1">
+        <f t="array" ref="D141">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B141),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C141)</f>
+        <v>5.9352444439537799E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142">
+        <v>2019</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="12" cm="1">
+        <f t="array" ref="D142">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B142),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C142)</f>
+        <v>6.3131273669494906E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143">
+        <v>2019</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="12" cm="1">
+        <f t="array" ref="D143">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B143),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C143)</f>
+        <v>0.12587740441463199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144">
+        <v>2019</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="12" cm="1">
+        <f t="array" ref="D144">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B144),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C144)</f>
+        <v>4.2328791025151101E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145">
+        <v>2019</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="12" cm="1">
+        <f t="array" ref="D145">_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('EXIOBASE_Electricity prices'!$B$2:$J$5,'EXIOBASE_Electricity prices'!$B$1:$J$1=Prices!$B145),'EXIOBASE_Electricity prices'!$A$2:$A$5=Prices!$C145)</f>
+        <v>6.0821484602319502E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16278,56 +17683,181 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A939F00-16A0-4A68-A92C-7C7925D853B2}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="9.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6">
         <v>2011</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="6">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="6">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="6">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17914371.626316801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4644813055555.5498</v>
+      </c>
+      <c r="C2">
+        <v>4918995000000</v>
+      </c>
+      <c r="D2">
+        <v>5351892222222.2197</v>
+      </c>
+      <c r="E2">
+        <v>5565737500000</v>
+      </c>
+      <c r="F2">
+        <v>5733606666666.6602</v>
+      </c>
+      <c r="G2">
+        <v>4718531490809.71</v>
+      </c>
+      <c r="H2">
+        <v>4039838820291.75</v>
+      </c>
+      <c r="I2">
+        <v>6135766286450.46</v>
+      </c>
+      <c r="J2">
+        <v>4802277126767.4199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11617342.9600616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2488734722222.2202</v>
+      </c>
+      <c r="C3">
+        <v>2501671111111.1099</v>
+      </c>
+      <c r="D3">
+        <v>2509784722222.2202</v>
+      </c>
+      <c r="E3">
+        <v>2466974166666.6602</v>
+      </c>
+      <c r="F3">
+        <v>2484131944444.4399</v>
+      </c>
+      <c r="G3">
+        <v>2485601843934.5498</v>
+      </c>
+      <c r="H3">
+        <v>2430399456469.6499</v>
+      </c>
+      <c r="I3">
+        <v>2758132413353.6201</v>
+      </c>
+      <c r="J3">
+        <v>2596842260382.5898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>33014904.042284802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8128754166666.6602</v>
+      </c>
+      <c r="C4">
+        <v>8341220277777.7695</v>
+      </c>
+      <c r="D4">
+        <v>8531422222222.2197</v>
+      </c>
+      <c r="E4">
+        <v>8770196388888.8799</v>
+      </c>
+      <c r="F4">
+        <v>8910660000000</v>
+      </c>
+      <c r="G4">
+        <v>8561965721228.5498</v>
+      </c>
+      <c r="H4">
+        <v>9553639201927.5293</v>
+      </c>
+      <c r="I4">
+        <v>9990993018920.8398</v>
+      </c>
+      <c r="J4">
+        <v>10087917676640.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15544158.800069399</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>4005820000000</v>
+      </c>
+      <c r="C5">
+        <v>3934109722222.2202</v>
+      </c>
+      <c r="D5">
+        <v>3966257222222.2202</v>
+      </c>
+      <c r="E5">
+        <v>3998445277777.77</v>
+      </c>
+      <c r="F5">
+        <v>3970299166666.6602</v>
+      </c>
+      <c r="G5">
+        <v>3650277328121.4902</v>
+      </c>
+      <c r="H5">
+        <v>4472086098620.5801</v>
+      </c>
+      <c r="I5">
+        <v>4748525498264.5195</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4437733266040.2197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16336,13 +17866,75 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>17914371.626316801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>11617342.9600616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>33014904.042284802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15544158.800069399</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16382,128 +17974,128 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E2">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="I2">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="J2">
-        <v>6.2E-2</v>
+      <c r="B2" s="12">
+        <v>7.5568770886351902E-2</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7.4915434841648407E-2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>7.3985917505638404E-2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>5.7687813535218499E-2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>5.3836786372325099E-2</v>
+      </c>
+      <c r="G2" s="12">
+        <v>5.4963227143144201E-2</v>
+      </c>
+      <c r="H2" s="12">
+        <v>5.7586984528275001E-2</v>
+      </c>
+      <c r="I2" s="12">
+        <v>5.7900873718087102E-2</v>
+      </c>
+      <c r="J2" s="12">
+        <v>6.3131273669494906E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.217</v>
-      </c>
-      <c r="C3">
-        <v>0.221</v>
-      </c>
-      <c r="D3">
-        <v>0.221</v>
-      </c>
-      <c r="E3">
-        <v>0.222</v>
-      </c>
-      <c r="F3">
-        <v>0.221</v>
-      </c>
-      <c r="G3">
-        <v>0.22</v>
-      </c>
-      <c r="H3">
-        <v>0.221</v>
-      </c>
-      <c r="I3">
-        <v>0.223</v>
-      </c>
-      <c r="J3">
-        <v>0.22500000000000001</v>
+      <c r="B3" s="12">
+        <v>0.124814185514372</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.12679762404938699</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.12746267849043999</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.12631081049267001</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.124085970518458</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.119825309654548</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.124928554103344</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.117922819530238</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.12587740441463199</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.12</v>
-      </c>
-      <c r="D4">
-        <v>0.121</v>
-      </c>
-      <c r="E4">
-        <v>0.122</v>
-      </c>
-      <c r="F4">
-        <v>0.122</v>
-      </c>
-      <c r="G4">
-        <v>0.123</v>
-      </c>
-      <c r="H4">
-        <v>0.123</v>
-      </c>
-      <c r="I4">
-        <v>0.124</v>
-      </c>
-      <c r="J4">
-        <v>0.125</v>
+      <c r="B4" s="12">
+        <v>6.6738299483936406E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>6.9811467324278897E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6.5663587603148901E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6.2908929003628197E-2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>5.6969892931538403E-2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>6.0358252281757202E-2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>5.8348870628433198E-2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5.9352444439537799E-2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>6.0821484602319502E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G5">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H5">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="J5">
-        <v>9.0999999999999998E-2</v>
+      <c r="B5" s="12">
+        <v>4.2530463944459702E-2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5.0059339446151901E-2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4.2775831881922202E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4.8402537140696297E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4.1233186077508401E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4.1460708736780101E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>4.1252008905229703E-2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4.1581727600413697E-2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>4.2328791025151101E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16511,7 +18103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -16691,7 +18283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
